--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1F0F10-50C9-4492-9D1C-1A2372D82539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC8BBD-7C49-475A-B753-B1EC92B334C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BEB3553-591A-4AAE-BC2B-1E70F2790E13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="260">
   <si>
     <t>5-hydroxytryptophan</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Phe/Tyr</t>
   </si>
   <si>
-    <t>GSG_index</t>
-  </si>
-  <si>
     <t>Glycine/Serine</t>
   </si>
   <si>
@@ -814,6 +811,9 @@
   </si>
   <si>
     <t>Trp / Kyn</t>
+  </si>
+  <si>
+    <t>GSG Index</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,13 +857,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -872,7 +865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,12 +874,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -909,70 +956,48 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1290,8 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326AF10E-2E85-403B-AF84-ED0049606E91}">
   <dimension ref="A1:FI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CT11" sqref="CT11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FF15" sqref="FF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,11 +1338,12 @@
     <col min="93" max="93" width="12" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>164</v>
+    <row r="1" spans="1:165" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1637,1434 +1664,1434 @@
         <v>105</v>
       </c>
       <c r="DD1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DE1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EM1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EU1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EV1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EX1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EY1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FA1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:165" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="18">
         <v>0.13369126445732676</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="18">
         <v>0.57739271966587835</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="18">
         <v>0.37708597857423576</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="18">
         <v>79.419112261901788</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="18">
         <v>41.656661010564839</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="18">
         <v>2.7829012524423088E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="18">
         <v>3.8996581983238716</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="18">
         <v>1.1497088774143327</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="18">
         <v>9.9491915533655051E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="18">
         <v>5.1421748544886861E-2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="18">
         <v>0.68583325927602234</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="18">
         <v>0.69333429901133947</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="18">
         <v>4.288866005051694E-2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="18">
         <v>1.800677628778514</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="18">
         <v>2.2361911613121312E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="18">
         <v>9.2672946928836514E-2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="18">
         <v>53.70591874562011</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="18">
         <v>0.40130043122229009</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="18">
         <v>116.53609231756444</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="18">
         <v>0.11853778872303929</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="18">
         <v>8.2216079995303878E-2</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="18">
         <v>50.775010182048021</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="18">
         <v>1.9721021093184743E-2</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="18">
         <v>0.31720069332853074</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="18">
         <v>0.31680912657134175</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="18">
         <v>1.4779867236720869</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="18">
         <v>303.34547725268925</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="18">
         <v>22.863013535676846</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="18">
         <v>18.830338686495669</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="18">
         <v>110.6536493401524</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="18">
         <v>291.31844676829201</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="18">
         <v>205.3208186600931</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="18">
         <v>97.20867280107656</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="18">
         <v>7.3696370396385689</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="18">
         <v>223.26724613665274</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="18">
         <v>14.285839807577144</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="18">
         <v>53.703074922701155</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="18">
         <v>208.80156238313606</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="18">
         <v>175.38888817740028</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="18">
         <v>42.578644884337109</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="18">
         <v>76.542730714849171</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="18">
         <v>62.863337185589593</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="18">
         <v>196.94965937601188</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="18">
         <v>51.914232650131545</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="18">
         <v>9.4660018708603939</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="18">
         <v>0.30608200721184287</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="18">
         <v>27.155184265812093</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="18">
         <v>0.33005585073731408</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="18">
         <v>13.919563394328268</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="18">
         <v>0.21801917995788081</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="18">
         <v>0.61955343227389525</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="18">
         <v>49.032364048440819</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="18">
         <v>9.8710409275267405E-3</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="18">
         <v>0.13059330749374468</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="18">
         <v>0.12660702414122099</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="18">
         <v>0.81244888078975896</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="18">
         <v>32.661350255051993</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="18">
         <v>0.12731270041335935</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="18">
         <v>6.6600341876746683E-2</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="18">
         <v>3.0597569964947841E-3</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="18">
         <v>3.2969606287178786E-2</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="18">
         <v>1.9056152781604999E-2</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="18">
         <v>1.2776703938118696E-2</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="18">
         <v>5.4871485871904803E-2</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="18">
         <v>2.4034473949121293E-2</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="18">
         <v>6.8827023378868826E-3</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="18">
         <v>5.1574332844394347E-2</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="18">
         <v>1.1564407566645915E-2</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="18">
         <v>1.1063773806977708E-3</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="18">
         <v>1.6079175890276416E-2</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="18">
         <v>2.5973174468612078E-2</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="18">
         <v>7.4261516998869764E-2</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="18">
         <v>1.0842992778108502E-3</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="18">
         <v>3.6052562969772578E-2</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="18">
         <v>1.4143729845700313E-3</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="18">
         <v>6.688899938032181</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="18">
         <v>0.30917997087145743</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="18">
         <v>0.15159671041082676</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="18">
         <v>6.9949933378581214E-2</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="18">
         <v>7.9588510108448505E-3</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="18">
         <v>4.6699839156393442E-4</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="18">
         <v>4.6505278790162068E-3</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="18">
         <v>3.6460011496194829E-2</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="18">
         <v>3.1593891447313492E-3</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="18">
         <v>0.13433513752420945</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="18">
         <v>3.132217658842662E-2</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="18">
         <v>168.76857387507513</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="18">
         <v>177.24624479154079</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="18">
         <v>0.14356275049697334</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="18">
         <v>1.3091645264556049</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="18">
         <v>4.0875229788224132</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="18">
         <v>5.1672784209477136</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="18">
         <v>1.2558740691089865E-2</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="18">
         <v>3.6503340812309236E-2</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="18">
         <v>5.6227271622940007</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="18">
         <v>439.75568945960714</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="18">
         <v>8.9712458840008419E-2</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" s="18">
         <v>0.31767558647868138</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" s="18">
         <v>0.22686356673811425</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" s="18">
         <v>26.222318631519293</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" s="18">
         <v>0.11955509932803128</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" s="18">
         <v>9.3350684380441567E-3</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" s="18">
         <v>372.33854755341213</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" s="18">
         <v>3.1906087191627486</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" s="18">
         <v>2.5879776589677488E-3</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" s="18">
         <v>0.87727200995402654</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" s="18">
         <v>0.35107163200914504</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" s="18">
         <v>1.8226562370353874</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" s="18">
         <v>9.274929794385979E-2</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" s="18">
         <v>0.21752849830007015</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" s="18">
         <v>24.376465868009692</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" s="18">
         <v>2.4537580471021243E-2</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" s="18">
         <v>1.0768427498286972</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" s="18">
         <v>0.67369224170904041</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" s="18">
         <v>10.657411621627997</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" s="18">
         <v>3.1727696818228748E-2</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" s="18">
         <v>1.5760991168773608</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" s="18">
         <v>29.70001939847559</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" s="18">
         <v>6.0453493083195129</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" s="18">
         <v>0.85032709694920872</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" s="18">
         <v>69.733829150149191</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" s="18">
         <v>439.75568945960714</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" s="18">
         <v>2.4989196156501893E-3</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" s="18">
         <v>0.13914745001094853</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" s="18">
         <v>1.5731837572127281</v>
       </c>
-      <c r="DW2">
+      <c r="DW2" s="18">
         <v>0.11955509932803128</v>
       </c>
-      <c r="DX2">
+      <c r="DX2" s="18">
         <v>7.3762843535273639E-2</v>
       </c>
-      <c r="DY2">
+      <c r="DY2" s="18">
         <v>0.32829519743618035</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ2" s="18">
         <v>0.35964687295350556</v>
       </c>
-      <c r="EA2">
+      <c r="EA2" s="18">
         <v>0.19981512477124752</v>
       </c>
-      <c r="EB2">
+      <c r="EB2" s="18">
         <v>0.11002971329486726</v>
       </c>
-      <c r="EC2">
+      <c r="EC2" s="18">
         <v>1.0579481559840913</v>
       </c>
-      <c r="ED2">
+      <c r="ED2" s="18">
         <v>9.3350684380441567E-3</v>
       </c>
-      <c r="EE2">
+      <c r="EE2" s="18">
         <v>6.2797710231310271</v>
       </c>
-      <c r="EF2">
+      <c r="EF2" s="18">
         <v>0.21752849830007015</v>
       </c>
-      <c r="EG2">
+      <c r="EG2" s="18">
         <v>7.9958176760374722E-4</v>
       </c>
-      <c r="EH2">
+      <c r="EH2" s="18">
         <v>0.45427527310894711</v>
       </c>
-      <c r="EI2">
+      <c r="EI2" s="18">
         <v>7.232702929974467</v>
       </c>
-      <c r="EJ2">
+      <c r="EJ2" s="18">
         <v>1.4182666325212814</v>
       </c>
-      <c r="EK2">
+      <c r="EK2" s="18">
         <v>23.315232741839338</v>
       </c>
-      <c r="EL2">
+      <c r="EL2" s="18">
         <v>18.816760906303411</v>
       </c>
-      <c r="EM2">
+      <c r="EM2" s="18">
         <v>2.160785090415182E-3</v>
       </c>
-      <c r="EN2">
+      <c r="EN2" s="18">
         <v>0.54028946818802426</v>
       </c>
-      <c r="EO2">
+      <c r="EO2" s="18">
         <v>8.0035474121813994</v>
       </c>
-      <c r="EP2">
+      <c r="EP2" s="18">
         <v>40.664897667233397</v>
       </c>
-      <c r="EQ2">
+      <c r="EQ2" s="18">
         <v>0.25953116368616863</v>
       </c>
-      <c r="ER2">
+      <c r="ER2" s="18">
         <v>0.26782560935355226</v>
       </c>
-      <c r="ES2">
+      <c r="ES2" s="18">
         <v>6.3146793915388674E-2</v>
       </c>
-      <c r="ET2">
+      <c r="ET2" s="18">
         <v>3.5069543312896818</v>
       </c>
-      <c r="EU2">
+      <c r="EU2" s="18">
         <v>1.0519328884208539</v>
       </c>
-      <c r="EV2">
+      <c r="EV2" s="18">
         <v>0.25576232604524518</v>
       </c>
-      <c r="EW2">
+      <c r="EW2" s="18">
         <v>0.24415314931514195</v>
       </c>
-      <c r="EX2">
+      <c r="EX2" s="18">
         <v>0.99507103501386096</v>
       </c>
-      <c r="EY2">
+      <c r="EY2" s="18">
         <v>7.2776072131477314E-3</v>
       </c>
-      <c r="EZ2">
+      <c r="EZ2" s="18">
         <v>7.3041395199836675E-3</v>
       </c>
-      <c r="FA2">
+      <c r="FA2" s="18">
         <v>1.0405305254767825E-2</v>
       </c>
-      <c r="FB2">
+      <c r="FB2" s="18">
         <v>1.7709444774751493E-2</v>
       </c>
-      <c r="FC2">
+      <c r="FC2" s="18">
         <v>1.3898416004556371</v>
       </c>
-      <c r="FD2">
+      <c r="FD2" s="18">
         <v>0.8227861995989576</v>
       </c>
-      <c r="FE2">
+      <c r="FE2" s="18">
         <v>0.78843431617034343</v>
       </c>
-      <c r="FF2">
+      <c r="FF2" s="18">
         <v>5.1672784209477136</v>
       </c>
-      <c r="FG2">
+      <c r="FG2" s="18">
         <v>1.1973426938581447E-2</v>
       </c>
-      <c r="FH2">
+      <c r="FH2" s="18">
         <v>498.80487757417092</v>
       </c>
-      <c r="FI2">
+      <c r="FI2" s="18">
         <v>1673.4084342399026</v>
       </c>
     </row>
     <row r="3" spans="1:165" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="16">
         <v>4.1920876829015685E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="16">
         <v>0.29639081871484824</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="16">
         <v>0.29757846535167026</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="16">
         <v>23.63472694575632</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="16">
         <v>9.651069456010827</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="16">
         <v>4.3307189152183755E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
         <v>1.8443585634152315</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="16">
         <v>0.5665178567482112</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="16">
         <v>0.15402351897696476</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="16">
         <v>2.4754994386897676E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="16">
         <v>0.35116079098461406</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="16">
         <v>0.69885663560670086</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="16">
         <v>1.840869924683227E-2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="16">
         <v>0.53493297013992624</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="16">
         <v>5.8541253161073304E-3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="16">
         <v>0.15642555361077753</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="16">
         <v>16.597913619192465</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="16">
         <v>0.19285729833452089</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="16">
         <v>29.462824132257442</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="16">
         <v>0.1908262287986208</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="16">
         <v>8.4083013577359353E-2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="16">
         <v>10.86144689736976</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="16">
         <v>1.4341098342970043E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="16">
         <v>0.21885153642667957</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="16">
         <v>4.2750522856068417E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="16">
         <v>0.46826835122514032</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="16">
         <v>76.528000233667029</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="16">
         <v>5.0122047765662714</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="16">
         <v>6.9512501640725546</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="16">
         <v>134.49137765534294</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="16">
         <v>59.349519935530495</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="16">
         <v>48.235112579972508</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="16">
         <v>26.142223899889526</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="16">
         <v>4.1149829507398321</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="16">
         <v>34.23807786407874</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="16">
         <v>11.915594827549986</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="16">
         <v>9.092752335639732</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="16">
         <v>85.310355259574877</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="16">
         <v>47.042035097588332</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="16">
         <v>26.209796535872513</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="16">
         <v>38.543606413535628</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="16">
         <v>15.391196174999367</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="16">
         <v>44.010205816484067</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="16">
         <v>12.391433814612334</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="16">
         <v>2.5327554110035781</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="16">
         <v>0.13823950690841644</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="16">
         <v>7.480274527728092</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="16">
         <v>0.21277060983944532</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="16">
         <v>25.48776568917291</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="16">
         <v>9.9578633886075726E-2</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="16">
         <v>0.20379016552359566</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="16">
         <v>16.548023625617198</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="16">
         <v>3.076220028593276E-2</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="16">
         <v>4.1338445580756958E-2</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="16">
         <v>0.11671784052102471</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="16">
         <v>0.31631760566273959</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="16">
         <v>8.973406717688631</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="16">
         <v>7.8416200374056735E-2</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="16">
         <v>3.3336281559721952E-2</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="16">
         <v>1.4407967147573491E-3</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="16">
         <v>2.1448649711324055E-2</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="16">
         <v>1.106619736773164E-2</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="16">
         <v>4.8967772327046183E-3</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="16">
         <v>2.6888128215544836E-2</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="16">
         <v>1.0542632057482975E-2</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="16">
         <v>1.5085954740886494E-3</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="16">
         <v>1.2555736940717519E-2</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="16">
         <v>4.5732679423909463E-3</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="16">
         <v>5.5555446228958659E-4</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="16">
         <v>4.3961411380235857E-3</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="16">
         <v>7.5949263086822951E-3</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="16">
         <v>2.4205968192950542E-2</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="16">
         <v>5.1553992805763353E-4</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="16">
         <v>1.3698845051638861E-2</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="16">
         <v>4.686023804053365E-4</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" s="16">
         <v>2.3807393269173205</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" s="16">
         <v>0.15119770948904937</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="16">
         <v>0.11242014412567318</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" s="16">
         <v>3.0622654175897893E-2</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" s="16">
         <v>4.4030335945560448E-3</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" s="16">
         <v>1.9344112943598573E-4</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" s="16">
         <v>2.3583935975521812E-3</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" s="16">
         <v>1.7834838675307791E-2</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" s="16">
         <v>5.0586148040193757E-3</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="16">
         <v>0.17114152814782249</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" s="16">
         <v>4.3076875502402905E-2</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" s="16">
         <v>95.407379059396931</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" s="16">
         <v>100.29762171776508</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" s="16">
         <v>0.25940496154734827</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" s="16">
         <v>2.3523642413096741</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" s="16">
         <v>1.8568767797142653</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" s="16">
         <v>2.2348754524831671</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" s="16">
         <v>4.5699548786250904E-3</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" s="16">
         <v>1.2766789498040587E-2</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" s="16">
         <v>1.1906279502952097</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" s="16">
         <v>143.5441914450337</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" s="16">
         <v>0.44864552562102455</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" s="16">
         <v>8.5979969997820593E-2</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" s="16">
         <v>9.7147096288448143E-2</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" s="16">
         <v>16.29996394169213</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" s="16">
         <v>0.56234241484298209</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" s="16">
         <v>2.83113145680511E-3</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" s="16">
         <v>89.777203208703057</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" s="16">
         <v>0.4261997514134005</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" s="16">
         <v>4.624395883390248E-3</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" s="16">
         <v>0.15536106133102381</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" s="16">
         <v>0.40699510156343938</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" s="16">
         <v>0.43580855276715674</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" s="16">
         <v>0.11317204286802365</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" s="16">
         <v>9.7660657027641012E-2</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" s="16">
         <v>6.4945417091909432</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" s="16">
         <v>8.6281470079346712E-3</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" s="16">
         <v>1.0057198302703192</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" s="16">
         <v>0.17203804249623605</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" s="16">
         <v>25.216920191767009</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" s="16">
         <v>6.0484834636672568E-3</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" s="16">
         <v>0.3818988546645749</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" s="16">
         <v>7.5657264121686527</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" s="16">
         <v>7.0457977582262821</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" s="16">
         <v>0.23233513036364778</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" s="16">
         <v>28.439262215746162</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" s="16">
         <v>143.5441914450337</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" s="16">
         <v>7.569453319488938E-4</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" s="16">
         <v>0.69171753617217768</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" s="16">
         <v>1.1817715228372541</v>
       </c>
-      <c r="DW3">
+      <c r="DW3" s="16">
         <v>0.56234241484298209</v>
       </c>
-      <c r="DX3">
+      <c r="DX3" s="16">
         <v>0.36275221824638409</v>
       </c>
-      <c r="DY3">
+      <c r="DY3" s="16">
         <v>0.12140479975892364</v>
       </c>
-      <c r="DZ3">
+      <c r="DZ3" s="16">
         <v>1.7905088476406612</v>
       </c>
-      <c r="EA3">
+      <c r="EA3" s="16">
         <v>0.10454574713301222</v>
       </c>
-      <c r="EB3">
+      <c r="EB3" s="16">
         <v>0.52373973170563348</v>
       </c>
-      <c r="EC3">
+      <c r="EC3" s="16">
         <v>0.89403774096150457</v>
       </c>
-      <c r="ED3">
+      <c r="ED3" s="16">
         <v>2.83113145680511E-3</v>
       </c>
-      <c r="EE3">
+      <c r="EE3" s="16">
         <v>3.095015999778437</v>
       </c>
-      <c r="EF3">
+      <c r="EF3" s="16">
         <v>9.7660657027641012E-2</v>
       </c>
-      <c r="EG3">
+      <c r="EG3" s="16">
         <v>2.1695465464283077E-4</v>
       </c>
-      <c r="EH3">
+      <c r="EH3" s="16">
         <v>0.28615051297346916</v>
       </c>
-      <c r="EI3">
+      <c r="EI3" s="16">
         <v>2.3893945971452366</v>
       </c>
-      <c r="EJ3">
+      <c r="EJ3" s="16">
         <v>0.70550105576594413</v>
       </c>
-      <c r="EK3">
+      <c r="EK3" s="16">
         <v>6.2779281370013704</v>
       </c>
-      <c r="EL3">
+      <c r="EL3" s="16">
         <v>8.0820735317225214</v>
       </c>
-      <c r="EM3">
+      <c r="EM3" s="16">
         <v>7.6854868410153603E-4</v>
       </c>
-      <c r="EN3">
+      <c r="EN3" s="16">
         <v>0.43532525564198493</v>
       </c>
-      <c r="EO3">
+      <c r="EO3" s="16">
         <v>2.5664152194602536</v>
       </c>
-      <c r="EP3">
+      <c r="EP3" s="16">
         <v>9.660819364765791</v>
       </c>
-      <c r="EQ3">
+      <c r="EQ3" s="16">
         <v>0.10628659672011968</v>
       </c>
-      <c r="ER3">
+      <c r="ER3" s="16">
         <v>9.2459539128038976E-2</v>
       </c>
-      <c r="ES3">
+      <c r="ES3" s="16">
         <v>2.1921331611514064E-2</v>
       </c>
-      <c r="ET3">
+      <c r="ET3" s="16">
         <v>1.5950649402960755</v>
       </c>
-      <c r="EU3">
+      <c r="EU3" s="16">
         <v>0.43401239081064674</v>
       </c>
-      <c r="EV3">
+      <c r="EV3" s="16">
         <v>1.2204711491050344</v>
       </c>
-      <c r="EW3">
+      <c r="EW3" s="16">
         <v>9.0389193703638543E-2</v>
       </c>
-      <c r="EX3">
+      <c r="EX3" s="16">
         <v>0.29256556857574167</v>
       </c>
-      <c r="EY3">
+      <c r="EY3" s="16">
         <v>2.8057131684499949E-3</v>
       </c>
-      <c r="EZ3">
+      <c r="EZ3" s="16">
         <v>2.8084635922232953E-3</v>
       </c>
-      <c r="FA3">
+      <c r="FA3" s="16">
         <v>3.2452252567975689E-3</v>
       </c>
-      <c r="FB3">
+      <c r="FB3" s="16">
         <v>5.0312952930498299E-3</v>
       </c>
-      <c r="FC3">
+      <c r="FC3" s="16">
         <v>0.56116819697503506</v>
       </c>
-      <c r="FD3">
+      <c r="FD3" s="16">
         <v>0.22944210673845472</v>
       </c>
-      <c r="FE3">
+      <c r="FE3" s="16">
         <v>0.1828793964419089</v>
       </c>
-      <c r="FF3">
+      <c r="FF3" s="16">
         <v>2.2348754524831671</v>
       </c>
-      <c r="FG3">
+      <c r="FG3" s="16">
         <v>6.0913838467118843E-3</v>
       </c>
-      <c r="FH3">
+      <c r="FH3" s="16">
         <v>148.47908694967077</v>
       </c>
-      <c r="FI3">
+      <c r="FI3" s="16">
         <v>748.80971238234622</v>
       </c>
     </row>
     <row r="4" spans="1:165" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="8">
         <v>0.08</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>45.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>26.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>1.31</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <v>0.54</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>0.01</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>0.33</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <v>0.02</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="9">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="9">
         <v>0.01</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="9">
         <v>31.1</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="9">
         <v>0.13</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="9">
         <v>78.3</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="9">
         <v>0.02</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="9">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="9">
         <v>36.200000000000003</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="9">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="9">
         <v>0.12</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="9">
         <v>0.25</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="9">
         <v>0.7</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="9">
         <v>199.7</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="9">
         <v>15.6</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="9">
         <v>13.8</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="9">
         <v>43.5</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="9">
         <v>196.1</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="9">
         <v>137.69999999999999</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="9">
         <v>59.9</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="9">
         <v>3.16</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="9">
         <v>161.69999999999999</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="9">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="9">
         <v>43.5</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="9">
         <v>106.7</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="9">
         <v>115.2</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="9">
         <v>27.7</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="9">
         <v>55.1</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="9">
         <v>36.799999999999997</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="9">
         <v>137</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="9">
         <v>28.6</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="9">
         <v>5.68</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="9">
         <v>0.15</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="9">
         <v>0</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="9">
         <v>0.26</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="9">
         <v>0</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="9">
         <v>16.8</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="9">
         <v>0</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="9">
         <v>0.09</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="9">
         <v>0.03</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="9">
         <v>19.5</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="9">
         <v>0.03</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="9">
         <v>0.02</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="9">
         <v>0</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="9">
         <v>0.01</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="9">
         <v>0</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="9">
         <v>0.01</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="9">
         <v>0.01</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="9">
         <v>0</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="9">
         <v>0</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="9">
         <v>0.03</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="9">
         <v>0</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="9">
         <v>0</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="9">
         <v>0.01</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="9">
         <v>0.02</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="9">
         <v>0.04</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="9">
         <v>0</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="9">
         <v>0.02</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="9">
         <v>1E-3</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" s="9">
         <v>3.75</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" s="9">
         <v>0.13</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="9">
         <v>0.06</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" s="9">
         <v>0.03</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" s="9">
         <v>0</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" s="9">
         <v>0</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" s="9">
         <v>0</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" s="9">
         <v>0.01</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" s="9">
         <v>0.01</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="9">
         <v>0.03</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="9">
         <v>0.01</v>
       </c>
       <c r="CJ4" s="4">
@@ -3076,7 +3103,7 @@
       <c r="CL4" s="6">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="CM4" s="20">
+      <c r="CM4" s="10">
         <v>0</v>
       </c>
       <c r="CN4" s="5">
@@ -3085,7 +3112,7 @@
       <c r="CO4" s="5">
         <v>1.8736999999999999</v>
       </c>
-      <c r="CP4" s="17">
+      <c r="CP4" s="9">
         <v>3.3E-3</v>
       </c>
       <c r="CQ4" s="7">
@@ -3103,16 +3130,16 @@
       <c r="CU4" s="5">
         <v>0.28120000000000001</v>
       </c>
-      <c r="CV4" s="13">
+      <c r="CV4" s="11">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="CW4" s="14">
+      <c r="CW4" s="10">
         <v>4.63</v>
       </c>
-      <c r="CX4" s="13">
+      <c r="CX4" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CY4" s="13">
+      <c r="CY4" s="11">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="CZ4" s="5">
@@ -3121,7 +3148,7 @@
       <c r="DA4" s="5">
         <v>1.8396999999999999</v>
       </c>
-      <c r="DB4" s="9">
+      <c r="DB4" s="12">
         <v>0</v>
       </c>
       <c r="DC4" s="5">
@@ -3133,7 +3160,7 @@
       <c r="DE4" s="5">
         <v>0.59430000000000005</v>
       </c>
-      <c r="DF4" s="9">
+      <c r="DF4" s="12">
         <v>0</v>
       </c>
       <c r="DG4" s="5">
@@ -3142,426 +3169,426 @@
       <c r="DH4" s="5">
         <v>13.292400000000001</v>
       </c>
-      <c r="DI4" s="11">
+      <c r="DI4" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="DJ4" s="5">
+        <v>0.33333332999999998</v>
+      </c>
+      <c r="DK4" s="5">
+        <v>0.68602903999999998</v>
+      </c>
+      <c r="DL4" s="5">
         <v>0</v>
       </c>
-      <c r="DJ4" s="8">
-        <v>0.33333332999999998</v>
-      </c>
-      <c r="DK4" s="8">
-        <v>0.68602903999999998</v>
-      </c>
-      <c r="DL4" s="8">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="8">
+      <c r="DM4" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="DN4" s="8">
+      <c r="DN4" s="5">
         <v>1.45766423</v>
       </c>
-      <c r="DO4" s="8">
+      <c r="DO4" s="5">
         <v>15</v>
       </c>
-      <c r="DP4" s="8">
+      <c r="DP4" s="5">
         <v>0.98</v>
       </c>
-      <c r="DQ4" s="15">
+      <c r="DQ4" s="13">
         <v>0.2853</v>
       </c>
       <c r="DR4" s="5">
         <v>58.224600000000002</v>
       </c>
-      <c r="DS4" s="8">
+      <c r="DS4" s="5">
         <v>171.58</v>
       </c>
-      <c r="DT4" s="19">
+      <c r="DT4" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="DU4" s="8">
+      <c r="DU4" s="5">
         <v>1.84E-2</v>
       </c>
-      <c r="DV4" s="8">
+      <c r="DV4" s="5">
         <v>1.93333333</v>
       </c>
-      <c r="DW4" s="8">
+      <c r="DW4" s="5">
         <v>1.546667E-2</v>
       </c>
-      <c r="DX4" s="8">
+      <c r="DX4" s="5">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="DY4" s="8">
+      <c r="DY4" s="5">
         <v>0.31034483000000002</v>
       </c>
-      <c r="DZ4" s="8">
+      <c r="DZ4" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="EA4" s="8">
+      <c r="EA4" s="5">
         <v>0.21481480999999999</v>
       </c>
-      <c r="EB4" s="8">
+      <c r="EB4" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="EC4" s="8">
+      <c r="EC4" s="5">
         <v>0.85714285999999995</v>
       </c>
-      <c r="ED4" s="8">
+      <c r="ED4" s="5">
         <v>6.9230799999999999E-3</v>
       </c>
-      <c r="EE4" s="8">
+      <c r="EE4" s="5">
         <v>4.6551724099999996</v>
       </c>
-      <c r="EF4" s="8">
+      <c r="EF4" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="EG4" s="22">
+      <c r="EG4" s="14">
         <v>4.0782759056977758E-4</v>
       </c>
-      <c r="EH4" s="8">
+      <c r="EH4" s="5">
         <v>0.31</v>
       </c>
-      <c r="EI4" s="8">
+      <c r="EI4" s="5">
         <v>4.37</v>
       </c>
-      <c r="EJ4" s="18">
+      <c r="EJ4" s="13">
         <v>0.75</v>
       </c>
-      <c r="EK4" s="8">
+      <c r="EK4" s="5">
         <v>10.72</v>
       </c>
-      <c r="EL4" s="8">
+      <c r="EL4" s="5">
         <v>7.44</v>
       </c>
-      <c r="EM4" s="21">
+      <c r="EM4" s="14">
         <v>1.692307692307692E-3</v>
       </c>
-      <c r="EN4" s="22">
+      <c r="EN4" s="14">
         <v>0.42962962999999998</v>
       </c>
-      <c r="EO4" s="8">
+      <c r="EO4" s="5">
         <v>5.2</v>
       </c>
-      <c r="EP4" s="8">
+      <c r="EP4" s="5">
         <v>28.39</v>
       </c>
-      <c r="EQ4" s="8">
+      <c r="EQ4" s="5">
         <v>0.1</v>
       </c>
-      <c r="ER4" s="8">
+      <c r="ER4" s="5">
         <v>0.08</v>
       </c>
-      <c r="ES4" s="8">
+      <c r="ES4" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="ET4" s="8">
+      <c r="ET4" s="5">
         <v>3.2222222199999999</v>
       </c>
-      <c r="EU4" s="8">
+      <c r="EU4" s="5">
         <v>0.51724137999999997</v>
       </c>
-      <c r="EV4" s="8">
+      <c r="EV4" s="5">
         <v>0.02</v>
       </c>
-      <c r="EW4" s="8">
+      <c r="EW4" s="5">
         <v>0.24444444000000001</v>
       </c>
-      <c r="EX4" s="8">
+      <c r="EX4" s="5">
         <v>0.88577357999999995</v>
       </c>
-      <c r="EY4" s="16">
+      <c r="EY4" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="EZ4" s="8">
+      <c r="EZ4" s="5">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="FA4" s="8">
+      <c r="FA4" s="5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="FB4" s="8">
+      <c r="FB4" s="5">
         <v>1.24183E-2</v>
       </c>
-      <c r="FC4" s="8">
+      <c r="FC4" s="5">
         <v>0.78649999999999998</v>
       </c>
-      <c r="FD4" s="8">
+      <c r="FD4" s="5">
         <v>0.85209003000000005</v>
       </c>
-      <c r="FE4" s="8">
+      <c r="FE4" s="5">
         <v>0.60919540000000005</v>
       </c>
-      <c r="FF4" s="8">
+      <c r="FF4" s="5">
         <v>1.8736999999999999</v>
       </c>
       <c r="FG4" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="FH4" s="11">
-        <v>0</v>
-      </c>
-      <c r="FI4" s="11">
-        <v>0</v>
+      <c r="FH4" s="12">
+        <v>163</v>
+      </c>
+      <c r="FI4" s="12">
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:165" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>1.01</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>0.67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>164.7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>58.3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>0.09</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>6.42</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>2.38</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <v>0.06</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="9">
         <v>2.04</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="9">
         <v>0.08</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="9">
         <v>2.41</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="9">
         <v>0.03</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="9">
         <v>115.8</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="9">
         <v>0.64</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="9">
         <v>216.9</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="9">
         <v>1.45</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="9">
         <v>0.18</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="9">
         <v>72.900000000000006</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="9">
         <v>0.04</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="9">
         <v>0.39</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="9">
         <v>5.07</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="9">
         <v>486.5</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="9">
         <v>33.700000000000003</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="9">
         <v>101.3</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="9">
         <v>250</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="9">
         <v>405.7</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="9">
         <v>350.8</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="9">
         <v>148.4</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="9">
         <v>14.09</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="9">
         <v>298</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="9">
         <v>45.57</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="9">
         <v>91.7</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="9">
         <v>358</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="9">
         <v>290</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="9">
         <v>145.80000000000001</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="9">
         <v>136.5</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="9">
         <v>98.3</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="9">
         <v>285.5</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="9">
         <v>82.7</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="9">
         <v>19.88</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="9">
         <v>0.68</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="9">
         <v>47.4</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="9">
         <v>0.97</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="9">
         <v>7.17</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="9">
         <v>0.46</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="9">
         <v>0.8</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="9">
         <v>61.8</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="9">
         <v>0.03</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="9">
         <v>0.25</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="9">
         <v>0.16</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="9">
         <v>1.04</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="9">
         <v>49.9</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="9">
         <v>0.22</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="9">
         <v>0.16</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="9">
         <v>0.01</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="9">
         <v>0.03</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="9">
         <v>0.03</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="9">
         <v>0.12</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="9">
         <v>0.06</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="9">
         <v>0.02</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="9">
         <v>0.08</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="9">
         <v>0.02</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="9">
         <v>2E-3</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="9">
         <v>0.02</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="9">
         <v>0.05</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="9">
         <v>0.12</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="9">
         <v>2E-3</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="9">
         <v>12.3</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="9">
         <v>0.54</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="9">
         <v>0.31</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" s="9">
         <v>0.02</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" s="9">
         <v>1E-3</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" s="9">
         <v>0.01</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" s="9">
         <v>0.06</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" s="9">
         <v>0.06</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" s="9">
         <v>0.22</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" s="9">
         <v>0.06</v>
       </c>
       <c r="CJ5" s="5">
@@ -3573,7 +3600,7 @@
       <c r="CL5" s="6">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="CM5" s="20">
+      <c r="CM5" s="10">
         <v>0.60560000000000003</v>
       </c>
       <c r="CN5" s="5">
@@ -3582,7 +3609,7 @@
       <c r="CO5" s="5">
         <v>9.0861999999999998</v>
       </c>
-      <c r="CP5" s="17">
+      <c r="CP5" s="9">
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="CQ5" s="7">
@@ -3600,16 +3627,16 @@
       <c r="CU5" s="5">
         <v>0.4506</v>
       </c>
-      <c r="CV5" s="13">
+      <c r="CV5" s="11">
         <v>0.40339999999999998</v>
       </c>
-      <c r="CW5" s="12">
+      <c r="CW5" s="13">
         <v>42.645299999999999</v>
       </c>
-      <c r="CX5" s="13">
+      <c r="CX5" s="11">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="CY5" s="13">
+      <c r="CY5" s="11">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="CZ5" s="5">
@@ -3618,7 +3645,7 @@
       <c r="DA5" s="5">
         <v>4.3068</v>
       </c>
-      <c r="DB5" s="8">
+      <c r="DB5" s="5">
         <v>0.03</v>
       </c>
       <c r="DC5" s="5">
@@ -3630,7 +3657,7 @@
       <c r="DE5" s="5">
         <v>2.7153999999999998</v>
       </c>
-      <c r="DF5" s="8">
+      <c r="DF5" s="5">
         <v>0.13</v>
       </c>
       <c r="DG5" s="5">
@@ -3639,1155 +3666,1158 @@
       <c r="DH5" s="5">
         <v>38.783999999999999</v>
       </c>
-      <c r="DI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="8">
+      <c r="DI5" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="DJ5" s="5">
         <v>0.64</v>
       </c>
-      <c r="DK5" s="8">
+      <c r="DK5" s="5">
         <v>0.59301130999999996</v>
       </c>
-      <c r="DL5" s="8">
+      <c r="DL5" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="DM5" s="8">
+      <c r="DM5" s="5">
         <v>0.06</v>
       </c>
-      <c r="DN5" s="8">
+      <c r="DN5" s="5">
         <v>1.68630849</v>
       </c>
-      <c r="DO5" s="8">
+      <c r="DO5" s="5">
         <v>48.8</v>
       </c>
-      <c r="DP5" s="8">
+      <c r="DP5" s="5">
         <v>7.9</v>
       </c>
-      <c r="DQ5" s="15">
+      <c r="DQ5" s="13">
         <v>1.53</v>
       </c>
       <c r="DR5" s="5">
         <v>180.0754</v>
       </c>
-      <c r="DS5" s="8">
+      <c r="DS5" s="5">
         <v>603.84</v>
       </c>
-      <c r="DT5" s="19">
+      <c r="DT5" s="11">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="DU5" s="8">
+      <c r="DU5" s="5">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="DV5" s="8">
+      <c r="DV5" s="5">
         <v>1.3963964</v>
       </c>
-      <c r="DW5" s="8">
+      <c r="DW5" s="5">
         <v>2.520325E-2</v>
       </c>
-      <c r="DX5" s="8">
+      <c r="DX5" s="5">
         <v>1.130081E-2</v>
       </c>
-      <c r="DY5" s="8">
+      <c r="DY5" s="5">
         <v>0.26190476000000001</v>
       </c>
-      <c r="DZ5" s="8">
+      <c r="DZ5" s="5">
         <v>4.4227639999999999E-2</v>
       </c>
-      <c r="EA5" s="8">
+      <c r="EA5" s="5">
         <v>0.15441176000000001</v>
       </c>
-      <c r="EB5" s="8">
+      <c r="EB5" s="5">
         <v>1.804878E-2</v>
       </c>
-      <c r="EC5" s="8">
+      <c r="EC5" s="5">
         <v>1.0090909100000001</v>
       </c>
-      <c r="ED5" s="8">
+      <c r="ED5" s="5">
         <v>1.09018E-2</v>
       </c>
-      <c r="EE5" s="8">
+      <c r="EE5" s="5">
         <v>6.4761904799999996</v>
       </c>
-      <c r="EF5" s="8">
+      <c r="EF5" s="5">
         <v>0.39</v>
       </c>
-      <c r="EG5" s="22">
+      <c r="EG5" s="14">
         <v>9.772678001796274E-4</v>
       </c>
-      <c r="EH5" s="8">
+      <c r="EH5" s="5">
         <v>0.62</v>
       </c>
-      <c r="EI5" s="8">
+      <c r="EI5" s="5">
         <v>12.93</v>
       </c>
-      <c r="EJ5" s="18">
+      <c r="EJ5" s="13">
         <v>1.79</v>
       </c>
-      <c r="EK5" s="8">
+      <c r="EK5" s="5">
         <v>36.56</v>
       </c>
-      <c r="EL5" s="8">
+      <c r="EL5" s="5">
         <v>29.81</v>
       </c>
-      <c r="EM5" s="21">
+      <c r="EM5" s="14">
         <v>2.7855711422845688E-3</v>
       </c>
-      <c r="EN5" s="22">
+      <c r="EN5" s="14">
         <v>0.56985293999999997</v>
       </c>
-      <c r="EO5" s="8">
+      <c r="EO5" s="5">
         <v>13.77</v>
       </c>
-      <c r="EP5" s="8">
+      <c r="EP5" s="5">
         <v>59.97</v>
       </c>
-      <c r="EQ5" s="8">
+      <c r="EQ5" s="5">
         <v>0.45</v>
       </c>
-      <c r="ER5" s="8">
+      <c r="ER5" s="5">
         <v>0.52700000000000002</v>
       </c>
-      <c r="ES5" s="8">
+      <c r="ES5" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="ET5" s="8">
+      <c r="ET5" s="5">
         <v>3.8181818199999999</v>
       </c>
-      <c r="EU5" s="8">
+      <c r="EU5" s="5">
         <v>1.4166666699999999</v>
       </c>
-      <c r="EV5" s="8">
+      <c r="EV5" s="5">
         <v>3.9674800000000003E-2</v>
       </c>
-      <c r="EW5" s="8">
+      <c r="EW5" s="5">
         <v>0.25551470999999998</v>
       </c>
-      <c r="EX5" s="8">
+      <c r="EX5" s="5">
         <v>1.08054889</v>
       </c>
-      <c r="EY5" s="16">
+      <c r="EY5" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="EZ5" s="8">
+      <c r="EZ5" s="5">
         <v>1.11E-2</v>
       </c>
-      <c r="FA5" s="8">
+      <c r="FA5" s="5">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="FB5" s="8">
+      <c r="FB5" s="5">
         <v>1.2446870000000001E-2</v>
       </c>
-      <c r="FC5" s="8">
+      <c r="FC5" s="5">
         <v>1.8334999999999999</v>
       </c>
-      <c r="FD5" s="8">
+      <c r="FD5" s="5">
         <v>0.50345423</v>
       </c>
-      <c r="FE5" s="8">
+      <c r="FE5" s="5">
         <v>0.63576880999999996</v>
       </c>
-      <c r="FF5" s="8">
+      <c r="FF5" s="5">
         <v>9.0861999999999998</v>
       </c>
       <c r="FG5" s="6">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="FH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="FI5" s="11">
-        <v>0</v>
+      <c r="FH5" s="12">
+        <v>765</v>
+      </c>
+      <c r="FI5" s="12">
+        <v>2048</v>
       </c>
     </row>
     <row r="6" spans="1:165" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="23">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
+      <c r="G6" s="23">
+        <v>2</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2</v>
+      </c>
+      <c r="L6" s="23">
+        <v>2</v>
+      </c>
+      <c r="M6" s="23">
+        <v>2</v>
+      </c>
+      <c r="N6" s="23">
+        <v>2</v>
+      </c>
+      <c r="O6" s="23">
+        <v>2</v>
+      </c>
+      <c r="P6" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>2</v>
+      </c>
+      <c r="R6" s="23">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
+      <c r="S6" s="23">
+        <v>2</v>
+      </c>
+      <c r="T6" s="23">
         <v>1</v>
       </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
+      <c r="U6" s="23">
+        <v>2</v>
+      </c>
+      <c r="V6" s="23">
+        <v>2</v>
+      </c>
+      <c r="W6" s="23">
         <v>1</v>
       </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
+      <c r="X6" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="23">
         <v>1</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="23">
         <v>1</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="23">
         <v>1</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="23">
         <v>1</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="23">
         <v>1</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="23">
         <v>1</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="23">
         <v>1</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="23">
         <v>1</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="23">
         <v>1</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="23">
         <v>1</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="23">
         <v>1</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="23">
         <v>1</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="23">
         <v>1</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="23">
         <v>1</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="23">
         <v>1</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="23">
         <v>1</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="23">
         <v>1</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="23">
         <v>1</v>
       </c>
-      <c r="AT6">
-        <v>2</v>
-      </c>
-      <c r="AU6">
-        <v>2</v>
-      </c>
-      <c r="AV6">
+      <c r="AT6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="23">
         <v>1</v>
       </c>
-      <c r="AW6">
-        <v>2</v>
-      </c>
-      <c r="AX6">
-        <v>2</v>
-      </c>
-      <c r="AY6">
-        <v>2</v>
-      </c>
-      <c r="AZ6">
-        <v>2</v>
-      </c>
-      <c r="BA6">
+      <c r="AW6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="23">
         <v>1</v>
       </c>
-      <c r="BB6">
-        <v>2</v>
-      </c>
-      <c r="BC6">
-        <v>2</v>
-      </c>
-      <c r="BD6">
-        <v>2</v>
-      </c>
-      <c r="BE6">
-        <v>2</v>
-      </c>
-      <c r="BF6">
+      <c r="BB6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="23">
         <v>1</v>
       </c>
-      <c r="BG6">
-        <v>2</v>
-      </c>
-      <c r="BH6">
-        <v>2</v>
-      </c>
-      <c r="BI6">
-        <v>2</v>
-      </c>
-      <c r="BJ6">
-        <v>2</v>
-      </c>
-      <c r="BK6">
-        <v>2</v>
-      </c>
-      <c r="BL6">
-        <v>2</v>
-      </c>
-      <c r="BM6">
-        <v>2</v>
-      </c>
-      <c r="BN6">
-        <v>2</v>
-      </c>
-      <c r="BO6">
-        <v>2</v>
-      </c>
-      <c r="BP6">
-        <v>2</v>
-      </c>
-      <c r="BQ6">
-        <v>2</v>
-      </c>
-      <c r="BR6">
+      <c r="BG6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BJ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BL6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BN6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="23">
         <v>3</v>
       </c>
-      <c r="BS6">
-        <v>2</v>
-      </c>
-      <c r="BT6">
-        <v>2</v>
-      </c>
-      <c r="BU6">
-        <v>2</v>
-      </c>
-      <c r="BV6">
+      <c r="BS6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="23">
         <v>3</v>
       </c>
-      <c r="BW6">
-        <v>2</v>
-      </c>
-      <c r="BX6">
+      <c r="BW6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX6" s="23">
         <v>3</v>
       </c>
-      <c r="BY6">
-        <v>2</v>
-      </c>
-      <c r="BZ6">
-        <v>2</v>
-      </c>
-      <c r="CA6">
-        <v>2</v>
-      </c>
-      <c r="CB6">
-        <v>2</v>
-      </c>
-      <c r="CC6">
-        <v>2</v>
-      </c>
-      <c r="CD6">
+      <c r="BY6" s="23">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CA6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD6" s="23">
         <v>3</v>
       </c>
-      <c r="CE6">
-        <v>2</v>
-      </c>
-      <c r="CF6">
-        <v>2</v>
-      </c>
-      <c r="CG6">
-        <v>2</v>
-      </c>
-      <c r="CH6">
-        <v>2</v>
-      </c>
-      <c r="CI6">
-        <v>2</v>
-      </c>
-      <c r="CJ6">
-        <v>2</v>
-      </c>
-      <c r="CK6">
-        <v>2</v>
-      </c>
-      <c r="CL6">
+      <c r="CE6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CJ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CK6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CL6" s="23">
         <v>4</v>
       </c>
-      <c r="CM6">
-        <v>2</v>
-      </c>
-      <c r="CN6">
-        <v>2</v>
-      </c>
-      <c r="CO6">
-        <v>2</v>
-      </c>
-      <c r="CP6">
+      <c r="CM6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="23">
         <v>4</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" s="23">
         <v>3</v>
       </c>
-      <c r="CR6">
-        <v>2</v>
-      </c>
-      <c r="CS6">
-        <v>2</v>
-      </c>
-      <c r="CT6">
+      <c r="CR6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CS6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CT6" s="23">
         <v>4</v>
       </c>
-      <c r="CU6">
-        <v>2</v>
-      </c>
-      <c r="CV6">
+      <c r="CU6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV6" s="23">
         <v>4</v>
       </c>
-      <c r="CW6">
-        <v>2</v>
-      </c>
-      <c r="CX6">
+      <c r="CW6" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX6" s="23">
         <v>3</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" s="23">
         <v>4</v>
       </c>
-      <c r="CZ6">
-        <v>2</v>
-      </c>
-      <c r="DA6">
-        <v>2</v>
-      </c>
-      <c r="DB6">
-        <v>2</v>
-      </c>
-      <c r="DC6">
-        <v>2</v>
-      </c>
-      <c r="DD6">
-        <v>2</v>
-      </c>
-      <c r="DE6">
-        <v>2</v>
-      </c>
-      <c r="DF6">
-        <v>2</v>
-      </c>
-      <c r="DG6">
-        <v>2</v>
-      </c>
-      <c r="DH6">
-        <v>2</v>
-      </c>
-      <c r="DI6">
-        <v>2</v>
-      </c>
-      <c r="DJ6">
-        <v>2</v>
-      </c>
-      <c r="DK6">
-        <v>2</v>
-      </c>
-      <c r="DL6">
-        <v>2</v>
-      </c>
-      <c r="DM6">
-        <v>2</v>
-      </c>
-      <c r="DN6">
-        <v>2</v>
-      </c>
-      <c r="DO6">
-        <v>2</v>
-      </c>
-      <c r="DP6">
-        <v>2</v>
-      </c>
-      <c r="DQ6">
-        <v>2</v>
-      </c>
-      <c r="DR6">
-        <v>2</v>
-      </c>
-      <c r="DS6">
-        <v>2</v>
-      </c>
-      <c r="DT6">
+      <c r="CZ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DA6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DB6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DD6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DE6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DI6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DJ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DK6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DL6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DM6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DQ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DR6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DS6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DT6" s="23">
         <v>4</v>
       </c>
-      <c r="DU6">
-        <v>2</v>
-      </c>
-      <c r="DV6">
-        <v>2</v>
-      </c>
-      <c r="DW6">
-        <v>2</v>
-      </c>
-      <c r="DX6">
-        <v>2</v>
-      </c>
-      <c r="DY6">
-        <v>2</v>
-      </c>
-      <c r="DZ6">
-        <v>2</v>
-      </c>
-      <c r="EA6">
-        <v>2</v>
-      </c>
-      <c r="EB6">
-        <v>2</v>
-      </c>
-      <c r="EC6">
-        <v>2</v>
-      </c>
-      <c r="ED6">
-        <v>2</v>
-      </c>
-      <c r="EE6">
-        <v>2</v>
-      </c>
-      <c r="EF6">
-        <v>2</v>
-      </c>
-      <c r="EG6">
+      <c r="DU6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DV6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DW6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY6" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="ED6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EE6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG6" s="23">
         <v>4</v>
       </c>
-      <c r="EH6">
-        <v>2</v>
-      </c>
-      <c r="EI6">
-        <v>2</v>
-      </c>
-      <c r="EJ6">
-        <v>2</v>
-      </c>
-      <c r="EK6">
-        <v>2</v>
-      </c>
-      <c r="EL6">
-        <v>2</v>
-      </c>
-      <c r="EM6">
+      <c r="EH6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EL6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EM6" s="23">
         <v>4</v>
       </c>
-      <c r="EN6">
+      <c r="EN6" s="23">
         <v>4</v>
       </c>
-      <c r="EO6">
-        <v>2</v>
-      </c>
-      <c r="EP6">
-        <v>2</v>
-      </c>
-      <c r="EQ6">
-        <v>2</v>
-      </c>
-      <c r="ER6">
-        <v>2</v>
-      </c>
-      <c r="ES6">
-        <v>2</v>
-      </c>
-      <c r="ET6">
-        <v>2</v>
-      </c>
-      <c r="EU6">
-        <v>2</v>
-      </c>
-      <c r="EV6">
-        <v>2</v>
-      </c>
-      <c r="EW6">
-        <v>2</v>
-      </c>
-      <c r="EX6">
-        <v>2</v>
-      </c>
-      <c r="EY6">
+      <c r="EO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER6" s="23">
+        <v>2</v>
+      </c>
+      <c r="ES6" s="23">
+        <v>2</v>
+      </c>
+      <c r="ET6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EU6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EV6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EW6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EX6" s="23">
+        <v>2</v>
+      </c>
+      <c r="EY6" s="23">
         <v>3</v>
       </c>
-      <c r="EZ6">
-        <v>2</v>
-      </c>
-      <c r="FA6">
-        <v>2</v>
-      </c>
-      <c r="FB6">
-        <v>2</v>
-      </c>
-      <c r="FC6">
-        <v>2</v>
-      </c>
-      <c r="FD6">
-        <v>2</v>
-      </c>
-      <c r="FE6">
-        <v>2</v>
-      </c>
-      <c r="FF6">
-        <v>2</v>
-      </c>
-      <c r="FG6">
+      <c r="EZ6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FA6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FB6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FC6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FD6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FE6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FF6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FG6" s="23">
         <v>4</v>
       </c>
-      <c r="FH6">
-        <v>2</v>
-      </c>
-      <c r="FI6">
+      <c r="FH6" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI6" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:165" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK7" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM7" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN7" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO7" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP7" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT7" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV7" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW7" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY7" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ7" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="BA7" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB7" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC7" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD7" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE7" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ7" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="CK7" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL7" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM7" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="CN7" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO7" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="CP7" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="CQ7" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CR7" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="CS7" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV7" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX7" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB7" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="DC7" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="DD7" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE7" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="DF7" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="DG7" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH7" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="DI7" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="DJ7" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="DK7" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="DL7" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM7" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="DN7" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="DO7" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="DP7" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="DQ7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="DR7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="DS7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU7" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="DV7" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="DW7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="DX7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="DZ7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="EA7" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="EB7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="EF7" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG7" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="EH7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="EI7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="EJ7" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="EK7" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="EL7" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="EM7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="EO7" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="EP7" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="EQ7" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="ER7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="ES7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="ET7" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW7" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="EY7" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="EZ7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="FA7" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="FB7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="FC7" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="FD7" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="FE7" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="FF7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="FG7" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="FH7" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="FI7" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI7" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK7" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL7" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM7" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="BA7" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB7" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC7" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="BD7" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="BE7" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="BF7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ7" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="CK7" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL7" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="CM7" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="CN7" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CO7" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="CP7" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="CQ7" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="CR7" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="CS7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA7" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB7" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="DC7" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="DD7" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="DE7" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="DF7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="DG7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH7" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="DI7" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="DJ7" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="DK7" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="DL7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="DN7" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="DO7" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="DP7" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="DQ7" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR7" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="DS7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU7" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="DV7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG7" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="EH7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI7" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ7" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="EK7" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EL7" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="EM7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO7" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="EP7" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="EQ7" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="ER7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="FA7" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="FB7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC7" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="FD7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="FE7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="FH7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="FI7" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC8BBD-7C49-475A-B753-B1EC92B334C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2F608-BA9B-4EC8-BA83-AEB877FE6910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BEB3553-591A-4AAE-BC2B-1E70F2790E13}"/>
   </bookViews>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:FI7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FF15" sqref="FF15"/>
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2F608-BA9B-4EC8-BA83-AEB877FE6910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE35F74-C78B-4FFE-A679-403648E55D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BEB3553-591A-4AAE-BC2B-1E70F2790E13}"/>
   </bookViews>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:FI7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G12" sqref="B12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB08CB16-1B87-4A44-A20B-6909C32AC062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7585A-BAA2-40C8-A134-DD1276D83A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9300" yWindow="840" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ref_stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Group_score" sheetId="3" r:id="rId2"/>
+    <sheet name="Params_metaboscan" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="330">
   <si>
     <t>metabolite</t>
   </si>
@@ -803,6 +816,213 @@
   </si>
   <si>
     <t>GSG Index</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Группа_риска</t>
+  </si>
+  <si>
+    <t>Маркер / Соотношение</t>
+  </si>
+  <si>
+    <t>Группа_метаб</t>
+  </si>
+  <si>
+    <t>веса</t>
+  </si>
+  <si>
+    <t>norm_1</t>
+  </si>
+  <si>
+    <t>norm_2</t>
+  </si>
+  <si>
+    <t>High_risk_1</t>
+  </si>
+  <si>
+    <t>High_risk_2</t>
+  </si>
+  <si>
+    <t>Оксидативный стресс</t>
+  </si>
+  <si>
+    <t>Резистентность к стрессорам</t>
+  </si>
+  <si>
+    <t>GSG_index</t>
+  </si>
+  <si>
+    <t>Воспаление и микробный стресс</t>
+  </si>
+  <si>
+    <t>Азотистые токсины</t>
+  </si>
+  <si>
+    <t>Липидные токсины / окс. стресс</t>
+  </si>
+  <si>
+    <t>Энергетический обмен</t>
+  </si>
+  <si>
+    <t>Метаболическая адаптация и стрессоустойчивость</t>
+  </si>
+  <si>
+    <t>Нейро-адаптация</t>
+  </si>
+  <si>
+    <t>Стресс-аминокислоты</t>
+  </si>
+  <si>
+    <t>Митохондрии и креатин</t>
+  </si>
+  <si>
+    <t>Глутамат-глутаминовая ось</t>
+  </si>
+  <si>
+    <t>Метаболизм триптофана</t>
+  </si>
+  <si>
+    <t>Статус микробиоты</t>
+  </si>
+  <si>
+    <t>Воспаление и иммунитет</t>
+  </si>
+  <si>
+    <t>Quin/HIAA</t>
+  </si>
+  <si>
+    <t>Триптофан / воспаление</t>
+  </si>
+  <si>
+    <t>Темп биологического старения</t>
+  </si>
+  <si>
+    <t>Митохондриальные показатели</t>
+  </si>
+  <si>
+    <t>Нейроэндокринная ось</t>
+  </si>
+  <si>
+    <t>Интегративные индексы</t>
+  </si>
+  <si>
+    <t>IDO-путь / триптофан</t>
+  </si>
+  <si>
+    <t>Нейромедиаторы</t>
+  </si>
+  <si>
+    <t>Индолы и фенолы</t>
+  </si>
+  <si>
+    <t>Общий стресс / иммунитет</t>
+  </si>
+  <si>
+    <t>Комплексный индекс</t>
+  </si>
+  <si>
+    <t>Метаболическая детоксикация</t>
+  </si>
+  <si>
+    <t>Аммиачная детоксикация</t>
+  </si>
+  <si>
+    <t>Оксидативная нагрузка</t>
+  </si>
+  <si>
+    <t>Энергетический обмен (карнитиновый цикл)</t>
+  </si>
+  <si>
+    <t>Здоровье митохондрий</t>
+  </si>
+  <si>
+    <t>β-окисление / жирные кислоты</t>
+  </si>
+  <si>
+    <t>Антиоксидантная защита</t>
+  </si>
+  <si>
+    <t>Митохондриальная нейросвязь</t>
+  </si>
+  <si>
+    <t>Витамин B2 (рибофлавин)</t>
+  </si>
+  <si>
+    <t>Витаминный статус</t>
+  </si>
+  <si>
+    <t>Витамин B5 (пантотенат)</t>
+  </si>
+  <si>
+    <t>Витамин B6</t>
+  </si>
+  <si>
+    <t>Витамин B9 / B12</t>
+  </si>
+  <si>
+    <t>Витамин B3 / NAD+</t>
+  </si>
+  <si>
+    <t>Серосодержащие АК</t>
+  </si>
+  <si>
+    <t>Энергетический баланс</t>
+  </si>
+  <si>
+    <t>Нейротрофный резерв</t>
+  </si>
+  <si>
+    <t>Хроническое воспаление</t>
+  </si>
+  <si>
+    <t>Оценка пролиферативных процессов</t>
+  </si>
+  <si>
+    <t>Метилирование / эпигенетика</t>
+  </si>
+  <si>
+    <t>Микробиота и детоксикация</t>
+  </si>
+  <si>
+    <t>Метаболический стресс</t>
+  </si>
+  <si>
+    <t>Нейроэндокринный контроль</t>
+  </si>
+  <si>
+    <t>Пролиферация и митоз</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>Pos_PV</t>
+  </si>
+  <si>
+    <t>Neg_PV</t>
+  </si>
+  <si>
+    <t>Состояние сердечно-сосудистой системы</t>
+  </si>
+  <si>
+    <t>Состояние функции печени</t>
+  </si>
+  <si>
+    <t>Состояние дыхательной системы</t>
+  </si>
+  <si>
+    <t>Состояние иммунного метаболического баланса</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1033,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,8 +1075,74 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,8 +1179,50 @@
         <fgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -924,11 +1252,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -946,33 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -999,6 +1326,65 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1307,55 +1693,55 @@
   <dimension ref="A1:FI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DD1" sqref="DD1"/>
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CN21" sqref="CN21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="41" max="89" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="99" max="112" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12" style="29" bestFit="1" customWidth="1"/>
-    <col min="114" max="136" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="138" max="142" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="145" max="154" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="13.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="156" max="162" width="13.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="89" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="99" max="112" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="114" max="136" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="138" max="142" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="145" max="154" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="156" max="162" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:165" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +2238,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:165" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:165" ht="19.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>164</v>
       </c>
@@ -2349,7 +2735,7 @@
         <v>1673.4084342399026</v>
       </c>
     </row>
-    <row r="3" spans="1:165" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:165" ht="19.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>165</v>
       </c>
@@ -2846,1996 +3232,5116 @@
         <v>748.80971238234622</v>
       </c>
     </row>
-    <row r="4" spans="1:165" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:165" ht="20.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="23">
         <v>0.08</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="23">
         <v>45.9</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="23">
         <v>26.5</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
         <v>1.31</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="23">
         <v>0.54</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
         <v>0.01</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="23">
         <v>0.33</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="23">
         <v>0.02</v>
       </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
         <v>31.1</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="23">
         <v>0.13</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="23">
         <v>78.3</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="23">
         <v>0.02</v>
       </c>
-      <c r="V4" s="11">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
+      <c r="V4" s="23">
+        <v>0</v>
+      </c>
+      <c r="W4" s="23">
         <v>36.200000000000003</v>
       </c>
-      <c r="X4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
+      <c r="X4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
         <v>0.12</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="23">
         <v>0.25</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="23">
         <v>0.7</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="23">
         <v>199.7</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="23">
         <v>15.6</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="23">
         <v>13.8</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="23">
         <v>43.5</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="23">
         <v>196.1</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="23">
         <v>137.69999999999999</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="23">
         <v>59.9</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="23">
         <v>3.16</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="23">
         <v>161.69999999999999</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="23">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="23">
         <v>43.5</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="23">
         <v>106.7</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AN4" s="23">
         <v>115.2</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="23">
         <v>27.7</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="23">
         <v>55.1</v>
       </c>
-      <c r="AQ4" s="10">
+      <c r="AQ4" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="AR4" s="11">
+      <c r="AR4" s="23">
         <v>137</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AS4" s="23">
         <v>28.6</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AT4" s="23">
         <v>5.68</v>
       </c>
-      <c r="AU4" s="10">
+      <c r="AU4" s="23">
         <v>0.15</v>
       </c>
-      <c r="AV4" s="10">
+      <c r="AV4" s="23">
         <v>17.399999999999999</v>
       </c>
-      <c r="AW4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="10">
+      <c r="AW4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="23">
         <v>0.26</v>
       </c>
-      <c r="AY4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="10">
+      <c r="AY4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BA4" s="10">
+      <c r="BA4" s="23">
         <v>16.8</v>
       </c>
-      <c r="BB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="10">
+      <c r="BB4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="23">
         <v>0.09</v>
       </c>
-      <c r="BD4" s="10">
+      <c r="BD4" s="23">
         <v>0.03</v>
       </c>
-      <c r="BE4" s="10">
+      <c r="BE4" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BF4" s="10">
+      <c r="BF4" s="23">
         <v>19.5</v>
       </c>
-      <c r="BG4" s="10">
+      <c r="BG4" s="23">
         <v>0.03</v>
       </c>
-      <c r="BH4" s="10">
+      <c r="BH4" s="23">
         <v>0.02</v>
       </c>
-      <c r="BI4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="10">
+      <c r="BI4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="23">
         <v>0.01</v>
       </c>
-      <c r="BK4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="10">
+      <c r="BK4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="23">
         <v>0.01</v>
       </c>
-      <c r="BM4" s="10">
+      <c r="BM4" s="23">
         <v>0.01</v>
       </c>
-      <c r="BN4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="10">
+      <c r="BN4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="23">
         <v>0.03</v>
       </c>
-      <c r="BQ4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="10">
+      <c r="BQ4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="23">
         <v>0.01</v>
       </c>
-      <c r="BT4" s="10">
+      <c r="BT4" s="23">
         <v>0.02</v>
       </c>
-      <c r="BU4" s="10">
+      <c r="BU4" s="23">
         <v>0.04</v>
       </c>
-      <c r="BV4" s="11">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="10">
+      <c r="BV4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="23">
         <v>0.02</v>
       </c>
-      <c r="BX4" s="10">
+      <c r="BX4" s="23">
         <v>1E-3</v>
       </c>
-      <c r="BY4" s="10">
+      <c r="BY4" s="23">
         <v>3.75</v>
       </c>
-      <c r="BZ4" s="10">
+      <c r="BZ4" s="23">
         <v>0.13</v>
       </c>
-      <c r="CA4" s="10">
+      <c r="CA4" s="23">
         <v>0.06</v>
       </c>
-      <c r="CB4" s="10">
+      <c r="CB4" s="23">
         <v>0.03</v>
       </c>
-      <c r="CC4" s="11">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="11">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="11">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="10">
+      <c r="CC4" s="23">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="23">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="23">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="23">
         <v>0.01</v>
       </c>
-      <c r="CG4" s="10">
+      <c r="CG4" s="23">
         <v>0.01</v>
       </c>
-      <c r="CH4" s="10">
+      <c r="CH4" s="23">
         <v>0.03</v>
       </c>
-      <c r="CI4" s="10">
+      <c r="CI4" s="23">
         <v>0.01</v>
       </c>
-      <c r="CJ4" s="12">
-        <v>33.932099999999998</v>
-      </c>
-      <c r="CK4" s="13">
-        <v>37.490699999999997</v>
-      </c>
-      <c r="CL4" s="14">
+      <c r="CJ4" s="24">
+        <v>33.93</v>
+      </c>
+      <c r="CK4" s="25">
+        <v>37.5</v>
+      </c>
+      <c r="CL4" s="25">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="CM4" s="15">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="13">
-        <v>0.44069999999999998</v>
-      </c>
-      <c r="CO4" s="13">
-        <v>1.8736999999999999</v>
-      </c>
-      <c r="CP4" s="10">
-        <v>3.3E-3</v>
-      </c>
-      <c r="CQ4" s="16">
+      <c r="CM4" s="26">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="CO4" s="25">
+        <v>1.87</v>
+      </c>
+      <c r="CP4" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="CQ4" s="25">
         <v>1.47E-2</v>
       </c>
-      <c r="CR4" s="13">
-        <v>1.1400999999999999</v>
-      </c>
-      <c r="CS4" s="13">
-        <v>171.57810000000001</v>
-      </c>
-      <c r="CT4" s="14">
+      <c r="CR4" s="25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="CS4" s="25">
+        <v>171.58</v>
+      </c>
+      <c r="CT4" s="25">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="CU4" s="13">
-        <v>0.28120000000000001</v>
-      </c>
-      <c r="CV4" s="15">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="CW4" s="15">
+      <c r="CU4" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="CV4" s="26">
+        <v>7.8E-2</v>
+      </c>
+      <c r="CW4" s="26">
         <v>4.63</v>
       </c>
-      <c r="CX4" s="15">
+      <c r="CX4" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CY4" s="15">
+      <c r="CY4" s="26">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="CZ4" s="13">
-        <v>299.6918</v>
-      </c>
-      <c r="DA4" s="13">
-        <v>1.8396999999999999</v>
-      </c>
-      <c r="DB4" s="17">
-        <v>0</v>
-      </c>
-      <c r="DC4" s="13">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="DD4" s="13">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="DE4" s="13">
-        <v>0.59430000000000005</v>
-      </c>
-      <c r="DF4" s="17">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="13">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="DH4" s="13">
-        <v>13.292400000000001</v>
-      </c>
-      <c r="DI4" s="16">
+      <c r="CZ4" s="25">
+        <v>299.7</v>
+      </c>
+      <c r="DA4" s="25">
+        <v>1.84</v>
+      </c>
+      <c r="DB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="DD4" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="DE4" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="DF4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="DH4" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="DI4" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="DJ4" s="13">
-        <v>0.33333332999999998</v>
-      </c>
-      <c r="DK4" s="13">
-        <v>0.68602903999999998</v>
-      </c>
-      <c r="DL4" s="13">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="13">
+      <c r="DJ4" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="DK4" s="27">
+        <v>0.59</v>
+      </c>
+      <c r="DL4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="DN4" s="13">
-        <v>1.45766423</v>
-      </c>
-      <c r="DO4" s="13">
+      <c r="DN4" s="25">
+        <v>1.46</v>
+      </c>
+      <c r="DO4" s="25">
         <v>15</v>
       </c>
-      <c r="DP4" s="13">
+      <c r="DP4" s="25">
         <v>0.98</v>
       </c>
-      <c r="DQ4" s="13">
-        <v>0.2853</v>
-      </c>
-      <c r="DR4" s="13">
-        <v>58.224600000000002</v>
-      </c>
-      <c r="DS4" s="13">
+      <c r="DQ4" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="DR4" s="25">
+        <v>58.2</v>
+      </c>
+      <c r="DS4" s="25">
         <v>171.58</v>
       </c>
-      <c r="DT4" s="15">
+      <c r="DT4" s="26">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="DU4" s="13">
-        <v>1.84E-2</v>
-      </c>
-      <c r="DV4" s="13">
-        <v>1.93333333</v>
-      </c>
-      <c r="DW4" s="13">
-        <v>1.546667E-2</v>
-      </c>
-      <c r="DX4" s="13">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="DY4" s="13">
-        <v>0.31034483000000002</v>
-      </c>
-      <c r="DZ4" s="13">
+      <c r="DU4" s="27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="DV4" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="DW4" s="25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="DX4" s="25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="DY4" s="27">
+        <v>0.26</v>
+      </c>
+      <c r="DZ4" s="25">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="EA4" s="13">
-        <v>0.21481480999999999</v>
-      </c>
-      <c r="EB4" s="13">
+      <c r="EA4" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="EB4" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="EC4" s="13">
-        <v>0.85714285999999995</v>
-      </c>
-      <c r="ED4" s="13">
-        <v>6.9230799999999999E-3</v>
-      </c>
-      <c r="EE4" s="13">
-        <v>4.6551724099999996</v>
-      </c>
-      <c r="EF4" s="13">
+      <c r="EC4" s="25">
+        <v>0.86</v>
+      </c>
+      <c r="ED4" s="25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="EE4" s="25">
+        <v>4.66</v>
+      </c>
+      <c r="EF4" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="EG4" s="18">
-        <v>4.0782759056977758E-4</v>
-      </c>
-      <c r="EH4" s="13">
+      <c r="EG4" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="EH4" s="25">
         <v>0.31</v>
       </c>
-      <c r="EI4" s="13">
+      <c r="EI4" s="25">
         <v>4.37</v>
       </c>
-      <c r="EJ4" s="13">
+      <c r="EJ4" s="25">
         <v>0.75</v>
       </c>
-      <c r="EK4" s="13">
+      <c r="EK4" s="25">
         <v>10.72</v>
       </c>
-      <c r="EL4" s="13">
+      <c r="EL4" s="25">
         <v>7.44</v>
       </c>
-      <c r="EM4" s="18">
-        <v>1.692307692307692E-3</v>
-      </c>
-      <c r="EN4" s="18">
-        <v>0.42962962999999998</v>
-      </c>
-      <c r="EO4" s="13">
+      <c r="EM4" s="26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="EN4" s="26">
+        <v>0.43</v>
+      </c>
+      <c r="EO4" s="25">
         <v>5.2</v>
       </c>
-      <c r="EP4" s="13">
+      <c r="EP4" s="25">
         <v>28.39</v>
       </c>
-      <c r="EQ4" s="13">
+      <c r="EQ4" s="25">
         <v>0.1</v>
       </c>
-      <c r="ER4" s="13">
+      <c r="ER4" s="25">
         <v>0.08</v>
       </c>
-      <c r="ES4" s="13">
+      <c r="ES4" s="25">
         <v>1.6E-2</v>
       </c>
-      <c r="ET4" s="13">
-        <v>3.2222222199999999</v>
-      </c>
-      <c r="EU4" s="13">
-        <v>0.51724137999999997</v>
-      </c>
-      <c r="EV4" s="13">
+      <c r="ET4" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="EU4" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="EV4" s="25">
         <v>0.02</v>
       </c>
-      <c r="EW4" s="13">
-        <v>0.24444444000000001</v>
-      </c>
-      <c r="EX4" s="13">
-        <v>0.88577357999999995</v>
-      </c>
-      <c r="EY4" s="16">
+      <c r="EW4" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="EX4" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="EY4" s="25">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="EZ4" s="13">
+      <c r="EZ4" s="25">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="FA4" s="13">
+      <c r="FA4" s="25">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="FB4" s="13">
-        <v>1.24183E-2</v>
-      </c>
-      <c r="FC4" s="13">
-        <v>0.78649999999999998</v>
-      </c>
-      <c r="FD4" s="13">
-        <v>0.85209003000000005</v>
-      </c>
-      <c r="FE4" s="13">
-        <v>0.60919540000000005</v>
-      </c>
-      <c r="FF4" s="13">
-        <v>1.8736999999999999</v>
-      </c>
-      <c r="FG4" s="14">
+      <c r="FB4" s="27">
+        <v>1.2E-2</v>
+      </c>
+      <c r="FC4" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="FD4" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="FE4" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="FF4" s="25">
+        <v>1.87</v>
+      </c>
+      <c r="FG4" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="FH4" s="17">
+      <c r="FH4" s="25">
         <v>163</v>
       </c>
-      <c r="FI4" s="17">
+      <c r="FI4" s="25">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:165" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:165" ht="20.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="23">
         <v>0.25</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="23">
         <v>1.01</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="23">
         <v>0.67</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="23">
         <v>164.7</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="23">
         <v>58.3</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="23">
         <v>0.09</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="23">
         <v>6.42</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="23">
         <v>2.38</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="23">
         <v>0.06</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="23">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="23">
         <v>2.04</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="23">
         <v>0.08</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="23">
         <v>2.41</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="23">
         <v>0.03</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="23">
         <v>115.8</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="23">
         <v>0.64</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="23">
         <v>216.9</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="23">
         <v>1.45</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="23">
         <v>0.18</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="23">
         <v>72.900000000000006</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="23">
         <v>0.04</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="23">
         <v>0.39</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="23">
         <v>5.07</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="23">
         <v>486.5</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="23">
         <v>33.700000000000003</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="23">
         <v>101.3</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="23">
         <v>250</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="23">
         <v>405.7</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="23">
         <v>350.8</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="23">
         <v>148.4</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI5" s="23">
         <v>14.09</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="23">
         <v>298</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="23">
         <v>45.57</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="23">
         <v>91.7</v>
       </c>
-      <c r="AM5" s="11">
+      <c r="AM5" s="23">
         <v>358</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="23">
         <v>290</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO5" s="23">
         <v>145.80000000000001</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="23">
         <v>136.5</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AQ5" s="23">
         <v>98.3</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AR5" s="23">
         <v>285.5</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AS5" s="23">
         <v>82.7</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AT5" s="23">
         <v>19.88</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AU5" s="23">
         <v>0.68</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AV5" s="23">
         <v>47.4</v>
       </c>
-      <c r="AW5" s="10">
+      <c r="AW5" s="23">
         <v>0.97</v>
       </c>
-      <c r="AX5" s="10">
+      <c r="AX5" s="23">
         <v>7.17</v>
       </c>
-      <c r="AY5" s="10">
+      <c r="AY5" s="23">
         <v>0.46</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="AZ5" s="23">
         <v>0.8</v>
       </c>
-      <c r="BA5" s="10">
+      <c r="BA5" s="23">
         <v>61.8</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BB5" s="23">
         <v>0.03</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BC5" s="23">
         <v>0.25</v>
       </c>
-      <c r="BD5" s="10">
+      <c r="BD5" s="23">
         <v>0.16</v>
       </c>
-      <c r="BE5" s="10">
+      <c r="BE5" s="23">
         <v>1.04</v>
       </c>
-      <c r="BF5" s="10">
+      <c r="BF5" s="23">
         <v>49.9</v>
       </c>
-      <c r="BG5" s="10">
+      <c r="BG5" s="23">
         <v>0.22</v>
       </c>
-      <c r="BH5" s="10">
+      <c r="BH5" s="23">
         <v>0.16</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BI5" s="23">
         <v>0.01</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BJ5" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BK5" s="10">
+      <c r="BK5" s="23">
         <v>0.03</v>
       </c>
-      <c r="BL5" s="10">
+      <c r="BL5" s="23">
         <v>0.03</v>
       </c>
-      <c r="BM5" s="10">
+      <c r="BM5" s="23">
         <v>0.12</v>
       </c>
-      <c r="BN5" s="10">
+      <c r="BN5" s="23">
         <v>0.06</v>
       </c>
-      <c r="BO5" s="10">
+      <c r="BO5" s="23">
         <v>0.02</v>
       </c>
-      <c r="BP5" s="10">
+      <c r="BP5" s="23">
         <v>0.08</v>
       </c>
-      <c r="BQ5" s="10">
+      <c r="BQ5" s="23">
         <v>0.02</v>
       </c>
-      <c r="BR5" s="10">
+      <c r="BR5" s="23">
         <v>2E-3</v>
       </c>
-      <c r="BS5" s="10">
+      <c r="BS5" s="23">
         <v>0.02</v>
       </c>
-      <c r="BT5" s="10">
+      <c r="BT5" s="23">
         <v>0.05</v>
       </c>
-      <c r="BU5" s="10">
+      <c r="BU5" s="23">
         <v>0.12</v>
       </c>
-      <c r="BV5" s="10">
+      <c r="BV5" s="23">
         <v>2E-3</v>
       </c>
-      <c r="BW5" s="10">
+      <c r="BW5" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BX5" s="10">
+      <c r="BX5" s="23">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BY5" s="10">
+      <c r="BY5" s="23">
         <v>12.3</v>
       </c>
-      <c r="BZ5" s="10">
+      <c r="BZ5" s="23">
         <v>0.54</v>
       </c>
-      <c r="CA5" s="10">
+      <c r="CA5" s="23">
         <v>0.31</v>
       </c>
-      <c r="CB5" s="10">
+      <c r="CB5" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="CC5" s="10">
+      <c r="CC5" s="23">
         <v>0.02</v>
       </c>
-      <c r="CD5" s="10">
+      <c r="CD5" s="23">
         <v>1E-3</v>
       </c>
-      <c r="CE5" s="10">
+      <c r="CE5" s="23">
         <v>0.01</v>
       </c>
-      <c r="CF5" s="10">
+      <c r="CF5" s="23">
         <v>0.06</v>
       </c>
-      <c r="CG5" s="10">
+      <c r="CG5" s="23">
         <v>0.06</v>
       </c>
-      <c r="CH5" s="10">
+      <c r="CH5" s="23">
         <v>0.22</v>
       </c>
-      <c r="CI5" s="10">
+      <c r="CI5" s="23">
         <v>0.06</v>
       </c>
-      <c r="CJ5" s="13">
-        <v>290.06790000000001</v>
-      </c>
-      <c r="CK5" s="13">
-        <v>298.40170000000001</v>
-      </c>
-      <c r="CL5" s="14">
+      <c r="CJ5" s="25">
+        <v>290</v>
+      </c>
+      <c r="CK5" s="25">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="CL5" s="25">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="CM5" s="15">
-        <v>0.60560000000000003</v>
-      </c>
-      <c r="CN5" s="13">
-        <v>3.6600999999999999</v>
-      </c>
-      <c r="CO5" s="13">
-        <v>9.0861999999999998</v>
-      </c>
-      <c r="CP5" s="10">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="CQ5" s="16">
+      <c r="CM5" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="CN5" s="25">
+        <v>3.66</v>
+      </c>
+      <c r="CO5" s="25">
+        <v>9.09</v>
+      </c>
+      <c r="CP5" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="CQ5" s="25">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="CR5" s="13">
-        <v>7.5688000000000004</v>
-      </c>
-      <c r="CS5" s="13">
-        <v>603.84090000000003</v>
-      </c>
-      <c r="CT5" s="14">
+      <c r="CR5" s="25">
+        <v>7.57</v>
+      </c>
+      <c r="CS5" s="25">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="CT5" s="25">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="CU5" s="13">
-        <v>0.4506</v>
-      </c>
-      <c r="CV5" s="15">
-        <v>0.40339999999999998</v>
-      </c>
-      <c r="CW5" s="13">
-        <v>42.645299999999999</v>
-      </c>
-      <c r="CX5" s="15">
+      <c r="CU5" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="CV5" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="CW5" s="25">
+        <v>42.65</v>
+      </c>
+      <c r="CX5" s="26">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="CY5" s="15">
+      <c r="CY5" s="26">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="CZ5" s="13">
-        <v>531.00819999999999</v>
-      </c>
-      <c r="DA5" s="13">
-        <v>4.3068</v>
-      </c>
-      <c r="DB5" s="13">
+      <c r="CZ5" s="25">
+        <v>531</v>
+      </c>
+      <c r="DA5" s="25">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="DB5" s="25">
         <v>0.03</v>
       </c>
-      <c r="DC5" s="13">
-        <v>1.5793999999999999</v>
-      </c>
-      <c r="DD5" s="13">
-        <v>0.66469999999999996</v>
-      </c>
-      <c r="DE5" s="13">
-        <v>2.7153999999999998</v>
-      </c>
-      <c r="DF5" s="13">
+      <c r="DC5" s="25">
+        <v>1.58</v>
+      </c>
+      <c r="DD5" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="DE5" s="25">
+        <v>2.72</v>
+      </c>
+      <c r="DF5" s="25">
         <v>0.13</v>
       </c>
-      <c r="DG5" s="13">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="DH5" s="13">
-        <v>38.783999999999999</v>
-      </c>
-      <c r="DI5" s="16">
+      <c r="DG5" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="DH5" s="25">
+        <v>38.78</v>
+      </c>
+      <c r="DI5" s="25">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="DJ5" s="13">
+      <c r="DJ5" s="25">
         <v>0.64</v>
       </c>
-      <c r="DK5" s="13">
-        <v>0.59301130999999996</v>
-      </c>
-      <c r="DL5" s="13">
+      <c r="DK5" s="27">
+        <v>0.69</v>
+      </c>
+      <c r="DL5" s="25">
         <v>19.899999999999999</v>
       </c>
-      <c r="DM5" s="13">
+      <c r="DM5" s="25">
         <v>0.06</v>
       </c>
-      <c r="DN5" s="13">
-        <v>1.68630849</v>
-      </c>
-      <c r="DO5" s="13">
+      <c r="DN5" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="DO5" s="25">
         <v>48.8</v>
       </c>
-      <c r="DP5" s="13">
+      <c r="DP5" s="25">
         <v>7.9</v>
       </c>
-      <c r="DQ5" s="13">
+      <c r="DQ5" s="25">
         <v>1.53</v>
       </c>
-      <c r="DR5" s="13">
-        <v>180.0754</v>
-      </c>
-      <c r="DS5" s="13">
+      <c r="DR5" s="25">
+        <v>180</v>
+      </c>
+      <c r="DS5" s="25">
         <v>603.84</v>
       </c>
-      <c r="DT5" s="15">
+      <c r="DT5" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="DU5" s="13">
-        <v>1.6666670000000001E-2</v>
-      </c>
-      <c r="DV5" s="13">
-        <v>1.3963964</v>
-      </c>
-      <c r="DW5" s="13">
-        <v>2.520325E-2</v>
-      </c>
-      <c r="DX5" s="13">
-        <v>1.130081E-2</v>
-      </c>
-      <c r="DY5" s="13">
-        <v>0.26190476000000001</v>
-      </c>
-      <c r="DZ5" s="13">
-        <v>4.4227639999999999E-2</v>
-      </c>
-      <c r="EA5" s="13">
-        <v>0.15441176000000001</v>
-      </c>
-      <c r="EB5" s="13">
-        <v>1.804878E-2</v>
-      </c>
-      <c r="EC5" s="13">
-        <v>1.0090909100000001</v>
-      </c>
-      <c r="ED5" s="13">
-        <v>1.09018E-2</v>
-      </c>
-      <c r="EE5" s="13">
-        <v>6.4761904799999996</v>
-      </c>
-      <c r="EF5" s="13">
+      <c r="DU5" s="27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="DV5" s="27">
+        <v>1.9</v>
+      </c>
+      <c r="DW5" s="25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="DX5" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="DY5" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="DZ5" s="25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="EA5" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="EB5" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="EC5" s="25">
+        <v>1</v>
+      </c>
+      <c r="ED5" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="EE5" s="25">
+        <v>6.48</v>
+      </c>
+      <c r="EF5" s="25">
         <v>0.39</v>
       </c>
-      <c r="EG5" s="18">
-        <v>9.772678001796274E-4</v>
-      </c>
-      <c r="EH5" s="13">
+      <c r="EG5" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="EH5" s="25">
         <v>0.62</v>
       </c>
-      <c r="EI5" s="13">
+      <c r="EI5" s="25">
         <v>12.93</v>
       </c>
-      <c r="EJ5" s="13">
+      <c r="EJ5" s="25">
         <v>1.79</v>
       </c>
-      <c r="EK5" s="13">
+      <c r="EK5" s="25">
         <v>36.56</v>
       </c>
-      <c r="EL5" s="13">
+      <c r="EL5" s="25">
         <v>29.81</v>
       </c>
-      <c r="EM5" s="18">
-        <v>2.7855711422845688E-3</v>
-      </c>
-      <c r="EN5" s="18">
-        <v>0.56985293999999997</v>
-      </c>
-      <c r="EO5" s="13">
+      <c r="EM5" s="26">
+        <v>2.8E-3</v>
+      </c>
+      <c r="EN5" s="26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="EO5" s="25">
         <v>13.77</v>
       </c>
-      <c r="EP5" s="13">
+      <c r="EP5" s="25">
         <v>59.97</v>
       </c>
-      <c r="EQ5" s="13">
+      <c r="EQ5" s="25">
         <v>0.45</v>
       </c>
-      <c r="ER5" s="13">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="ES5" s="13">
+      <c r="ER5" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="ES5" s="25">
         <v>0.13200000000000001</v>
       </c>
-      <c r="ET5" s="13">
-        <v>3.8181818199999999</v>
-      </c>
-      <c r="EU5" s="13">
-        <v>1.4166666699999999</v>
-      </c>
-      <c r="EV5" s="13">
-        <v>3.9674800000000003E-2</v>
-      </c>
-      <c r="EW5" s="13">
-        <v>0.25551470999999998</v>
-      </c>
-      <c r="EX5" s="13">
-        <v>1.08054889</v>
-      </c>
-      <c r="EY5" s="16">
+      <c r="ET5" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="EU5" s="25">
+        <v>1.42</v>
+      </c>
+      <c r="EV5" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="EW5" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="EX5" s="25">
+        <v>1.08</v>
+      </c>
+      <c r="EY5" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="EZ5" s="13">
+      <c r="EZ5" s="25">
         <v>1.11E-2</v>
       </c>
-      <c r="FA5" s="13">
+      <c r="FA5" s="25">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="FB5" s="13">
-        <v>1.2446870000000001E-2</v>
-      </c>
-      <c r="FC5" s="13">
-        <v>1.8334999999999999</v>
-      </c>
-      <c r="FD5" s="13">
-        <v>0.50345423</v>
-      </c>
-      <c r="FE5" s="13">
-        <v>0.63576880999999996</v>
-      </c>
-      <c r="FF5" s="13">
-        <v>9.0861999999999998</v>
-      </c>
-      <c r="FG5" s="14">
+      <c r="FB5" s="27">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="FC5" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="FD5" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="FE5" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="FF5" s="25">
+        <v>9.09</v>
+      </c>
+      <c r="FG5" s="25">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="FH5" s="17">
+      <c r="FH5" s="25">
         <v>765</v>
       </c>
-      <c r="FI5" s="17">
+      <c r="FI5" s="25">
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:165" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:165" ht="20.25" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="20">
-        <v>2</v>
-      </c>
-      <c r="C6" s="20">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="20">
-        <v>2</v>
-      </c>
-      <c r="H6" s="20">
-        <v>2</v>
-      </c>
-      <c r="I6" s="20">
-        <v>2</v>
-      </c>
-      <c r="J6" s="20">
-        <v>2</v>
-      </c>
-      <c r="K6" s="20">
-        <v>2</v>
-      </c>
-      <c r="L6" s="20">
-        <v>2</v>
-      </c>
-      <c r="M6" s="20">
-        <v>2</v>
-      </c>
-      <c r="N6" s="20">
-        <v>2</v>
-      </c>
-      <c r="O6" s="20">
-        <v>2</v>
-      </c>
-      <c r="P6" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>2</v>
-      </c>
-      <c r="R6" s="20">
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>2</v>
+      </c>
+      <c r="R6" s="11">
         <v>1</v>
       </c>
-      <c r="S6" s="20">
-        <v>2</v>
-      </c>
-      <c r="T6" s="20">
+      <c r="S6" s="11">
+        <v>2</v>
+      </c>
+      <c r="T6" s="11">
         <v>1</v>
       </c>
-      <c r="U6" s="20">
-        <v>2</v>
-      </c>
-      <c r="V6" s="20">
-        <v>2</v>
-      </c>
-      <c r="W6" s="20">
+      <c r="U6" s="11">
+        <v>2</v>
+      </c>
+      <c r="V6" s="11">
+        <v>2</v>
+      </c>
+      <c r="W6" s="11">
         <v>1</v>
       </c>
-      <c r="X6" s="20">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="20">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="20">
+      <c r="X6" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="11">
         <v>1</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="11">
         <v>1</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="11">
         <v>1</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="12">
         <v>1</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF6" s="11">
         <v>1</v>
       </c>
-      <c r="AG6" s="20">
+      <c r="AG6" s="11">
         <v>1</v>
       </c>
-      <c r="AH6" s="20">
+      <c r="AH6" s="11">
         <v>1</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AI6" s="11">
         <v>1</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="12">
         <v>1</v>
       </c>
-      <c r="AK6" s="20">
+      <c r="AK6" s="11">
         <v>1</v>
       </c>
-      <c r="AL6" s="20">
+      <c r="AL6" s="11">
         <v>1</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="12">
         <v>1</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="12">
         <v>1</v>
       </c>
-      <c r="AO6" s="20">
+      <c r="AO6" s="11">
         <v>1</v>
       </c>
-      <c r="AP6" s="20">
+      <c r="AP6" s="11">
         <v>1</v>
       </c>
-      <c r="AQ6" s="20">
+      <c r="AQ6" s="11">
         <v>1</v>
       </c>
-      <c r="AR6" s="20">
+      <c r="AR6" s="11">
         <v>1</v>
       </c>
-      <c r="AS6" s="20">
+      <c r="AS6" s="11">
         <v>1</v>
       </c>
-      <c r="AT6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="20">
+      <c r="AT6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="11">
         <v>1</v>
       </c>
-      <c r="AW6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AY6" s="20">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BA6" s="20">
+      <c r="AW6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="11">
         <v>1</v>
       </c>
-      <c r="BB6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BC6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BD6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BE6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="20">
+      <c r="BB6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="11">
         <v>1</v>
       </c>
-      <c r="BG6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BH6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BI6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BJ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BK6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BL6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BM6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BN6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BO6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BQ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BR6" s="20">
+      <c r="BG6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BJ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BL6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BN6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="11">
         <v>3</v>
       </c>
-      <c r="BS6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BT6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BU6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BV6" s="20">
+      <c r="BS6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="11">
         <v>3</v>
       </c>
-      <c r="BW6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BX6" s="20">
+      <c r="BW6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BX6" s="11">
         <v>3</v>
       </c>
-      <c r="BY6" s="20">
-        <v>2</v>
-      </c>
-      <c r="BZ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CA6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CB6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CC6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CD6" s="20">
+      <c r="BY6" s="11">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CA6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CD6" s="11">
         <v>3</v>
       </c>
-      <c r="CE6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CF6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CG6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CH6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CI6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CJ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CK6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CL6" s="22">
+      <c r="CE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CF6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CG6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CH6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CJ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CK6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CL6" s="13">
         <v>4</v>
       </c>
-      <c r="CM6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CN6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CO6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CP6" s="20">
+      <c r="CM6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CN6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CO6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CP6" s="11">
         <v>4</v>
       </c>
-      <c r="CQ6" s="23">
+      <c r="CQ6" s="14">
         <v>3</v>
       </c>
-      <c r="CR6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CS6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CT6" s="22">
+      <c r="CR6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CS6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CT6" s="13">
         <v>4</v>
       </c>
-      <c r="CU6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CV6" s="20">
+      <c r="CU6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CV6" s="11">
         <v>4</v>
       </c>
-      <c r="CW6" s="20">
-        <v>2</v>
-      </c>
-      <c r="CX6" s="20">
+      <c r="CW6" s="11">
+        <v>2</v>
+      </c>
+      <c r="CX6" s="11">
         <v>3</v>
       </c>
-      <c r="CY6" s="20">
+      <c r="CY6" s="11">
         <v>4</v>
       </c>
-      <c r="CZ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DA6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DB6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DC6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DD6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DE6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DF6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DG6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DH6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DI6" s="23">
-        <v>2</v>
-      </c>
-      <c r="DJ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DK6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DL6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DM6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DN6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DO6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DP6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DQ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DR6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DS6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DT6" s="20">
+      <c r="CZ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DA6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DB6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DC6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DD6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DF6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DG6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DH6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DI6" s="14">
+        <v>2</v>
+      </c>
+      <c r="DJ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DK6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DL6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DM6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DN6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DO6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DP6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DQ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DR6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DS6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DT6" s="11">
         <v>4</v>
       </c>
-      <c r="DU6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DV6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DW6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DX6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DY6" s="20">
-        <v>2</v>
-      </c>
-      <c r="DZ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EA6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EB6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EC6" s="20">
-        <v>2</v>
-      </c>
-      <c r="ED6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EE6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EF6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EG6" s="22">
+      <c r="DU6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DV6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DW6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DX6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DY6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DZ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EA6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EB6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EC6" s="11">
+        <v>2</v>
+      </c>
+      <c r="ED6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EF6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EG6" s="13">
         <v>4</v>
       </c>
-      <c r="EH6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EI6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EJ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EK6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EL6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EM6" s="22">
+      <c r="EH6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EI6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EJ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EK6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EL6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EM6" s="13">
         <v>4</v>
       </c>
-      <c r="EN6" s="22">
+      <c r="EN6" s="13">
         <v>4</v>
       </c>
-      <c r="EO6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EP6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EQ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="ER6" s="20">
-        <v>2</v>
-      </c>
-      <c r="ES6" s="20">
-        <v>2</v>
-      </c>
-      <c r="ET6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EU6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EV6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EW6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EX6" s="20">
-        <v>2</v>
-      </c>
-      <c r="EY6" s="23">
+      <c r="EO6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EP6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EQ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="ER6" s="11">
+        <v>2</v>
+      </c>
+      <c r="ES6" s="11">
+        <v>2</v>
+      </c>
+      <c r="ET6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EU6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EV6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EW6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EX6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EY6" s="14">
         <v>3</v>
       </c>
-      <c r="EZ6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FA6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FB6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FC6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FD6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FE6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FF6" s="20">
-        <v>2</v>
-      </c>
-      <c r="FG6" s="22">
+      <c r="EZ6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FA6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FB6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FC6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FD6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FF6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FG6" s="13">
         <v>4</v>
       </c>
-      <c r="FH6" s="24">
-        <v>2</v>
-      </c>
-      <c r="FI6" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:165" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="FH6" s="15">
+        <v>2</v>
+      </c>
+      <c r="FI6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:165">
+      <c r="A7" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="U7" s="26" t="s">
+      <c r="U7" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="V7" s="26" t="s">
+      <c r="V7" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="W7" s="26" t="s">
+      <c r="W7" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="X7" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="Y7" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="AA7" s="26" t="s">
+      <c r="AA7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="AD7" s="26" t="s">
+      <c r="AD7" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="AF7" s="26" t="s">
+      <c r="AF7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="AG7" s="26" t="s">
+      <c r="AG7" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="AH7" s="26" t="s">
+      <c r="AH7" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="AI7" s="26" t="s">
+      <c r="AI7" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="AK7" s="26" t="s">
+      <c r="AK7" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AL7" s="26" t="s">
+      <c r="AL7" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="AM7" s="27" t="s">
+      <c r="AM7" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AN7" s="27" t="s">
+      <c r="AN7" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="AO7" s="26" t="s">
+      <c r="AO7" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="AP7" s="26" t="s">
+      <c r="AP7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AQ7" s="26" t="s">
+      <c r="AQ7" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="AR7" s="26" t="s">
+      <c r="AR7" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AS7" s="26" t="s">
+      <c r="AS7" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AT7" s="26" t="s">
+      <c r="AT7" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AU7" s="26" t="s">
+      <c r="AU7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AV7" s="26" t="s">
+      <c r="AV7" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AW7" s="26" t="s">
+      <c r="AW7" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AX7" s="26" t="s">
+      <c r="AX7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AY7" s="26" t="s">
+      <c r="AY7" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="AZ7" s="26" t="s">
+      <c r="AZ7" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="BA7" s="26" t="s">
+      <c r="BA7" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="BB7" s="26" t="s">
+      <c r="BB7" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="BC7" s="26" t="s">
+      <c r="BC7" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="BD7" s="26" t="s">
+      <c r="BD7" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="BE7" s="26" t="s">
+      <c r="BE7" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="BF7" s="26" t="s">
+      <c r="BF7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="BG7" s="26" t="s">
+      <c r="BG7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BH7" s="26" t="s">
+      <c r="BH7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="BI7" s="26" t="s">
+      <c r="BI7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BJ7" s="26" t="s">
+      <c r="BJ7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="BK7" s="26" t="s">
+      <c r="BK7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="BL7" s="26" t="s">
+      <c r="BL7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="BM7" s="26" t="s">
+      <c r="BM7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BN7" s="26" t="s">
+      <c r="BN7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BO7" s="26" t="s">
+      <c r="BO7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="BP7" s="26" t="s">
+      <c r="BP7" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BQ7" s="26" t="s">
+      <c r="BQ7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="BR7" s="26" t="s">
+      <c r="BR7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="BS7" s="26" t="s">
+      <c r="BS7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="BT7" s="26" t="s">
+      <c r="BT7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BU7" s="26" t="s">
+      <c r="BU7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="BV7" s="26" t="s">
+      <c r="BV7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="BW7" s="26" t="s">
+      <c r="BW7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="BX7" s="26" t="s">
+      <c r="BX7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="BY7" s="26" t="s">
+      <c r="BY7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="BZ7" s="26" t="s">
+      <c r="BZ7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="CA7" s="26" t="s">
+      <c r="CA7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="CB7" s="26" t="s">
+      <c r="CB7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="CC7" s="26" t="s">
+      <c r="CC7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="CD7" s="26" t="s">
+      <c r="CD7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="CE7" s="26" t="s">
+      <c r="CE7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="CF7" s="26" t="s">
+      <c r="CF7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="CG7" s="26" t="s">
+      <c r="CG7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="CH7" s="26" t="s">
+      <c r="CH7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="CI7" s="26" t="s">
+      <c r="CI7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="CJ7" s="26" t="s">
+      <c r="CJ7" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="CK7" s="26" t="s">
+      <c r="CK7" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="CL7" s="28" t="s">
+      <c r="CL7" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="CM7" s="26" t="s">
+      <c r="CM7" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="CN7" s="26" t="s">
+      <c r="CN7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="CO7" s="26" t="s">
+      <c r="CO7" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="CP7" s="26" t="s">
+      <c r="CP7" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="CQ7" s="29" t="s">
+      <c r="CQ7" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="CR7" s="26" t="s">
+      <c r="CR7" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="CS7" s="26" t="s">
+      <c r="CS7" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="CT7" s="28" t="s">
+      <c r="CT7" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="CU7" s="26" t="s">
+      <c r="CU7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="CV7" s="26" t="s">
+      <c r="CV7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="CW7" s="26" t="s">
+      <c r="CW7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="CX7" s="26" t="s">
+      <c r="CX7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="CY7" s="26" t="s">
+      <c r="CY7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="CZ7" s="26" t="s">
+      <c r="CZ7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="DA7" s="26" t="s">
+      <c r="DA7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="DB7" s="26" t="s">
+      <c r="DB7" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="DC7" s="26" t="s">
+      <c r="DC7" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="DD7" s="26" t="s">
+      <c r="DD7" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="DE7" s="26" t="s">
+      <c r="DE7" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="DF7" s="26" t="s">
+      <c r="DF7" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="DG7" s="26" t="s">
+      <c r="DG7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="DH7" s="26" t="s">
+      <c r="DH7" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="DI7" s="29" t="s">
+      <c r="DI7" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="DJ7" s="26" t="s">
+      <c r="DJ7" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="DK7" s="26" t="s">
+      <c r="DK7" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="DL7" s="26" t="s">
+      <c r="DL7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="DM7" s="26" t="s">
+      <c r="DM7" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="DN7" s="26" t="s">
+      <c r="DN7" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="DO7" s="26" t="s">
+      <c r="DO7" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="DP7" s="26" t="s">
+      <c r="DP7" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="DQ7" s="26" t="s">
+      <c r="DQ7" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="DR7" s="26" t="s">
+      <c r="DR7" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="DS7" s="26" t="s">
+      <c r="DS7" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="DT7" s="26" t="s">
+      <c r="DT7" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="DU7" s="26" t="s">
+      <c r="DU7" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="DV7" s="26" t="s">
+      <c r="DV7" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="DW7" s="26" t="s">
+      <c r="DW7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="DX7" s="26" t="s">
+      <c r="DX7" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="DY7" s="26" t="s">
+      <c r="DY7" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="DZ7" s="26" t="s">
+      <c r="DZ7" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="EA7" s="26" t="s">
+      <c r="EA7" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="EB7" s="26" t="s">
+      <c r="EB7" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="EC7" s="26" t="s">
+      <c r="EC7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="ED7" s="26" t="s">
+      <c r="ED7" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="EE7" s="26" t="s">
+      <c r="EE7" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="EF7" s="26" t="s">
+      <c r="EF7" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="EG7" s="28" t="s">
+      <c r="EG7" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="EH7" s="26" t="s">
+      <c r="EH7" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="EI7" s="26" t="s">
+      <c r="EI7" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="EJ7" s="26" t="s">
+      <c r="EJ7" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EK7" s="26" t="s">
+      <c r="EK7" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EL7" s="26" t="s">
+      <c r="EL7" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="EM7" s="28" t="s">
+      <c r="EM7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="EN7" s="28" t="s">
+      <c r="EN7" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="EO7" s="26" t="s">
+      <c r="EO7" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EP7" s="26" t="s">
+      <c r="EP7" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EQ7" s="26" t="s">
+      <c r="EQ7" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="ER7" s="26" t="s">
+      <c r="ER7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="ES7" s="26" t="s">
+      <c r="ES7" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="ET7" s="26" t="s">
+      <c r="ET7" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="EU7" s="26" t="s">
+      <c r="EU7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="EV7" s="26" t="s">
+      <c r="EV7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="EW7" s="26" t="s">
+      <c r="EW7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="EX7" s="26" t="s">
+      <c r="EX7" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="EY7" s="29" t="s">
+      <c r="EY7" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="EZ7" s="29" t="s">
+      <c r="EZ7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="FA7" s="26" t="s">
+      <c r="FA7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="FB7" s="26" t="s">
+      <c r="FB7" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="FC7" s="26" t="s">
+      <c r="FC7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="FD7" s="26" t="s">
+      <c r="FD7" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="FE7" s="26" t="s">
+      <c r="FE7" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="FF7" s="26" t="s">
+      <c r="FF7" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="FG7" s="28" t="s">
+      <c r="FG7" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="FH7" s="30" t="s">
+      <c r="FH7" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="FI7" s="30" t="s">
+      <c r="FI7" s="21" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33922D5E-026A-46EC-BA0B-CDD90EA90090}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="55">
+        <v>93.7</v>
+      </c>
+      <c r="C2" s="55">
+        <v>94.4</v>
+      </c>
+      <c r="D2" s="55">
+        <v>89.7</v>
+      </c>
+      <c r="E2" s="55">
+        <v>98.2</v>
+      </c>
+      <c r="F2" s="55">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="55">
+        <v>92.1</v>
+      </c>
+      <c r="C3" s="55">
+        <v>90.5</v>
+      </c>
+      <c r="D3" s="55">
+        <v>89.2</v>
+      </c>
+      <c r="E3" s="55">
+        <v>91.8</v>
+      </c>
+      <c r="F3" s="55">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="55">
+        <v>91.8</v>
+      </c>
+      <c r="C4" s="55">
+        <v>90.7</v>
+      </c>
+      <c r="D4" s="55">
+        <v>87.9</v>
+      </c>
+      <c r="E4" s="55">
+        <v>92.1</v>
+      </c>
+      <c r="F4" s="55">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="55">
+        <v>90.4</v>
+      </c>
+      <c r="C5" s="55">
+        <v>88.9</v>
+      </c>
+      <c r="D5" s="55">
+        <v>86.2</v>
+      </c>
+      <c r="E5" s="55">
+        <v>89.7</v>
+      </c>
+      <c r="F5" s="55">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="55">
+        <v>93.7</v>
+      </c>
+      <c r="C6" s="55">
+        <v>94.4</v>
+      </c>
+      <c r="D6" s="55">
+        <v>89.7</v>
+      </c>
+      <c r="E6" s="55">
+        <v>98.2</v>
+      </c>
+      <c r="F6" s="55">
+        <v>73.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E35516-F0CF-4D6A-BB44-A2C6B02294B4}">
+  <dimension ref="A1:I130"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="51" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="53"/>
+    <col min="8" max="9" width="10.77734375" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18">
+      <c r="A2" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1.75</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0</v>
+      </c>
+      <c r="I2" s="38">
+        <v>1.1460000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18">
+      <c r="A3" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1.75</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36">
+        <v>1.25</v>
+      </c>
+      <c r="F4" s="37">
+        <v>51.320000000000007</v>
+      </c>
+      <c r="G4" s="37">
+        <v>122.18000000000002</v>
+      </c>
+      <c r="H4" s="38">
+        <v>4.0799999999999947</v>
+      </c>
+      <c r="I4" s="38">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18">
+      <c r="A5" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.52</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18">
+      <c r="A6" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G6" s="37">
+        <v>2.012</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0</v>
+      </c>
+      <c r="I6" s="38">
+        <v>2.7479999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18">
+      <c r="A7" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0</v>
+      </c>
+      <c r="I7" s="38">
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18">
+      <c r="A8" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.43399999999999994</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.86599999999999988</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1.1539999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18">
+      <c r="A9" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.43200000000000005</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.128</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="37">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="G10" s="37">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I10" s="38">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18">
+      <c r="A11" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.378</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.218</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.44199999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18">
+      <c r="A12" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="F12" s="37">
+        <v>25.58</v>
+      </c>
+      <c r="G12" s="37">
+        <v>43.82</v>
+      </c>
+      <c r="H12" s="38">
+        <v>13.42</v>
+      </c>
+      <c r="I12" s="38">
+        <v>55.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="37">
+        <v>5.46</v>
+      </c>
+      <c r="G13" s="37">
+        <v>10.59</v>
+      </c>
+      <c r="H13" s="38">
+        <v>2.04</v>
+      </c>
+      <c r="I13" s="38">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18">
+      <c r="A14" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="37">
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="H14" s="38">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.46799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18">
+      <c r="A15" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18">
+      <c r="A16" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.18799999999999997</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0.90199999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="H17" s="38">
+        <v>0</v>
+      </c>
+      <c r="I17" s="38">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
+      <c r="A18" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="41">
+        <v>2</v>
+      </c>
+      <c r="E18" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="37">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="G18" s="37">
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="H18" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="38">
+        <v>3.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
+      <c r="A19" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="37">
+        <v>49.099999999999994</v>
+      </c>
+      <c r="G19" s="37">
+        <v>86</v>
+      </c>
+      <c r="H19" s="38">
+        <v>24.499999999999996</v>
+      </c>
+      <c r="I19" s="38">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="37">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G20" s="37">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="H20" s="38">
+        <v>42.2</v>
+      </c>
+      <c r="I20" s="38">
+        <v>166.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="37">
+        <v>69.66</v>
+      </c>
+      <c r="G21" s="37">
+        <v>140.94</v>
+      </c>
+      <c r="H21" s="38">
+        <v>22.14</v>
+      </c>
+      <c r="I21" s="38">
+        <v>188.45999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="45">
+        <v>2</v>
+      </c>
+      <c r="E22" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="37">
+        <v>89.68</v>
+      </c>
+      <c r="G22" s="37">
+        <v>246.22</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0</v>
+      </c>
+      <c r="I22" s="38">
+        <v>350.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18">
+      <c r="A23" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="37">
+        <v>25.8</v>
+      </c>
+      <c r="G23" s="37">
+        <v>52.8</v>
+      </c>
+      <c r="H23" s="38">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="I23" s="38">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="A24" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="41">
+        <v>2</v>
+      </c>
+      <c r="E24" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="G24" s="37">
+        <v>3.0160000000000005</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0</v>
+      </c>
+      <c r="I24" s="38">
+        <v>4.3040000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18">
+      <c r="A25" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H25" s="38">
+        <v>0</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18">
+      <c r="A26" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="35">
+        <v>1</v>
+      </c>
+      <c r="E26" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G26" s="37">
+        <v>2.012</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0</v>
+      </c>
+      <c r="I26" s="38">
+        <v>2.7479999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18">
+      <c r="A27" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="40">
+        <v>0</v>
+      </c>
+      <c r="E27" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.52</v>
+      </c>
+      <c r="G27" s="37">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0</v>
+      </c>
+      <c r="I27" s="38">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18">
+      <c r="A28" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="46">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H28" s="38">
+        <v>0</v>
+      </c>
+      <c r="I28" s="38">
+        <v>1.3139999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18">
+      <c r="A29" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="47">
+        <v>0</v>
+      </c>
+      <c r="E29" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="37">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G29" s="37">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H29" s="38">
+        <v>0</v>
+      </c>
+      <c r="I29" s="38">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18">
+      <c r="A30" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0</v>
+      </c>
+      <c r="E30" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="37">
+        <v>43.540000000000006</v>
+      </c>
+      <c r="G30" s="37">
+        <v>65.56</v>
+      </c>
+      <c r="H30" s="38">
+        <v>28.860000000000003</v>
+      </c>
+      <c r="I30" s="38">
+        <v>80.240000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18">
+      <c r="A31" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="41">
+        <v>2</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18">
+      <c r="A32" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="F32" s="37">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="G32" s="37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H32" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="I32" s="38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18">
+      <c r="A33" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="37">
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="G33" s="37">
+        <v>15.040000000000001</v>
+      </c>
+      <c r="H33" s="38">
+        <v>0</v>
+      </c>
+      <c r="I33" s="38">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18">
+      <c r="A34" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="35">
+        <v>1</v>
+      </c>
+      <c r="E34" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="F34" s="37">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="G34" s="37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H34" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="I34" s="38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18">
+      <c r="A35" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="41">
+        <v>2</v>
+      </c>
+      <c r="E35" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="F35" s="37">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G35" s="37">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H35" s="48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I35" s="38">
+        <v>43.899999999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18">
+      <c r="A36" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="35">
+        <v>1</v>
+      </c>
+      <c r="E36" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="37">
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="G36" s="37">
+        <v>15.040000000000001</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0</v>
+      </c>
+      <c r="I36" s="38">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18">
+      <c r="A37" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="35">
+        <v>1</v>
+      </c>
+      <c r="E37" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0</v>
+      </c>
+      <c r="I37" s="38">
+        <v>1.1460000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18">
+      <c r="A38" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="F38" s="37">
+        <v>51.320000000000007</v>
+      </c>
+      <c r="G38" s="37">
+        <v>122.18000000000002</v>
+      </c>
+      <c r="H38" s="38">
+        <v>4.0799999999999947</v>
+      </c>
+      <c r="I38" s="38">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18">
+      <c r="A39" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="41">
+        <v>2</v>
+      </c>
+      <c r="E39" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="37">
+        <v>259.52</v>
+      </c>
+      <c r="G39" s="37">
+        <v>511.58000000000004</v>
+      </c>
+      <c r="H39" s="38">
+        <v>91.47999999999999</v>
+      </c>
+      <c r="I39" s="38">
+        <v>679.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18">
+      <c r="A40" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="35">
+        <v>1</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="37">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="G40" s="37">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H40" s="32">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I40" s="38">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18">
+      <c r="A41" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="F41" s="37">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="G41" s="37">
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="H41" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="38">
+        <v>3.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18">
+      <c r="A42" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="F42" s="37">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G42" s="37">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="H42" s="38">
+        <v>0</v>
+      </c>
+      <c r="I42" s="38">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18">
+      <c r="A43" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="35">
+        <v>1</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F43" s="37">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G43" s="37">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H43" s="38">
+        <v>0.18799999999999997</v>
+      </c>
+      <c r="I43" s="38">
+        <v>0.90199999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18">
+      <c r="A44" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="35">
+        <v>1</v>
+      </c>
+      <c r="E44" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0.43399999999999994</v>
+      </c>
+      <c r="G44" s="37">
+        <v>0.86599999999999988</v>
+      </c>
+      <c r="H44" s="38">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I44" s="38">
+        <v>1.1539999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18">
+      <c r="A45" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="35">
+        <v>1</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0.45</v>
+      </c>
+      <c r="F45" s="37">
+        <v>1.6420000000000001</v>
+      </c>
+      <c r="G45" s="37">
+        <v>5.7880000000000003</v>
+      </c>
+      <c r="H45" s="38">
+        <v>0</v>
+      </c>
+      <c r="I45" s="38">
+        <v>8.5519999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18">
+      <c r="A46" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="35">
+        <v>1</v>
+      </c>
+      <c r="E46" s="36">
+        <v>1.8750000000000002</v>
+      </c>
+      <c r="F46" s="37">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="G46" s="37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H46" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="I46" s="38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18">
+      <c r="A47" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="41">
+        <v>2</v>
+      </c>
+      <c r="E47" s="36">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="F47" s="37">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G47" s="37">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H47" s="48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I47" s="38">
+        <v>43.899999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18">
+      <c r="A48" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="35">
+        <v>1</v>
+      </c>
+      <c r="E48" s="36">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="F48" s="37">
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="G48" s="37">
+        <v>15.040000000000001</v>
+      </c>
+      <c r="H48" s="38">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18">
+      <c r="A49" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="39">
+        <v>0</v>
+      </c>
+      <c r="E49" s="36">
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="F49" s="37">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G49" s="37">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="H49" s="38">
+        <v>0</v>
+      </c>
+      <c r="I49" s="38">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18">
+      <c r="A50" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="35">
+        <v>1</v>
+      </c>
+      <c r="E50" s="36">
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="F50" s="37">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G50" s="37">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H50" s="38">
+        <v>0</v>
+      </c>
+      <c r="I50" s="38">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18">
+      <c r="A51" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="35">
+        <v>1</v>
+      </c>
+      <c r="E51" s="36">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G51" s="37">
+        <v>2.012</v>
+      </c>
+      <c r="H51" s="38">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I51" s="38">
+        <v>2.7479999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18">
+      <c r="A52" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="35">
+        <v>1</v>
+      </c>
+      <c r="E52" s="36">
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H52" s="38">
+        <v>0.18799999999999997</v>
+      </c>
+      <c r="I52" s="38">
+        <v>0.90199999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18">
+      <c r="A53" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="35">
+        <v>1</v>
+      </c>
+      <c r="E53" s="36">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0.43399999999999994</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0.86599999999999988</v>
+      </c>
+      <c r="H53" s="38">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I53" s="38">
+        <v>1.1539999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18">
+      <c r="A54" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="35">
+        <v>1</v>
+      </c>
+      <c r="E54" s="36">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H54" s="38">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I54" s="38">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18">
+      <c r="A55" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="35">
+        <v>1</v>
+      </c>
+      <c r="E55" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G55" s="37">
+        <v>2.012</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0</v>
+      </c>
+      <c r="I55" s="38">
+        <v>2.7479999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18">
+      <c r="A56" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="39">
+        <v>0</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F56" s="37">
+        <v>48.04</v>
+      </c>
+      <c r="G56" s="37">
+        <v>98.859999999999985</v>
+      </c>
+      <c r="H56" s="38">
+        <v>14.160000000000004</v>
+      </c>
+      <c r="I56" s="38">
+        <v>132.73999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18">
+      <c r="A57" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="35">
+        <v>1</v>
+      </c>
+      <c r="E57" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F57" s="37">
+        <v>32.86</v>
+      </c>
+      <c r="G57" s="37">
+        <v>51.94</v>
+      </c>
+      <c r="H57" s="38">
+        <v>20.14</v>
+      </c>
+      <c r="I57" s="38">
+        <v>64.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18">
+      <c r="A58" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="39">
+        <v>0</v>
+      </c>
+      <c r="E58" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F58" s="37">
+        <v>69.66</v>
+      </c>
+      <c r="G58" s="37">
+        <v>140.94</v>
+      </c>
+      <c r="H58" s="38">
+        <v>22.14</v>
+      </c>
+      <c r="I58" s="38">
+        <v>188.45999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18">
+      <c r="A59" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="35">
+        <v>1</v>
+      </c>
+      <c r="E59" s="36">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="F59" s="37">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G59" s="37">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38">
+        <v>1.1460000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18">
+      <c r="A60" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="39">
+        <v>0</v>
+      </c>
+      <c r="E60" s="36">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F60" s="37">
+        <v>51.320000000000007</v>
+      </c>
+      <c r="G60" s="37">
+        <v>122.18000000000002</v>
+      </c>
+      <c r="H60" s="38">
+        <v>4.0799999999999947</v>
+      </c>
+      <c r="I60" s="38">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18">
+      <c r="A61" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="35">
+        <v>1</v>
+      </c>
+      <c r="E61" s="36">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="F61" s="37">
+        <v>0.43200000000000005</v>
+      </c>
+      <c r="G61" s="37">
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="H61" s="38">
+        <v>0</v>
+      </c>
+      <c r="I61" s="38">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18">
+      <c r="A62" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="39">
+        <v>0</v>
+      </c>
+      <c r="E62" s="43">
+        <v>1</v>
+      </c>
+      <c r="F62" s="37">
+        <v>25.58</v>
+      </c>
+      <c r="G62" s="37">
+        <v>43.82</v>
+      </c>
+      <c r="H62" s="38">
+        <v>13.42</v>
+      </c>
+      <c r="I62" s="38">
+        <v>55.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18">
+      <c r="A63" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="39">
+        <v>0</v>
+      </c>
+      <c r="E63" s="43">
+        <v>1</v>
+      </c>
+      <c r="F63" s="37">
+        <v>5.46</v>
+      </c>
+      <c r="G63" s="37">
+        <v>10.59</v>
+      </c>
+      <c r="H63" s="38">
+        <v>2.04</v>
+      </c>
+      <c r="I63" s="38">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18">
+      <c r="A64" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="39">
+        <v>0</v>
+      </c>
+      <c r="E64" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="F64" s="37">
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="G64" s="37">
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="H64" s="38">
+        <v>-7.8000000000000014E-2</v>
+      </c>
+      <c r="I64" s="38">
+        <v>0.46799999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18">
+      <c r="A65" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="39">
+        <v>0</v>
+      </c>
+      <c r="E65" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="F65" s="37">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="G65" s="37">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H65" s="38">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I65" s="38">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18">
+      <c r="A66" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="41">
+        <v>2</v>
+      </c>
+      <c r="E66" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="F66" s="37">
+        <v>259.52</v>
+      </c>
+      <c r="G66" s="37">
+        <v>511.58000000000004</v>
+      </c>
+      <c r="H66" s="38">
+        <v>91.47999999999999</v>
+      </c>
+      <c r="I66" s="38">
+        <v>679.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18">
+      <c r="A67" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="35">
+        <v>1</v>
+      </c>
+      <c r="E67" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="F67" s="37">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="G67" s="37">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H67" s="32">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I67" s="38">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18">
+      <c r="A68" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="35">
+        <v>1</v>
+      </c>
+      <c r="E68" s="43">
+        <v>0.875</v>
+      </c>
+      <c r="F68" s="37">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G68" s="37">
+        <v>0.378</v>
+      </c>
+      <c r="H68" s="38">
+        <v>0.218</v>
+      </c>
+      <c r="I68" s="38">
+        <v>0.44199999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18">
+      <c r="A69" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="35">
+        <v>1</v>
+      </c>
+      <c r="E69" s="43">
+        <v>0.875</v>
+      </c>
+      <c r="F69" s="37">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G69" s="37">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H69" s="38">
+        <v>0</v>
+      </c>
+      <c r="I69" s="38">
+        <v>1.1460000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18">
+      <c r="A70" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="35">
+        <v>1</v>
+      </c>
+      <c r="E70" s="43">
+        <v>1.25</v>
+      </c>
+      <c r="F70" s="37">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G70" s="37">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H70" s="49">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I70" s="38">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18">
+      <c r="A71" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="41">
+        <v>2</v>
+      </c>
+      <c r="E71" s="50">
+        <v>1.7647058823529416</v>
+      </c>
+      <c r="F71" s="37">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G71" s="37">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H71" s="38">
+        <v>0</v>
+      </c>
+      <c r="I71" s="38">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18">
+      <c r="A72" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="41">
+        <v>2</v>
+      </c>
+      <c r="E72" s="50">
+        <v>0.58823529411764719</v>
+      </c>
+      <c r="F72" s="37">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="G72" s="37">
+        <v>3.0160000000000005</v>
+      </c>
+      <c r="H72" s="38">
+        <v>0</v>
+      </c>
+      <c r="I72" s="38">
+        <v>4.3040000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18">
+      <c r="A73" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="35">
+        <v>1</v>
+      </c>
+      <c r="E73" s="50">
+        <v>1.1764705882352944</v>
+      </c>
+      <c r="F73" s="37">
+        <v>0.122</v>
+      </c>
+      <c r="G73" s="37">
+        <v>0.218</v>
+      </c>
+      <c r="H73" s="38">
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="I73" s="38">
+        <v>0.28200000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18">
+      <c r="A74" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="35">
+        <v>1</v>
+      </c>
+      <c r="E74" s="50">
+        <v>0.58823529411764719</v>
+      </c>
+      <c r="F74" s="37">
+        <v>1.29</v>
+      </c>
+      <c r="G74" s="37">
+        <v>2.13</v>
+      </c>
+      <c r="H74" s="38">
+        <v>0.73</v>
+      </c>
+      <c r="I74" s="38">
+        <v>2.6900000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18">
+      <c r="A75" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="39">
+        <v>0</v>
+      </c>
+      <c r="E75" s="50">
+        <v>0.58823529411764719</v>
+      </c>
+      <c r="F75" s="37">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G75" s="37">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H75" s="38">
+        <v>0</v>
+      </c>
+      <c r="I75" s="38">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18">
+      <c r="A76" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="39">
+        <v>0</v>
+      </c>
+      <c r="E76" s="50">
+        <v>0.58823529411764719</v>
+      </c>
+      <c r="F76" s="37">
+        <v>23.4</v>
+      </c>
+      <c r="G76" s="37">
+        <v>41.4</v>
+      </c>
+      <c r="H76" s="38">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="I76" s="38">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18">
+      <c r="A77" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="35">
+        <v>1</v>
+      </c>
+      <c r="E77" s="50">
+        <v>0.58823529411764719</v>
+      </c>
+      <c r="F77" s="37">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G77" s="37">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H77" s="38">
+        <v>0</v>
+      </c>
+      <c r="I77" s="38">
+        <v>1.1460000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18">
+      <c r="A78" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="39">
+        <v>0</v>
+      </c>
+      <c r="E78" s="50">
+        <v>1.1764705882352944</v>
+      </c>
+      <c r="F78" s="37">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G78" s="37">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H78" s="38">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="I78" s="38">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18">
+      <c r="A79" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="35">
+        <v>1</v>
+      </c>
+      <c r="E79" s="50">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="F79" s="37">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G79" s="37">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H79" s="49">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18">
+      <c r="A80" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="41">
+        <v>2</v>
+      </c>
+      <c r="E80" s="50">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="F80" s="37">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G80" s="37">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H80" s="48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I80" s="38">
+        <v>43.899999999999991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18">
+      <c r="A81" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="39">
+        <v>0</v>
+      </c>
+      <c r="E81" s="50">
+        <v>1.1764705882352944</v>
+      </c>
+      <c r="F81" s="37">
+        <v>51.1</v>
+      </c>
+      <c r="G81" s="37">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H81" s="38">
+        <v>39.1</v>
+      </c>
+      <c r="I81" s="38">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18">
+      <c r="A82" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="39">
+        <v>0</v>
+      </c>
+      <c r="E82" s="50">
+        <v>0.58823529411764719</v>
+      </c>
+      <c r="F82" s="37">
+        <v>5.46</v>
+      </c>
+      <c r="G82" s="37">
+        <v>10.59</v>
+      </c>
+      <c r="H82" s="38">
+        <v>2.04</v>
+      </c>
+      <c r="I82" s="38">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18">
+      <c r="A83" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="39">
+        <v>0</v>
+      </c>
+      <c r="E83" s="50">
+        <v>0.23529411764705888</v>
+      </c>
+      <c r="F83" s="37">
+        <v>49.099999999999994</v>
+      </c>
+      <c r="G83" s="37">
+        <v>86</v>
+      </c>
+      <c r="H83" s="38">
+        <v>24.499999999999996</v>
+      </c>
+      <c r="I83" s="38">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18">
+      <c r="A84" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="39">
+        <v>0</v>
+      </c>
+      <c r="E84" s="50">
+        <v>0.23529411764705888</v>
+      </c>
+      <c r="F84" s="37">
+        <v>43.540000000000006</v>
+      </c>
+      <c r="G84" s="37">
+        <v>65.56</v>
+      </c>
+      <c r="H84" s="38">
+        <v>28.860000000000003</v>
+      </c>
+      <c r="I84" s="38">
+        <v>80.240000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18">
+      <c r="A85" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="35">
+        <v>1</v>
+      </c>
+      <c r="E85" s="50">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="F85" s="37">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="G85" s="37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H85" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="I85" s="38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18">
+      <c r="A86" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="35">
+        <v>1</v>
+      </c>
+      <c r="E86" s="50">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="F86" s="37">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G86" s="37">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H86" s="49">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I86" s="38">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18">
+      <c r="A87" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D87" s="35">
+        <v>1</v>
+      </c>
+      <c r="E87" s="50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F87" s="37">
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="G87" s="37">
+        <v>15.040000000000001</v>
+      </c>
+      <c r="H87" s="38">
+        <v>0</v>
+      </c>
+      <c r="I87" s="38">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18">
+      <c r="A88" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="35">
+        <v>1</v>
+      </c>
+      <c r="E88" s="50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F88" s="37">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G88" s="37">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H88" s="38">
+        <v>0</v>
+      </c>
+      <c r="I88" s="38">
+        <v>1.1460000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18">
+      <c r="A89" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" s="39">
+        <v>0</v>
+      </c>
+      <c r="E89" s="50">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="F89" s="37">
+        <v>3.98</v>
+      </c>
+      <c r="G89" s="37">
+        <v>15.92</v>
+      </c>
+      <c r="H89" s="38">
+        <v>0</v>
+      </c>
+      <c r="I89" s="38">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18">
+      <c r="A90" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="39">
+        <v>0</v>
+      </c>
+      <c r="E90" s="50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F90" s="37">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G90" s="37">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H90" s="38">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="I90" s="38">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18">
+      <c r="A91" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="39">
+        <v>0</v>
+      </c>
+      <c r="E91" s="50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F91" s="37">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G91" s="37">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H91" s="38">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="I91" s="38">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18">
+      <c r="A92" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="41">
+        <v>2</v>
+      </c>
+      <c r="E92" s="50">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F92" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="G92" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="H92" s="38">
+        <v>0</v>
+      </c>
+      <c r="I92" s="38">
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18">
+      <c r="A93" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="40">
+        <v>0</v>
+      </c>
+      <c r="E93" s="50">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F93" s="37">
+        <v>0.52</v>
+      </c>
+      <c r="G93" s="37">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="H93" s="38">
+        <v>0</v>
+      </c>
+      <c r="I93" s="38">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18">
+      <c r="A94" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="35">
+        <v>1</v>
+      </c>
+      <c r="E94" s="50">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F94" s="37">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G94" s="37">
+        <v>2.012</v>
+      </c>
+      <c r="H94" s="38">
+        <v>0</v>
+      </c>
+      <c r="I94" s="38">
+        <v>2.7479999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18">
+      <c r="A95" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" s="41">
+        <v>2</v>
+      </c>
+      <c r="E95" s="50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F95" s="37">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="G95" s="37">
+        <v>3.0160000000000005</v>
+      </c>
+      <c r="H95" s="38">
+        <v>0</v>
+      </c>
+      <c r="I95" s="38">
+        <v>4.3040000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="18">
+      <c r="A96" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="39">
+        <v>0</v>
+      </c>
+      <c r="E96" s="50">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F96" s="37">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G96" s="37">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="H96" s="38">
+        <v>0</v>
+      </c>
+      <c r="I96" s="38">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18">
+      <c r="A97" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="47">
+        <v>0</v>
+      </c>
+      <c r="E97" s="50">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F97" s="37">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G97" s="37">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H97" s="38">
+        <v>0</v>
+      </c>
+      <c r="I97" s="38">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="18">
+      <c r="A98" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="41">
+        <v>2</v>
+      </c>
+      <c r="E98" s="50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="F98" s="37">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="G98" s="37">
+        <v>2.5999999999999995E-2</v>
+      </c>
+      <c r="H98" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I98" s="38">
+        <v>3.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="B100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="B101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="B105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="B106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="B107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+    </row>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" customFormat="1"/>
+    <row r="130" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7585A-BAA2-40C8-A134-DD1276D83A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53FB4E2-7EB3-48CA-B912-66F9CABCF96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9300" yWindow="840" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref_stats" sheetId="1" r:id="rId1"/>
@@ -1692,7 +1692,7 @@
   </sheetPr>
   <dimension ref="A1:FI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="CN21" sqref="CN21"/>
     </sheetView>
@@ -5369,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E35516-F0CF-4D6A-BB44-A2C6B02294B4}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4FC3D7-38E7-4B70-B0CD-A116779097C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17DD39-D7BF-47B8-97D1-D7E572BD1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref_stats" sheetId="1" r:id="rId1"/>
-    <sheet name="Group_score" sheetId="3" r:id="rId2"/>
+    <sheet name="metrics_ml_models" sheetId="3" r:id="rId2"/>
     <sheet name="Params_metaboscan" sheetId="2" r:id="rId3"/>
     <sheet name="Controls" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="433">
   <si>
     <t>metabolite</t>
   </si>
@@ -543,66 +543,9 @@
     <t>name_view</t>
   </si>
   <si>
-    <t>5-гидрокситриптофан</t>
-  </si>
-  <si>
-    <t>Антранилловая кислота</t>
-  </si>
-  <si>
-    <t>Аргинин</t>
-  </si>
-  <si>
-    <t>Цитруллин</t>
-  </si>
-  <si>
-    <t>Гомоаргинин</t>
-  </si>
-  <si>
-    <t>3-индолуксусная кислота</t>
-  </si>
-  <si>
-    <t>3-индолмасляная</t>
-  </si>
-  <si>
-    <t>3-индолкарбоксальдегид</t>
-  </si>
-  <si>
-    <t>3-индолмолочная кислота</t>
-  </si>
-  <si>
-    <t>3-индолпропионовая кислота</t>
-  </si>
-  <si>
-    <t>Кинуреновая кислота</t>
-  </si>
-  <si>
-    <t>Кинуренин</t>
-  </si>
-  <si>
     <t>Мелатонин</t>
   </si>
   <si>
-    <t>Орнитин</t>
-  </si>
-  <si>
-    <t>Хинолиновая кислота</t>
-  </si>
-  <si>
-    <t>Серин</t>
-  </si>
-  <si>
-    <t>Серотонин</t>
-  </si>
-  <si>
-    <t>Триптамин</t>
-  </si>
-  <si>
-    <t>Триптофан</t>
-  </si>
-  <si>
-    <t>Ксантуреновая кислота</t>
-  </si>
-  <si>
     <t>Аденозин</t>
   </si>
   <si>
@@ -612,78 +555,9 @@
     <t>Уридин</t>
   </si>
   <si>
-    <t>Аланин</t>
-  </si>
-  <si>
-    <t>Аспарагин</t>
-  </si>
-  <si>
-    <t>Аспарагиновая кислота</t>
-  </si>
-  <si>
-    <t>Глутамат</t>
-  </si>
-  <si>
-    <t>Глутамин</t>
-  </si>
-  <si>
-    <t>Глицин</t>
-  </si>
-  <si>
-    <t>Гистидин</t>
-  </si>
-  <si>
-    <t>Гидроксипролин</t>
-  </si>
-  <si>
-    <t>Лизин</t>
-  </si>
-  <si>
-    <t>Метилгистидин</t>
-  </si>
-  <si>
-    <t>Фенилаланин</t>
-  </si>
-  <si>
-    <t>Пролин</t>
-  </si>
-  <si>
-    <t>Сумма Leu-Ile</t>
-  </si>
-  <si>
-    <t>Таурин</t>
-  </si>
-  <si>
-    <t>Треонин</t>
-  </si>
-  <si>
-    <t>Тирозин</t>
-  </si>
-  <si>
-    <t>Валин</t>
-  </si>
-  <si>
-    <t>Бетаин</t>
-  </si>
-  <si>
-    <t>Холин</t>
-  </si>
-  <si>
-    <t>Метионин</t>
-  </si>
-  <si>
-    <t>Метионин сульфоксид</t>
-  </si>
-  <si>
-    <t>Карнозин</t>
-  </si>
-  <si>
     <t>Кортизол</t>
   </si>
   <si>
-    <t>Креатинин</t>
-  </si>
-  <si>
     <t>Гистамин</t>
   </si>
   <si>
@@ -693,9 +567,6 @@
     <t>Рибофлавин</t>
   </si>
   <si>
-    <t>SDMA</t>
-  </si>
-  <si>
     <t>Arg / ADMA</t>
   </si>
   <si>
@@ -1228,6 +1099,240 @@
   </si>
   <si>
     <t>MK62</t>
+  </si>
+  <si>
+    <t>5-гидрокситриптофан (5-HTP)</t>
+  </si>
+  <si>
+    <t>Асимметричный диметиларгинин (ADMA)</t>
+  </si>
+  <si>
+    <t>Антраниловая кислота (Ant)</t>
+  </si>
+  <si>
+    <t>Аргинин (Arg)</t>
+  </si>
+  <si>
+    <t>Цитруллин (Cit)</t>
+  </si>
+  <si>
+    <t>5-Гидроксииндолуксусная кислота (5-HIAA)</t>
+  </si>
+  <si>
+    <t>Гомоаргинин (HomoArg)</t>
+  </si>
+  <si>
+    <t>3-Индолуксусная кислота (IAA)</t>
+  </si>
+  <si>
+    <t>3-Индолмолочная кислота (ILA)</t>
+  </si>
+  <si>
+    <t>3-Индолкарбоксальдегид (ICAA)</t>
+  </si>
+  <si>
+    <t>3-Индолпропионовая кислота (IPA)</t>
+  </si>
+  <si>
+    <t>3-Индолмасляная кислота (IBA)</t>
+  </si>
+  <si>
+    <t>Кинуреновая кислота (Kyna)</t>
+  </si>
+  <si>
+    <t>Кинуренин (Kyn)</t>
+  </si>
+  <si>
+    <t>Монометиларгинин (MMA)</t>
+  </si>
+  <si>
+    <t>Орнитин (Orn)</t>
+  </si>
+  <si>
+    <t>Хинолиновая кислота (QA)</t>
+  </si>
+  <si>
+    <t>Серин (Ser)</t>
+  </si>
+  <si>
+    <t>Серотонин (Ser)</t>
+  </si>
+  <si>
+    <t>Триптамин (TA)</t>
+  </si>
+  <si>
+    <t>Триптофан (Trp)</t>
+  </si>
+  <si>
+    <t>Ксантуреновая кислота (Xnt)</t>
+  </si>
+  <si>
+    <t>Аланин (Ala)</t>
+  </si>
+  <si>
+    <t>Аспарагин (Asn)</t>
+  </si>
+  <si>
+    <t>Аспарагиновая кислота (Asp)</t>
+  </si>
+  <si>
+    <t>Глутаминовая кислота (Glu)</t>
+  </si>
+  <si>
+    <t>Глутамин (Gln)</t>
+  </si>
+  <si>
+    <t>Глицин (Gly)</t>
+  </si>
+  <si>
+    <t>Гистидин (His)</t>
+  </si>
+  <si>
+    <t>Гидроксипролин (Hyp)</t>
+  </si>
+  <si>
+    <t>Лизин (Lys)</t>
+  </si>
+  <si>
+    <t>Метилгистидин (MH)</t>
+  </si>
+  <si>
+    <t>Фенилаланин (Phe)</t>
+  </si>
+  <si>
+    <t>Пролин (Pro)</t>
+  </si>
+  <si>
+    <t>Лейцин + Изолейцин (Leu+Ile)</t>
+  </si>
+  <si>
+    <t>Таурин (Tau)</t>
+  </si>
+  <si>
+    <t>Треонин (Thr)</t>
+  </si>
+  <si>
+    <t>Тирозин (Tyr)</t>
+  </si>
+  <si>
+    <t>Валин (Val)</t>
+  </si>
+  <si>
+    <t>Бетаин (Bet)</t>
+  </si>
+  <si>
+    <t>Холин (Chl)</t>
+  </si>
+  <si>
+    <t>Диметилглицин (DMG)</t>
+  </si>
+  <si>
+    <t>Метионин (Met)</t>
+  </si>
+  <si>
+    <t>Метионин сульфоксид (MetSO)</t>
+  </si>
+  <si>
+    <t>Триметиламин-N-оксид (TMAO)</t>
+  </si>
+  <si>
+    <t>Карнозин (Car)</t>
+  </si>
+  <si>
+    <t>Креатинин (Cr)</t>
+  </si>
+  <si>
+    <t>Симметричный диметиларгинин (SDMA)</t>
+  </si>
+  <si>
+    <t>Карнитин (C0)</t>
+  </si>
+  <si>
+    <t>Деканоилкарнитин (C10)</t>
+  </si>
+  <si>
+    <t>Деценоилкарнитин (C10-1)</t>
+  </si>
+  <si>
+    <t>Декадиеноилкарнитин (C10-2)</t>
+  </si>
+  <si>
+    <t>Додеканоилкарнитин (C12)</t>
+  </si>
+  <si>
+    <t>Додеценоилкарнитин (C12-1)</t>
+  </si>
+  <si>
+    <t>Тетрадеканоилкарнитин (C14)</t>
+  </si>
+  <si>
+    <t>Тетрадеценоилкарнитин (С14-1)</t>
+  </si>
+  <si>
+    <t>Тетрадекадиеноилкарнитин (C14-2)</t>
+  </si>
+  <si>
+    <t>Гидрокситетрадеканоилкарнитин (C14-OH)</t>
+  </si>
+  <si>
+    <t>Пальмитоилкарнитин (C16)</t>
+  </si>
+  <si>
+    <t>Гексадецениолкарнитин (C16-1)</t>
+  </si>
+  <si>
+    <t>Гидроксигексадецениолкарнитин (C16-1-OH)</t>
+  </si>
+  <si>
+    <t>Гидроксигексадеканоилкарнитин (C16-OH)</t>
+  </si>
+  <si>
+    <t>Стеароилкарнитин (С18)</t>
+  </si>
+  <si>
+    <t>Олеоилкарнитин (C18-1)</t>
+  </si>
+  <si>
+    <t>Гидроксиоктадеценоилкарнитин (C18-1-OH)</t>
+  </si>
+  <si>
+    <t>Линолеоилкарнитин (C18-2)</t>
+  </si>
+  <si>
+    <t>Гидроксиоктадеканоилкарнитин (C18-OH)</t>
+  </si>
+  <si>
+    <t>Ацетилкарнитин (C2)</t>
+  </si>
+  <si>
+    <t>Пропионилкарнитин (С3)</t>
+  </si>
+  <si>
+    <t>Бутирилкарнитин (C4)</t>
+  </si>
+  <si>
+    <t>Изовалерилкарнитин (С5)</t>
+  </si>
+  <si>
+    <t>Тиглилкарнитин (C5-1)</t>
+  </si>
+  <si>
+    <t>Глутарилкарнитин (C5-DC)</t>
+  </si>
+  <si>
+    <t>Гидроксиизовалерилкарнитин (C5-OH)</t>
+  </si>
+  <si>
+    <t>Гексаноилкарнитин (C6)</t>
+  </si>
+  <si>
+    <t>Адипоилкарнитин (C6-DC)</t>
+  </si>
+  <si>
+    <t>Октаноилкарнитин (C8)</t>
+  </si>
+  <si>
+    <t>Октеноилкарнитин (C8-1)</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +1995,8 @@
   <dimension ref="A1:FI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FC8" sqref="FC8"/>
+      <pane xSplit="1" topLeftCell="FC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FE12" sqref="FE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2261,7 +2366,7 @@
         <v>106</v>
       </c>
       <c r="DD1" s="2" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="DE1" s="2" t="s">
         <v>107</v>
@@ -4756,289 +4861,289 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K6" t="s">
+        <v>364</v>
+      </c>
+      <c r="L6" t="s">
+        <v>363</v>
+      </c>
+      <c r="M6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N6" t="s">
+        <v>367</v>
+      </c>
+      <c r="O6" t="s">
+        <v>368</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="Q6" t="s">
+        <v>369</v>
+      </c>
+      <c r="R6" t="s">
+        <v>370</v>
+      </c>
+      <c r="S6" t="s">
+        <v>371</v>
+      </c>
+      <c r="T6" t="s">
+        <v>372</v>
+      </c>
+      <c r="U6" t="s">
+        <v>373</v>
+      </c>
+      <c r="V6" t="s">
+        <v>374</v>
+      </c>
+      <c r="W6" t="s">
+        <v>375</v>
+      </c>
+      <c r="X6" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="AB6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ6" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="BA6" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="BC6" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="BD6" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="BE6" t="s">
+        <v>402</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>404</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>405</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>409</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>411</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>412</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>413</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>414</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>415</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>416</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>418</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>419</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>421</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>422</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>423</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>424</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>425</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>426</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>427</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>428</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>429</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>430</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>431</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>432</v>
+      </c>
+      <c r="CJ6" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="CK6" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="CL6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="CM6" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="CN6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="11" t="s">
+      <c r="CO6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="CP6" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="CQ6" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="CR6" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN6" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO6" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP6" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV6" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ6" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA6" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB6" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC6" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD6" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="BE6" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ6" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK6" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="CL6" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="CM6" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="CN6" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="CO6" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="CP6" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="CQ6" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="CR6" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="CS6" s="13" t="s">
         <v>96</v>
@@ -5068,55 +5173,55 @@
         <v>104</v>
       </c>
       <c r="DB6" s="11" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="DC6" s="11" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="DD6" s="11" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="DE6" s="11" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="DF6" s="11" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="DG6" s="11" t="s">
         <v>109</v>
       </c>
       <c r="DH6" s="11" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="DI6" s="14" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="DJ6" s="11" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="DK6" s="11" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="DL6" s="11" t="s">
         <v>114</v>
       </c>
       <c r="DM6" s="11" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="DN6" s="11" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="DO6" s="11" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="DP6" s="11" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="DQ6" s="11" t="s">
         <v>119</v>
       </c>
       <c r="DR6" s="11" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="DS6" s="11" t="s">
         <v>121</v>
@@ -5125,7 +5230,7 @@
         <v>122</v>
       </c>
       <c r="DU6" s="11" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="DV6" s="11" t="s">
         <v>124</v>
@@ -5161,7 +5266,7 @@
         <v>134</v>
       </c>
       <c r="EG6" s="13" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="EH6" s="11" t="s">
         <v>136</v>
@@ -5170,13 +5275,13 @@
         <v>137</v>
       </c>
       <c r="EJ6" s="11" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="EK6" s="11" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="EL6" s="11" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="EM6" s="13" t="s">
         <v>141</v>
@@ -5185,13 +5290,13 @@
         <v>142</v>
       </c>
       <c r="EO6" s="11" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="EP6" s="11" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="EQ6" s="11" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="ER6" s="11" t="s">
         <v>146</v>
@@ -5215,37 +5320,37 @@
         <v>152</v>
       </c>
       <c r="EY6" s="14" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="EZ6" s="14" t="s">
         <v>154</v>
       </c>
       <c r="FA6" s="11" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="FB6" s="11" t="s">
         <v>156</v>
       </c>
       <c r="FC6" s="11" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="FD6" s="11" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="FE6" s="11" t="s">
         <v>159</v>
       </c>
       <c r="FF6" s="11" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="FG6" s="13" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="FH6" s="15" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="FI6" s="15" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5269,27 +5374,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="48" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="49" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B2" s="49">
         <v>93.7</v>
@@ -5309,7 +5414,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="49" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="B3" s="49">
         <v>92.1</v>
@@ -5329,7 +5434,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="49" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="B4" s="49">
         <v>91.8</v>
@@ -5349,7 +5454,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="49" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="B5" s="49">
         <v>90.4</v>
@@ -5369,7 +5474,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="49" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="B6" s="49">
         <v>93.7</v>
@@ -5414,39 +5519,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="22" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>48</v>
@@ -5472,13 +5577,13 @@
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D3" s="33">
         <v>0</v>
@@ -5501,10 +5606,10 @@
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>40</v>
@@ -5530,10 +5635,10 @@
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="27" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>12</v>
@@ -5559,10 +5664,10 @@
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="27" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>8</v>
@@ -5588,10 +5693,10 @@
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="27" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>10</v>
@@ -5617,10 +5722,10 @@
     </row>
     <row r="8" spans="1:9" ht="18">
       <c r="A8" s="27" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>2</v>
@@ -5646,10 +5751,10 @@
     </row>
     <row r="9" spans="1:9" ht="18">
       <c r="A9" s="27" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>56</v>
@@ -5675,10 +5780,10 @@
     </row>
     <row r="10" spans="1:9" ht="18">
       <c r="A10" s="27" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>97</v>
@@ -5704,10 +5809,10 @@
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="27" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>98</v>
@@ -5733,10 +5838,10 @@
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="27" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>57</v>
@@ -5762,10 +5867,10 @@
     </row>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="27" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>76</v>
@@ -5791,10 +5896,10 @@
     </row>
     <row r="14" spans="1:9" ht="18">
       <c r="A14" s="27" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>109</v>
@@ -5820,10 +5925,10 @@
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="27" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>99</v>
@@ -5849,10 +5954,10 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="27" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>51</v>
@@ -5878,10 +5983,10 @@
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="27" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>20</v>
@@ -5907,10 +6012,10 @@
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="27" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>15</v>
@@ -5936,10 +6041,10 @@
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="27" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>42</v>
@@ -5965,10 +6070,10 @@
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="27" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>33</v>
@@ -5994,10 +6099,10 @@
     </row>
     <row r="21" spans="1:9" ht="18">
       <c r="A21" s="27" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>4</v>
@@ -6023,10 +6128,10 @@
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="27" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>88</v>
@@ -6052,10 +6157,10 @@
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="A23" s="27" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>52</v>
@@ -6081,10 +6186,10 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="27" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>91</v>
@@ -6110,13 +6215,13 @@
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="27" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D25" s="33">
         <v>0</v>
@@ -6139,10 +6244,10 @@
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="27" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>8</v>
@@ -6168,10 +6273,10 @@
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="27" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>12</v>
@@ -6197,10 +6302,10 @@
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="27" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>11</v>
@@ -6226,10 +6331,10 @@
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="27" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>21</v>
@@ -6255,10 +6360,10 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="27" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>22</v>
@@ -6284,10 +6389,10 @@
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="27" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>10</v>
@@ -6313,10 +6418,10 @@
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="27" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>94</v>
@@ -6342,13 +6447,13 @@
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="27" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D33" s="29">
         <v>1</v>
@@ -6371,10 +6476,10 @@
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="27" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>94</v>
@@ -6400,10 +6505,10 @@
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="27" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>110</v>
@@ -6429,13 +6534,13 @@
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="27" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D36" s="29">
         <v>1</v>
@@ -6458,10 +6563,10 @@
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>48</v>
@@ -6487,10 +6592,10 @@
     </row>
     <row r="38" spans="1:9" ht="18">
       <c r="A38" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>40</v>
@@ -6516,10 +6621,10 @@
     </row>
     <row r="39" spans="1:9" ht="18">
       <c r="A39" s="27" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>96</v>
@@ -6545,10 +6650,10 @@
     </row>
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="27" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>97</v>
@@ -6574,10 +6679,10 @@
     </row>
     <row r="41" spans="1:9" ht="18">
       <c r="A41" s="27" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>15</v>
@@ -6603,10 +6708,10 @@
     </row>
     <row r="42" spans="1:9" ht="18">
       <c r="A42" s="27" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>20</v>
@@ -6632,10 +6737,10 @@
     </row>
     <row r="43" spans="1:9" ht="18">
       <c r="A43" s="27" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>51</v>
@@ -6661,10 +6766,10 @@
     </row>
     <row r="44" spans="1:9" ht="18">
       <c r="A44" s="27" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>2</v>
@@ -6690,10 +6795,10 @@
     </row>
     <row r="45" spans="1:9" ht="18">
       <c r="A45" s="27" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>49</v>
@@ -6719,10 +6824,10 @@
     </row>
     <row r="46" spans="1:9" ht="18">
       <c r="A46" s="27" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>94</v>
@@ -6748,10 +6853,10 @@
     </row>
     <row r="47" spans="1:9" ht="18">
       <c r="A47" s="27" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>110</v>
@@ -6777,13 +6882,13 @@
     </row>
     <row r="48" spans="1:9" ht="18">
       <c r="A48" s="27" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D48" s="29">
         <v>1</v>
@@ -6806,10 +6911,10 @@
     </row>
     <row r="49" spans="1:9" ht="18">
       <c r="A49" s="27" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>20</v>
@@ -6835,10 +6940,10 @@
     </row>
     <row r="50" spans="1:9" ht="18">
       <c r="A50" s="27" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>6</v>
@@ -6864,10 +6969,10 @@
     </row>
     <row r="51" spans="1:9" ht="18">
       <c r="A51" s="27" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>8</v>
@@ -6893,10 +6998,10 @@
     </row>
     <row r="52" spans="1:9" ht="18">
       <c r="A52" s="27" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>51</v>
@@ -6922,10 +7027,10 @@
     </row>
     <row r="53" spans="1:9" ht="18">
       <c r="A53" s="27" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>2</v>
@@ -6951,10 +7056,10 @@
     </row>
     <row r="54" spans="1:9" ht="18">
       <c r="A54" s="27" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>18</v>
@@ -6980,10 +7085,10 @@
     </row>
     <row r="55" spans="1:9" ht="18">
       <c r="A55" s="27" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>8</v>
@@ -7009,10 +7114,10 @@
     </row>
     <row r="56" spans="1:9" ht="18">
       <c r="A56" s="27" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>17</v>
@@ -7038,10 +7143,10 @@
     </row>
     <row r="57" spans="1:9" ht="18">
       <c r="A57" s="27" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>5</v>
@@ -7067,10 +7172,10 @@
     </row>
     <row r="58" spans="1:9" ht="18">
       <c r="A58" s="27" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>4</v>
@@ -7096,10 +7201,10 @@
     </row>
     <row r="59" spans="1:9" ht="18">
       <c r="A59" s="27" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>48</v>
@@ -7123,10 +7228,10 @@
     </row>
     <row r="60" spans="1:9" ht="18">
       <c r="A60" s="27" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>40</v>
@@ -7152,10 +7257,10 @@
     </row>
     <row r="61" spans="1:9" ht="18">
       <c r="A61" s="27" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>56</v>
@@ -7181,10 +7286,10 @@
     </row>
     <row r="62" spans="1:9" ht="18">
       <c r="A62" s="27" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>57</v>
@@ -7210,10 +7315,10 @@
     </row>
     <row r="63" spans="1:9" ht="18">
       <c r="A63" s="27" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>76</v>
@@ -7239,10 +7344,10 @@
     </row>
     <row r="64" spans="1:9" ht="18">
       <c r="A64" s="27" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>109</v>
@@ -7268,10 +7373,10 @@
     </row>
     <row r="65" spans="1:9" ht="18">
       <c r="A65" s="27" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>99</v>
@@ -7297,10 +7402,10 @@
     </row>
     <row r="66" spans="1:9" ht="18">
       <c r="A66" s="27" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>96</v>
@@ -7326,10 +7431,10 @@
     </row>
     <row r="67" spans="1:9" ht="18">
       <c r="A67" s="27" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>97</v>
@@ -7355,10 +7460,10 @@
     </row>
     <row r="68" spans="1:9" ht="18">
       <c r="A68" s="27" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>98</v>
@@ -7384,10 +7489,10 @@
     </row>
     <row r="69" spans="1:9" ht="18">
       <c r="A69" s="27" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>48</v>
@@ -7413,10 +7518,10 @@
     </row>
     <row r="70" spans="1:9" ht="18">
       <c r="A70" s="27" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>18</v>
@@ -7442,10 +7547,10 @@
     </row>
     <row r="71" spans="1:9" ht="18">
       <c r="A71" s="27" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>55</v>
@@ -7471,10 +7576,10 @@
     </row>
     <row r="72" spans="1:9" ht="18">
       <c r="A72" s="27" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>91</v>
@@ -7500,10 +7605,10 @@
     </row>
     <row r="73" spans="1:9" ht="18">
       <c r="A73" s="27" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>54</v>
@@ -7529,10 +7634,10 @@
     </row>
     <row r="74" spans="1:9" ht="18">
       <c r="A74" s="27" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>14</v>
@@ -7558,10 +7663,10 @@
     </row>
     <row r="75" spans="1:9" ht="18">
       <c r="A75" s="27" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>111</v>
@@ -7587,10 +7692,10 @@
     </row>
     <row r="76" spans="1:9" ht="18">
       <c r="A76" s="27" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>47</v>
@@ -7616,10 +7721,10 @@
     </row>
     <row r="77" spans="1:9" ht="18">
       <c r="A77" s="27" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C77" s="29" t="s">
         <v>48</v>
@@ -7645,10 +7750,10 @@
     </row>
     <row r="78" spans="1:9" ht="18">
       <c r="A78" s="27" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>95</v>
@@ -7674,10 +7779,10 @@
     </row>
     <row r="79" spans="1:9" ht="18">
       <c r="A79" s="27" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C79" s="29" t="s">
         <v>18</v>
@@ -7703,10 +7808,10 @@
     </row>
     <row r="80" spans="1:9" ht="18">
       <c r="A80" s="27" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>110</v>
@@ -7732,10 +7837,10 @@
     </row>
     <row r="81" spans="1:9" ht="18">
       <c r="A81" s="27" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>120</v>
@@ -7761,10 +7866,10 @@
     </row>
     <row r="82" spans="1:9" ht="18">
       <c r="A82" s="27" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>76</v>
@@ -7790,10 +7895,10 @@
     </row>
     <row r="83" spans="1:9" ht="18">
       <c r="A83" s="27" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>42</v>
@@ -7819,10 +7924,10 @@
     </row>
     <row r="84" spans="1:9" ht="18">
       <c r="A84" s="27" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>22</v>
@@ -7848,10 +7953,10 @@
     </row>
     <row r="85" spans="1:9" ht="18">
       <c r="A85" s="27" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>94</v>
@@ -7877,10 +7982,10 @@
     </row>
     <row r="86" spans="1:9" ht="18">
       <c r="A86" s="27" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C86" s="29" t="s">
         <v>18</v>
@@ -7906,13 +8011,13 @@
     </row>
     <row r="87" spans="1:9" ht="18">
       <c r="A87" s="27" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D87" s="29">
         <v>1</v>
@@ -7935,10 +8040,10 @@
     </row>
     <row r="88" spans="1:9" ht="18">
       <c r="A88" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C88" s="29" t="s">
         <v>48</v>
@@ -7964,10 +8069,10 @@
     </row>
     <row r="89" spans="1:9" ht="18">
       <c r="A89" s="27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>114</v>
@@ -7993,10 +8098,10 @@
     </row>
     <row r="90" spans="1:9" ht="18">
       <c r="A90" s="27" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>95</v>
@@ -8022,10 +8127,10 @@
     </row>
     <row r="91" spans="1:9" ht="18">
       <c r="A91" s="27" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>115</v>
@@ -8051,10 +8156,10 @@
     </row>
     <row r="92" spans="1:9" ht="18">
       <c r="A92" s="27" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>10</v>
@@ -8080,10 +8185,10 @@
     </row>
     <row r="93" spans="1:9" ht="18">
       <c r="A93" s="27" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>12</v>
@@ -8109,10 +8214,10 @@
     </row>
     <row r="94" spans="1:9" ht="18">
       <c r="A94" s="27" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>8</v>
@@ -8138,10 +8243,10 @@
     </row>
     <row r="95" spans="1:9" ht="18">
       <c r="A95" s="27" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>91</v>
@@ -8167,10 +8272,10 @@
     </row>
     <row r="96" spans="1:9" ht="18">
       <c r="A96" s="27" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>20</v>
@@ -8196,10 +8301,10 @@
     </row>
     <row r="97" spans="1:9" ht="18">
       <c r="A97" s="27" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C97" s="41" t="s">
         <v>21</v>
@@ -8225,10 +8330,10 @@
     </row>
     <row r="98" spans="1:9" ht="18">
       <c r="A98" s="27" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>15</v>
@@ -8386,10 +8491,10 @@
   <sheetData>
     <row r="1" spans="1:166">
       <c r="A1" s="51" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>1</v>
@@ -8710,7 +8815,7 @@
         <v>106</v>
       </c>
       <c r="DE1" s="51" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="DF1" s="51" t="s">
         <v>107</v>
@@ -8886,10 +8991,10 @@
     </row>
     <row r="2" spans="1:166" ht="15.6">
       <c r="A2" s="50" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C2" s="50">
         <v>0.11170740773016183</v>
@@ -9388,10 +9493,10 @@
     </row>
     <row r="3" spans="1:166" ht="15.6">
       <c r="A3" s="50" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C3" s="50">
         <v>6.3228645007263856E-2</v>
@@ -9890,10 +9995,10 @@
     </row>
     <row r="4" spans="1:166" ht="15.6">
       <c r="A4" s="50" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C4" s="50">
         <v>0.10636939054225673</v>
@@ -10392,10 +10497,10 @@
     </row>
     <row r="5" spans="1:166" ht="15.6">
       <c r="A5" s="50" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C5" s="50">
         <v>0.1461566504185623</v>
@@ -10894,10 +10999,10 @@
     </row>
     <row r="6" spans="1:166" ht="15.6">
       <c r="A6" s="50" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C6" s="50">
         <v>0.12043559926698584</v>
@@ -11396,10 +11501,10 @@
     </row>
     <row r="7" spans="1:166" ht="15.6">
       <c r="A7" s="50" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C7" s="50">
         <v>5.443753888220583E-2</v>
@@ -11898,10 +12003,10 @@
     </row>
     <row r="8" spans="1:166" ht="15.6">
       <c r="A8" s="50" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C8" s="50">
         <v>0.17510680398775119</v>
@@ -12400,10 +12505,10 @@
     </row>
     <row r="9" spans="1:166" ht="15.6">
       <c r="A9" s="50" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C9" s="50">
         <v>0.10527742596547907</v>
@@ -12902,10 +13007,10 @@
     </row>
     <row r="10" spans="1:166" ht="15.6">
       <c r="A10" s="50" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C10" s="50">
         <v>9.6046310784620142E-2</v>
@@ -13404,10 +13509,10 @@
     </row>
     <row r="11" spans="1:166" ht="15.6">
       <c r="A11" s="50" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C11" s="50">
         <v>0.11778898006790711</v>
@@ -13906,10 +14011,10 @@
     </row>
     <row r="12" spans="1:166" ht="15.6">
       <c r="A12" s="50" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C12" s="50">
         <v>0.13596736298054929</v>
@@ -14408,10 +14513,10 @@
     </row>
     <row r="13" spans="1:166" ht="15.6">
       <c r="A13" s="50" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C13" s="50">
         <v>0.21902021475901565</v>
@@ -14910,10 +15015,10 @@
     </row>
     <row r="14" spans="1:166" ht="15.6">
       <c r="A14" s="50" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C14" s="50">
         <v>9.8741557137914771E-2</v>
@@ -15412,10 +15517,10 @@
     </row>
     <row r="15" spans="1:166" ht="15.6">
       <c r="A15" s="50" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C15" s="50">
         <v>0.11372400316099249</v>
@@ -15914,10 +16019,10 @@
     </row>
     <row r="16" spans="1:166" ht="15.6">
       <c r="A16" s="50" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C16" s="50">
         <v>9.628698969422804E-2</v>
@@ -16416,10 +16521,10 @@
     </row>
     <row r="17" spans="1:166" ht="15.6">
       <c r="A17" s="50" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C17" s="50">
         <v>0.1100956732486822</v>
@@ -16918,10 +17023,10 @@
     </row>
     <row r="18" spans="1:166" ht="15.6">
       <c r="A18" s="50" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C18" s="50">
         <v>0.15091731358750016</v>
@@ -17420,10 +17525,10 @@
     </row>
     <row r="19" spans="1:166" ht="15.6">
       <c r="A19" s="50" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C19" s="50">
         <v>0.15634917240727847</v>
@@ -17922,10 +18027,10 @@
     </row>
     <row r="20" spans="1:166" ht="15.6">
       <c r="A20" s="50" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C20" s="50">
         <v>0.26466963572319374</v>
@@ -18424,10 +18529,10 @@
     </row>
     <row r="21" spans="1:166" ht="15.6">
       <c r="A21" s="50" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C21" s="50">
         <v>0.14356805683774243</v>
@@ -18926,10 +19031,10 @@
     </row>
     <row r="22" spans="1:166" ht="15.6">
       <c r="A22" s="50" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C22" s="50">
         <v>0.12027504255172759</v>
@@ -19428,10 +19533,10 @@
     </row>
     <row r="23" spans="1:166" ht="15.6">
       <c r="A23" s="50" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C23" s="50">
         <v>0.11617150229872404</v>
@@ -19930,10 +20035,10 @@
     </row>
     <row r="24" spans="1:166" ht="15.6">
       <c r="A24" s="50" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C24" s="50">
         <v>0.10819057311318168</v>
@@ -20432,10 +20537,10 @@
     </row>
     <row r="25" spans="1:166" ht="15.6">
       <c r="A25" s="50" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C25" s="50">
         <v>0.14061251239896741</v>
@@ -20934,10 +21039,10 @@
     </row>
     <row r="26" spans="1:166" ht="15.6">
       <c r="A26" s="50" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C26" s="50">
         <v>0.14427494166901061</v>
@@ -21436,10 +21541,10 @@
     </row>
     <row r="27" spans="1:166" ht="15.6">
       <c r="A27" s="50" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C27" s="50">
         <v>0.15470809467981528</v>
@@ -21938,10 +22043,10 @@
     </row>
     <row r="28" spans="1:166" ht="15.6">
       <c r="A28" s="50" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C28" s="50">
         <v>0.12570280552655935</v>
@@ -22440,10 +22545,10 @@
     </row>
     <row r="29" spans="1:166" ht="15.6">
       <c r="A29" s="50" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C29" s="50">
         <v>9.9351267577107868E-2</v>
@@ -22942,10 +23047,10 @@
     </row>
     <row r="30" spans="1:166" ht="15.6">
       <c r="A30" s="50" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C30" s="50">
         <v>0.11709383964483638</v>
@@ -23444,10 +23549,10 @@
     </row>
     <row r="31" spans="1:166" ht="15.6">
       <c r="A31" s="50" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C31" s="50">
         <v>0.14944495877423042</v>
@@ -23946,10 +24051,10 @@
     </row>
     <row r="32" spans="1:166" ht="15.6">
       <c r="A32" s="50" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C32" s="50">
         <v>0.16638250516345557</v>
@@ -24448,10 +24553,10 @@
     </row>
     <row r="33" spans="1:166" ht="15.6">
       <c r="A33" s="50" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C33" s="50">
         <v>0.17183964013669092</v>
@@ -24950,10 +25055,10 @@
     </row>
     <row r="34" spans="1:166" ht="15.6">
       <c r="A34" s="50" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C34" s="50">
         <v>9.9999638616400793E-2</v>
@@ -25452,10 +25557,10 @@
     </row>
     <row r="35" spans="1:166" ht="15.6">
       <c r="A35" s="50" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C35" s="50">
         <v>0.12736876385388857</v>
@@ -25954,10 +26059,10 @@
     </row>
     <row r="36" spans="1:166" ht="15.6">
       <c r="A36" s="50" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C36" s="50">
         <v>7.9712871637648827E-2</v>
@@ -26456,10 +26561,10 @@
     </row>
     <row r="37" spans="1:166" ht="15.6">
       <c r="A37" s="50" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C37" s="50">
         <v>0.13730604156633705</v>
@@ -26958,10 +27063,10 @@
     </row>
     <row r="38" spans="1:166" ht="15.6">
       <c r="A38" s="50" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C38" s="50">
         <v>0.1114143423882511</v>
@@ -27460,10 +27565,10 @@
     </row>
     <row r="39" spans="1:166" ht="15.6">
       <c r="A39" s="50" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C39" s="50">
         <v>0.12258852511297573</v>
@@ -27962,10 +28067,10 @@
     </row>
     <row r="40" spans="1:166" ht="15.6">
       <c r="A40" s="50" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C40" s="50">
         <v>9.1960364772645284E-2</v>
@@ -28464,10 +28569,10 @@
     </row>
     <row r="41" spans="1:166" ht="15.6">
       <c r="A41" s="50" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C41" s="50">
         <v>0.15016922306544853</v>
@@ -28966,10 +29071,10 @@
     </row>
     <row r="42" spans="1:166" ht="15.6">
       <c r="A42" s="50" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C42" s="50">
         <v>0.13206722782078495</v>
@@ -29468,10 +29573,10 @@
     </row>
     <row r="43" spans="1:166" ht="15.6">
       <c r="A43" s="50" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C43" s="50">
         <v>0.16095009969464044</v>
@@ -29970,10 +30075,10 @@
     </row>
     <row r="44" spans="1:166" ht="15.6">
       <c r="A44" s="50" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C44" s="50">
         <v>0.13421604403236001</v>
@@ -30472,10 +30577,10 @@
     </row>
     <row r="45" spans="1:166" ht="15.6">
       <c r="A45" s="50" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C45" s="50">
         <v>0.12680797744472594</v>
@@ -30974,10 +31079,10 @@
     </row>
     <row r="46" spans="1:166" ht="15.6">
       <c r="A46" s="50" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C46" s="50">
         <v>9.2254291122886384E-2</v>
@@ -31476,10 +31581,10 @@
     </row>
     <row r="47" spans="1:166" ht="15.6">
       <c r="A47" s="50" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C47" s="50">
         <v>0.1316438116461901</v>
@@ -31978,10 +32083,10 @@
     </row>
     <row r="48" spans="1:166" ht="15.6">
       <c r="A48" s="50" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C48" s="50">
         <v>0.10983066086961674</v>
@@ -32480,10 +32585,10 @@
     </row>
     <row r="49" spans="1:166" ht="15.6">
       <c r="A49" s="50" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C49" s="50">
         <v>0.16568871808072991</v>
@@ -32982,10 +33087,10 @@
     </row>
     <row r="50" spans="1:166" ht="15.6">
       <c r="A50" s="50" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C50" s="50">
         <v>0.12852349194599791</v>
@@ -33484,10 +33589,10 @@
     </row>
     <row r="51" spans="1:166" ht="15.6">
       <c r="A51" s="50" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C51" s="50">
         <v>0.12463980802036866</v>
@@ -33986,10 +34091,10 @@
     </row>
     <row r="52" spans="1:166" ht="15.6">
       <c r="A52" s="50" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C52" s="50">
         <v>0.10184789635679652</v>
@@ -34488,10 +34593,10 @@
     </row>
     <row r="53" spans="1:166" ht="15.6">
       <c r="A53" s="50" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C53" s="50">
         <v>0.14738836055623325</v>
@@ -34990,10 +35095,10 @@
     </row>
     <row r="54" spans="1:166" ht="15.6">
       <c r="A54" s="50" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C54" s="50">
         <v>0.14637778882801292</v>
@@ -35492,10 +35597,10 @@
     </row>
     <row r="55" spans="1:166" ht="15.6">
       <c r="A55" s="50" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C55" s="50">
         <v>0.15758282427497819</v>
@@ -35994,10 +36099,10 @@
     </row>
     <row r="56" spans="1:166" ht="15.6">
       <c r="A56" s="50" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C56" s="50">
         <v>0.16040543911079896</v>
@@ -36496,10 +36601,10 @@
     </row>
     <row r="57" spans="1:166" ht="15.6">
       <c r="A57" s="50" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C57" s="50">
         <v>0.17683485346003747</v>
@@ -36998,10 +37103,10 @@
     </row>
     <row r="58" spans="1:166" ht="15.6">
       <c r="A58" s="50" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C58" s="50">
         <v>0.31378757147679348</v>
@@ -37500,10 +37605,10 @@
     </row>
     <row r="59" spans="1:166" ht="15.6">
       <c r="A59" s="50" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C59" s="50">
         <v>0.19166009028142042</v>
@@ -38002,10 +38107,10 @@
     </row>
     <row r="60" spans="1:166" ht="15.6">
       <c r="A60" s="50" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C60" s="50">
         <v>5.8178703950426104E-2</v>
@@ -38504,10 +38609,10 @@
     </row>
     <row r="61" spans="1:166" ht="15.6">
       <c r="A61" s="50" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C61" s="50">
         <v>0.17782348965585196</v>
@@ -39006,10 +39111,10 @@
     </row>
     <row r="62" spans="1:166" ht="15.6">
       <c r="A62" s="50" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C62" s="50">
         <v>9.8477549993772506E-2</v>
@@ -39508,10 +39613,10 @@
     </row>
     <row r="63" spans="1:166" ht="15.6">
       <c r="A63" s="50" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C63" s="50">
         <v>0.11571392574598803</v>
@@ -40010,10 +40115,10 @@
     </row>
     <row r="64" spans="1:166" ht="15.6">
       <c r="A64" s="50" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C64" s="50">
         <v>0.11417833301723149</v>
@@ -40512,10 +40617,10 @@
     </row>
     <row r="65" spans="1:166" ht="15.6">
       <c r="A65" s="50" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C65" s="50">
         <v>0.10034903675451509</v>
@@ -41014,10 +41119,10 @@
     </row>
     <row r="66" spans="1:166" ht="15.6">
       <c r="A66" s="50" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C66" s="50">
         <v>0.16826182143477877</v>
@@ -41516,10 +41621,10 @@
     </row>
     <row r="67" spans="1:166" ht="15.6">
       <c r="A67" s="50" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C67" s="50">
         <v>0.13844840120575497</v>
@@ -42018,10 +42123,10 @@
     </row>
     <row r="68" spans="1:166" ht="15.6">
       <c r="A68" s="50" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="C68" s="50">
         <v>0.16291431512100477</v>

--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaboApp-main\REPORT_METABOSCAN_FIMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF14604-9271-4753-9DD8-4498DDC5CBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBDAFB-9E1F-4239-A9A2-5B665E257FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref_stats" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics_ml_models" sheetId="2" r:id="rId2"/>
-    <sheet name="Params_metaboscan" sheetId="3" r:id="rId3"/>
+    <sheet name="Params_metaboscan" sheetId="3" r:id="rId2"/>
+    <sheet name="metrics_ml_models" sheetId="2" r:id="rId3"/>
     <sheet name="Controls" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="455">
   <si>
     <t>Код</t>
   </si>
@@ -747,147 +747,21 @@
     <t>Маркер / Соотношение</t>
   </si>
   <si>
-    <t>Группа_метаб</t>
-  </si>
-  <si>
     <t>веса</t>
   </si>
   <si>
-    <t>norm_1</t>
-  </si>
-  <si>
-    <t>norm_2</t>
-  </si>
-  <si>
-    <t>High_risk_1</t>
-  </si>
-  <si>
-    <t>High_risk_2</t>
-  </si>
-  <si>
-    <t>Оксидативный стресс</t>
-  </si>
-  <si>
-    <t>Резистентность к стрессорам</t>
-  </si>
-  <si>
-    <t>Воспаление и микробный стресс</t>
-  </si>
-  <si>
-    <t>Азотистые токсины</t>
-  </si>
-  <si>
-    <t>Липидные токсины / окс. стресс</t>
-  </si>
-  <si>
-    <t>Энергетический обмен</t>
-  </si>
-  <si>
     <t>Метаболическая адаптация и стрессоустойчивость</t>
   </si>
   <si>
-    <t>Нейро-адаптация</t>
-  </si>
-  <si>
-    <t>Стресс-аминокислоты</t>
-  </si>
-  <si>
-    <t>Митохондрии и креатин</t>
-  </si>
-  <si>
-    <t>Глутамат-глутаминовая ось</t>
-  </si>
-  <si>
-    <t>Метаболизм триптофана</t>
-  </si>
-  <si>
     <t>Статус микробиоты</t>
   </si>
   <si>
-    <t>Воспаление и иммунитет</t>
-  </si>
-  <si>
-    <t>Триптофан / воспаление</t>
-  </si>
-  <si>
-    <t>Темп биологического старения</t>
-  </si>
-  <si>
-    <t>Митохондриальные показатели</t>
-  </si>
-  <si>
-    <t>Нейроэндокринная ось</t>
-  </si>
-  <si>
-    <t>Интегративные индексы</t>
-  </si>
-  <si>
-    <t>IDO-путь / триптофан</t>
-  </si>
-  <si>
-    <t>Нейромедиаторы</t>
-  </si>
-  <si>
-    <t>Индолы и фенолы</t>
-  </si>
-  <si>
-    <t>Общий стресс / иммунитет</t>
-  </si>
-  <si>
-    <t>Комплексный индекс</t>
-  </si>
-  <si>
     <t>Метаболическая детоксикация</t>
   </si>
   <si>
-    <t>Аммиачная детоксикация</t>
-  </si>
-  <si>
-    <t>Оксидативная нагрузка</t>
-  </si>
-  <si>
-    <t>Энергетический обмен (карнитиновый цикл)</t>
-  </si>
-  <si>
     <t>Здоровье митохондрий</t>
   </si>
   <si>
-    <t>β-окисление / жирные кислоты</t>
-  </si>
-  <si>
-    <t>Антиоксидантная защита</t>
-  </si>
-  <si>
-    <t>Митохондриальная нейросвязь</t>
-  </si>
-  <si>
-    <t>Витамин B2 (рибофлавин)</t>
-  </si>
-  <si>
-    <t>Витаминный статус</t>
-  </si>
-  <si>
-    <t>Витамин B5 (пантотенат)</t>
-  </si>
-  <si>
-    <t>Витамин B6</t>
-  </si>
-  <si>
-    <t>Витамин B9 / B12</t>
-  </si>
-  <si>
-    <t>Витамин B3 / NAD+</t>
-  </si>
-  <si>
-    <t>Серосодержащие АК</t>
-  </si>
-  <si>
-    <t>Энергетический баланс</t>
-  </si>
-  <si>
-    <t>Нейротрофный резерв</t>
-  </si>
-  <si>
     <t>Оценка пролиферативных процессов</t>
   </si>
   <si>
@@ -1293,9 +1167,6 @@
     <t>Сумма ACs/C0</t>
   </si>
   <si>
-    <t>ADMA/(Adenosin + Arg)</t>
-  </si>
-  <si>
     <t>SDMA / Arg</t>
   </si>
   <si>
@@ -1459,13 +1330,82 @@
   </si>
   <si>
     <t>С5</t>
+  </si>
+  <si>
+    <t>ADMA/(A + Arg)</t>
+  </si>
+  <si>
+    <t>ADMA/(Аденозин + Аргинин)</t>
+  </si>
+  <si>
+    <t>Фаза I и II детоксикации</t>
+  </si>
+  <si>
+    <t>Глутатион- зависимые процессы и конъюгация</t>
+  </si>
+  <si>
+    <t>Гормоны и нейромедиаторы стресс-адаптации</t>
+  </si>
+  <si>
+    <t>Прямые микробные метаболиты кишечника</t>
+  </si>
+  <si>
+    <t>Косвенные маркеры, связанные с микрофлорой</t>
+  </si>
+  <si>
+    <t>Цикл Кребса и баланс аминокислот</t>
+  </si>
+  <si>
+    <t>Метаболиты триптофана (кинурениновый путь)</t>
+  </si>
+  <si>
+    <t>Микробиотные индольные метаболиты</t>
+  </si>
+  <si>
+    <t>Другие</t>
+  </si>
+  <si>
+    <t>Энергообеспечение и выносливость</t>
+  </si>
+  <si>
+    <t>Аминокислоты иммунного ответа</t>
+  </si>
+  <si>
+    <t>Косвенные маркеры детоксикации</t>
+  </si>
+  <si>
+    <t>Цикл мочевины и выведение аммиака</t>
+  </si>
+  <si>
+    <t>Глюкогенные аминокислоты</t>
+  </si>
+  <si>
+    <t>Маркеры функции печени</t>
+  </si>
+  <si>
+    <t>Кофакторы митохондрий: витамины и энергетические молекулы</t>
+  </si>
+  <si>
+    <t>Короткоцепочечные ацилкарнитины</t>
+  </si>
+  <si>
+    <t>Воспаление и иммунная активация</t>
+  </si>
+  <si>
+    <t>Гомеостаз, защита и восстановление</t>
+  </si>
+  <si>
+    <t>Средне- и длинноцепочечные ацилкарнитины</t>
+  </si>
+  <si>
+    <t>Антиоксидантная система</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,28 +1441,9 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F5597"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1556,28 +1477,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1591,22 +1512,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1642,39 +1571,37 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1707,126 +1634,21 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1835,47 +1657,67 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2185,550 +2027,550 @@
   <dimension ref="A1:FI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT2" sqref="BT2"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="30" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="41" max="87" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="89" max="92" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="94" max="103" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="105" max="112" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="114" max="121" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="123" max="132" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="134" max="142" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="9.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="144" max="163" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="41" max="87" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="89" max="92" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="94" max="103" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="105" max="112" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="114" max="121" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="123" max="132" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="134" max="142" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="144" max="163" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:165" ht="19.5" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AE1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="56" t="s">
+      <c r="AF1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="56" t="s">
+      <c r="AG1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="56" t="s">
+      <c r="AH1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="56" t="s">
+      <c r="AI1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="57" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="56" t="s">
+      <c r="AK1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="56" t="s">
+      <c r="AL1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="57" t="s">
+      <c r="AM1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="57" t="s">
+      <c r="AN1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="56" t="s">
+      <c r="AO1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="56" t="s">
+      <c r="AP1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="56" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="56" t="s">
+      <c r="AR1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="56" t="s">
+      <c r="AS1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="56" t="s">
+      <c r="AU1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" s="56" t="s">
+      <c r="AV1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="56" t="s">
+      <c r="AW1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="56" t="s">
+      <c r="AX1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="56" t="s">
+      <c r="AY1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="56" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="56" t="s">
+      <c r="BA1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="56" t="s">
+      <c r="BB1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" s="56" t="s">
+      <c r="BC1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" s="56" t="s">
+      <c r="BD1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="56" t="s">
+      <c r="BE1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" s="56" t="s">
+      <c r="BF1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="56" t="s">
+      <c r="BG1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="56" t="s">
+      <c r="BH1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" s="56" t="s">
+      <c r="BI1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="56" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="BK1" s="56" t="s">
+      <c r="BK1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="56" t="s">
+      <c r="BL1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" s="56" t="s">
+      <c r="BM1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" s="56" t="s">
+      <c r="BN1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" s="56" t="s">
+      <c r="BO1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BP1" s="56" t="s">
+      <c r="BP1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" s="56" t="s">
+      <c r="BQ1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BR1" s="56" t="s">
+      <c r="BR1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="56" t="s">
+      <c r="BS1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="56" t="s">
+      <c r="BT1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BU1" s="56" t="s">
+      <c r="BU1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" s="56" t="s">
+      <c r="BV1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" s="56" t="s">
+      <c r="BW1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="BX1" s="56" t="s">
+      <c r="BX1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" s="56" t="s">
+      <c r="BY1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" s="56" t="s">
+      <c r="BZ1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" s="56" t="s">
+      <c r="CA1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="56" t="s">
+      <c r="CB1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="CC1" s="56" t="s">
+      <c r="CC1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="CD1" s="56" t="s">
+      <c r="CD1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CE1" s="56" t="s">
+      <c r="CE1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="CF1" s="56" t="s">
+      <c r="CF1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="CG1" s="56" t="s">
+      <c r="CG1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="CH1" s="56" t="s">
+      <c r="CH1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="CI1" s="56" t="s">
+      <c r="CI1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="CJ1" s="57" t="s">
+      <c r="CJ1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="CK1" s="56" t="s">
+      <c r="CK1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="CL1" s="56" t="s">
+      <c r="CL1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="CM1" s="56" t="s">
+      <c r="CM1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="CN1" s="56" t="s">
+      <c r="CN1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="CO1" s="56" t="s">
+      <c r="CO1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="CP1" s="56" t="s">
+      <c r="CP1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="CQ1" s="56" t="s">
+      <c r="CQ1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="CR1" s="56" t="s">
+      <c r="CR1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="CS1" s="56" t="s">
+      <c r="CS1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="CT1" s="56" t="s">
+      <c r="CT1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="CU1" s="56" t="s">
+      <c r="CU1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="CV1" s="56" t="s">
+      <c r="CV1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="CW1" s="56" t="s">
+      <c r="CW1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="CX1" s="56" t="s">
+      <c r="CX1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="CY1" s="56" t="s">
+      <c r="CY1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="CZ1" s="57" t="s">
+      <c r="CZ1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="DA1" s="56" t="s">
+      <c r="DA1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="DB1" s="56" t="s">
+      <c r="DB1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="DC1" s="56" t="s">
+      <c r="DC1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="DD1" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="DE1" s="56" t="s">
+      <c r="DD1" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="DE1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DF1" s="56" t="s">
+      <c r="DF1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DG1" s="56" t="s">
+      <c r="DG1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DH1" s="56" t="s">
+      <c r="DH1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="DI1" s="56" t="s">
+      <c r="DI1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DJ1" s="56" t="s">
+      <c r="DJ1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="DK1" s="56" t="s">
+      <c r="DK1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DL1" s="56" t="s">
+      <c r="DL1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="DM1" s="56" t="s">
+      <c r="DM1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DN1" s="56" t="s">
+      <c r="DN1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DO1" s="56" t="s">
+      <c r="DO1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DP1" s="56" t="s">
+      <c r="DP1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ1" s="56" t="s">
+      <c r="DQ1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DR1" s="57" t="s">
+      <c r="DR1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="DS1" s="56" t="s">
+      <c r="DS1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DT1" s="56" t="s">
+      <c r="DT1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DU1" s="56" t="s">
+      <c r="DU1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DV1" s="56" t="s">
+      <c r="DV1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="DW1" s="56" t="s">
+      <c r="DW1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="DX1" s="56" t="s">
+      <c r="DX1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="DY1" s="56" t="s">
+      <c r="DY1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="DZ1" s="56" t="s">
+      <c r="DZ1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="EA1" s="56" t="s">
+      <c r="EA1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="EB1" s="56" t="s">
+      <c r="EB1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="EC1" s="57" t="s">
+      <c r="EC1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="ED1" s="56" t="s">
+      <c r="ED1" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="EE1" s="56" t="s">
+      <c r="EE1" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="EF1" s="56" t="s">
+      <c r="EF1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="EG1" s="56" t="s">
+      <c r="EG1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="EH1" s="56" t="s">
+      <c r="EH1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="EI1" s="56" t="s">
+      <c r="EI1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="EJ1" s="56" t="s">
+      <c r="EJ1" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="EK1" s="56" t="s">
+      <c r="EK1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="EL1" s="56" t="s">
+      <c r="EL1" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="EM1" s="56" t="s">
+      <c r="EM1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="EN1" s="56" t="s">
+      <c r="EN1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EO1" s="56" t="s">
+      <c r="EO1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="EP1" s="56" t="s">
+      <c r="EP1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="EQ1" s="56" t="s">
+      <c r="EQ1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="ER1" s="56" t="s">
+      <c r="ER1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="ES1" s="56" t="s">
+      <c r="ES1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="ET1" s="56" t="s">
+      <c r="ET1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="EU1" s="56" t="s">
+      <c r="EU1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="EV1" s="56" t="s">
+      <c r="EV1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="EW1" s="56" t="s">
+      <c r="EW1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="EX1" s="56" t="s">
+      <c r="EX1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="EY1" s="56" t="s">
+      <c r="EY1" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="EZ1" s="56" t="s">
+      <c r="EZ1" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="FA1" s="56" t="s">
+      <c r="FA1" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="FB1" s="56" t="s">
+      <c r="FB1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="FC1" s="56" t="s">
+      <c r="FC1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="FD1" s="56" t="s">
+      <c r="FD1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="FE1" s="56" t="s">
+      <c r="FE1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="FF1" s="56" t="s">
+      <c r="FF1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="FG1" s="56" t="s">
+      <c r="FG1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="FH1" s="57" t="s">
+      <c r="FH1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="FI1" s="57" t="s">
+      <c r="FI1" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:165" ht="19.5" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>297</v>
+      <c r="A2" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="B2" s="8">
         <v>0.13369126445732676</v>
@@ -3224,8 +3066,8 @@
       </c>
     </row>
     <row r="3" spans="1:165" ht="19.5" customHeight="1">
-      <c r="A3" s="59" t="s">
-        <v>298</v>
+      <c r="A3" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="B3" s="8">
         <v>2.9793880944750543E-2</v>
@@ -3721,1991 +3563,1991 @@
       </c>
     </row>
     <row r="4" spans="1:165" ht="20.25" customHeight="1">
-      <c r="A4" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="61">
+      <c r="A4" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="26">
         <v>0.08</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="26">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="26">
         <v>45.9</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="26">
         <v>26.5</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="26">
         <v>1.31</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="26">
         <v>0.54</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="27">
         <v>0</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="26">
         <v>0.01</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="26">
         <v>0.33</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4" s="26">
         <v>0.02</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="27">
         <v>0</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="26">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="62">
+      <c r="Q4" s="27">
         <v>0</v>
       </c>
-      <c r="R4" s="61">
+      <c r="R4" s="26">
         <v>31.1</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="26">
         <v>0.13</v>
       </c>
-      <c r="T4" s="61">
+      <c r="T4" s="26">
         <v>78.3</v>
       </c>
-      <c r="U4" s="61">
+      <c r="U4" s="26">
         <v>0.02</v>
       </c>
-      <c r="V4" s="62">
+      <c r="V4" s="27">
         <v>0</v>
       </c>
-      <c r="W4" s="61">
+      <c r="W4" s="26">
         <v>36.200000000000003</v>
       </c>
-      <c r="X4" s="62">
+      <c r="X4" s="27">
         <v>0</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="26">
         <v>0.12</v>
       </c>
-      <c r="Z4" s="61">
+      <c r="Z4" s="26">
         <v>0.25</v>
       </c>
-      <c r="AA4" s="61">
+      <c r="AA4" s="26">
         <v>0.7</v>
       </c>
-      <c r="AB4" s="61">
+      <c r="AB4" s="26">
         <v>199.7</v>
       </c>
-      <c r="AC4" s="61">
+      <c r="AC4" s="26">
         <v>15.6</v>
       </c>
-      <c r="AD4" s="61">
+      <c r="AD4" s="26">
         <v>13.8</v>
       </c>
-      <c r="AE4" s="61">
+      <c r="AE4" s="26">
         <v>43.5</v>
       </c>
-      <c r="AF4" s="61">
+      <c r="AF4" s="26">
         <v>196.1</v>
       </c>
-      <c r="AG4" s="61">
+      <c r="AG4" s="26">
         <v>137.69999999999999</v>
       </c>
-      <c r="AH4" s="61">
+      <c r="AH4" s="26">
         <v>59.9</v>
       </c>
-      <c r="AI4" s="61">
+      <c r="AI4" s="26">
         <v>3.16</v>
       </c>
-      <c r="AJ4" s="61">
+      <c r="AJ4" s="26">
         <v>161.69999999999999</v>
       </c>
-      <c r="AK4" s="61">
+      <c r="AK4" s="26">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AL4" s="61">
+      <c r="AL4" s="26">
         <v>43.5</v>
       </c>
-      <c r="AM4" s="61">
+      <c r="AM4" s="26">
         <v>106.7</v>
       </c>
-      <c r="AN4" s="61">
+      <c r="AN4" s="26">
         <v>115.2</v>
       </c>
-      <c r="AO4" s="61">
+      <c r="AO4" s="26">
         <v>27.7</v>
       </c>
-      <c r="AP4" s="61">
+      <c r="AP4" s="26">
         <v>55.1</v>
       </c>
-      <c r="AQ4" s="61">
+      <c r="AQ4" s="26">
         <v>36.799999999999997</v>
       </c>
-      <c r="AR4" s="62">
+      <c r="AR4" s="27">
         <v>137</v>
       </c>
-      <c r="AS4" s="61">
+      <c r="AS4" s="26">
         <v>28.6</v>
       </c>
-      <c r="AT4" s="61">
+      <c r="AT4" s="26">
         <v>5.68</v>
       </c>
-      <c r="AU4" s="61">
+      <c r="AU4" s="26">
         <v>0.15</v>
       </c>
-      <c r="AV4" s="61">
+      <c r="AV4" s="26">
         <v>17.399999999999999</v>
       </c>
-      <c r="AW4" s="62">
+      <c r="AW4" s="27">
         <v>0</v>
       </c>
-      <c r="AX4" s="61">
+      <c r="AX4" s="26">
         <v>0.26</v>
       </c>
-      <c r="AY4" s="62">
+      <c r="AY4" s="27">
         <v>0</v>
       </c>
-      <c r="AZ4" s="61">
+      <c r="AZ4" s="26">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BA4" s="61">
+      <c r="BA4" s="26">
         <v>16.8</v>
       </c>
-      <c r="BB4" s="62">
+      <c r="BB4" s="27">
         <v>0</v>
       </c>
-      <c r="BC4" s="61">
+      <c r="BC4" s="26">
         <v>0.09</v>
       </c>
-      <c r="BD4" s="61">
+      <c r="BD4" s="26">
         <v>0.03</v>
       </c>
-      <c r="BE4" s="61">
+      <c r="BE4" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="BF4" s="61">
+      <c r="BF4" s="26">
         <v>19.5</v>
       </c>
-      <c r="BG4" s="61">
+      <c r="BG4" s="26">
         <v>0.03</v>
       </c>
-      <c r="BH4" s="61">
+      <c r="BH4" s="26">
         <v>0.02</v>
       </c>
-      <c r="BI4" s="62">
+      <c r="BI4" s="27">
         <v>0</v>
       </c>
-      <c r="BJ4" s="61">
+      <c r="BJ4" s="26">
         <v>0.01</v>
       </c>
-      <c r="BK4" s="62">
+      <c r="BK4" s="27">
         <v>0</v>
       </c>
-      <c r="BL4" s="61">
+      <c r="BL4" s="26">
         <v>0.01</v>
       </c>
-      <c r="BM4" s="61">
+      <c r="BM4" s="26">
         <v>0.01</v>
       </c>
-      <c r="BN4" s="62">
+      <c r="BN4" s="27">
         <v>0</v>
       </c>
-      <c r="BO4" s="62">
+      <c r="BO4" s="27">
         <v>0</v>
       </c>
-      <c r="BP4" s="61">
+      <c r="BP4" s="26">
         <v>0.03</v>
       </c>
-      <c r="BQ4" s="62">
+      <c r="BQ4" s="27">
         <v>0</v>
       </c>
-      <c r="BR4" s="62">
+      <c r="BR4" s="27">
         <v>0</v>
       </c>
-      <c r="BS4" s="61">
+      <c r="BS4" s="26">
         <v>0.01</v>
       </c>
-      <c r="BT4" s="61">
+      <c r="BT4" s="26">
         <v>0.02</v>
       </c>
-      <c r="BU4" s="61">
+      <c r="BU4" s="26">
         <v>0.04</v>
       </c>
-      <c r="BV4" s="62">
+      <c r="BV4" s="27">
         <v>0</v>
       </c>
-      <c r="BW4" s="61">
+      <c r="BW4" s="26">
         <v>0.02</v>
       </c>
-      <c r="BX4" s="61">
+      <c r="BX4" s="26">
         <v>1E-3</v>
       </c>
-      <c r="BY4" s="61">
+      <c r="BY4" s="26">
         <v>3.75</v>
       </c>
-      <c r="BZ4" s="61">
+      <c r="BZ4" s="26">
         <v>0.13</v>
       </c>
-      <c r="CA4" s="61">
+      <c r="CA4" s="26">
         <v>0.06</v>
       </c>
-      <c r="CB4" s="61">
+      <c r="CB4" s="26">
         <v>0.03</v>
       </c>
-      <c r="CC4" s="62">
+      <c r="CC4" s="27">
         <v>0</v>
       </c>
-      <c r="CD4" s="62">
+      <c r="CD4" s="27">
         <v>0</v>
       </c>
-      <c r="CE4" s="62">
+      <c r="CE4" s="27">
         <v>0</v>
       </c>
-      <c r="CF4" s="61">
+      <c r="CF4" s="26">
         <v>0.01</v>
       </c>
-      <c r="CG4" s="61">
+      <c r="CG4" s="26">
         <v>0.01</v>
       </c>
-      <c r="CH4" s="61">
+      <c r="CH4" s="26">
         <v>0.03</v>
       </c>
-      <c r="CI4" s="61">
+      <c r="CI4" s="26">
         <v>0.01</v>
       </c>
-      <c r="CJ4" s="63">
+      <c r="CJ4" s="28">
         <v>33.93</v>
       </c>
-      <c r="CK4" s="64">
+      <c r="CK4" s="29">
         <v>37.5</v>
       </c>
-      <c r="CL4" s="64">
+      <c r="CL4" s="29">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="CM4" s="65">
+      <c r="CM4" s="30">
         <v>0</v>
       </c>
-      <c r="CN4" s="64">
+      <c r="CN4" s="29">
         <v>0.4</v>
       </c>
-      <c r="CO4" s="64">
+      <c r="CO4" s="29">
         <v>1.87</v>
       </c>
-      <c r="CP4" s="61">
+      <c r="CP4" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CQ4" s="64">
+      <c r="CQ4" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CR4" s="64">
+      <c r="CR4" s="29">
         <v>1.1399999999999999</v>
       </c>
-      <c r="CS4" s="64">
+      <c r="CS4" s="29">
         <v>171.58</v>
       </c>
-      <c r="CT4" s="64">
+      <c r="CT4" s="29">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="CU4" s="64">
+      <c r="CU4" s="29">
         <v>0.28000000000000003</v>
       </c>
-      <c r="CV4" s="66">
+      <c r="CV4" s="31">
         <v>7.8E-2</v>
       </c>
-      <c r="CW4" s="66">
+      <c r="CW4" s="31">
         <v>4.63</v>
       </c>
-      <c r="CX4" s="66">
+      <c r="CX4" s="31">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="CY4" s="66">
+      <c r="CY4" s="31">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="CZ4" s="64">
+      <c r="CZ4" s="29">
         <v>299.7</v>
       </c>
-      <c r="DA4" s="64">
+      <c r="DA4" s="29">
         <v>1.84</v>
       </c>
-      <c r="DB4" s="67">
+      <c r="DB4" s="32">
         <v>0</v>
       </c>
-      <c r="DC4" s="64">
+      <c r="DC4" s="29">
         <v>0.42</v>
       </c>
-      <c r="DD4" s="64">
+      <c r="DD4" s="29">
         <v>0.08</v>
       </c>
-      <c r="DE4" s="64">
+      <c r="DE4" s="29">
         <v>0.59</v>
       </c>
-      <c r="DF4" s="67">
+      <c r="DF4" s="32">
         <v>0</v>
       </c>
-      <c r="DG4" s="64">
+      <c r="DG4" s="29">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="DH4" s="64">
+      <c r="DH4" s="29">
         <v>13.3</v>
       </c>
-      <c r="DI4" s="64">
+      <c r="DI4" s="29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="DJ4" s="64">
+      <c r="DJ4" s="29">
         <v>0.33</v>
       </c>
-      <c r="DK4" s="68">
+      <c r="DK4" s="33">
         <v>0.59</v>
       </c>
-      <c r="DL4" s="67">
+      <c r="DL4" s="32">
         <v>0</v>
       </c>
-      <c r="DM4" s="64">
+      <c r="DM4" s="29">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="DN4" s="64">
+      <c r="DN4" s="29">
         <v>1.46</v>
       </c>
-      <c r="DO4" s="67">
+      <c r="DO4" s="32">
         <v>15</v>
       </c>
-      <c r="DP4" s="64">
+      <c r="DP4" s="29">
         <v>0.98</v>
       </c>
-      <c r="DQ4" s="64">
+      <c r="DQ4" s="29">
         <v>0.28999999999999998</v>
       </c>
-      <c r="DR4" s="64">
+      <c r="DR4" s="29">
         <v>58.2</v>
       </c>
-      <c r="DS4" s="64">
+      <c r="DS4" s="29">
         <v>171.58</v>
       </c>
-      <c r="DT4" s="66">
+      <c r="DT4" s="31">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="DU4" s="68">
+      <c r="DU4" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="DV4" s="68">
+      <c r="DV4" s="33">
         <v>1.4</v>
       </c>
-      <c r="DW4" s="64">
+      <c r="DW4" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="DX4" s="64">
+      <c r="DX4" s="29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="DY4" s="68">
+      <c r="DY4" s="33">
         <v>0.26</v>
       </c>
-      <c r="DZ4" s="64">
+      <c r="DZ4" s="29">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="EA4" s="68">
+      <c r="EA4" s="33">
         <v>0.15</v>
       </c>
-      <c r="EB4" s="64">
+      <c r="EB4" s="29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="EC4" s="64">
+      <c r="EC4" s="29">
         <v>0.86</v>
       </c>
-      <c r="ED4" s="64">
+      <c r="ED4" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="EE4" s="64">
+      <c r="EE4" s="29">
         <v>4.66</v>
       </c>
-      <c r="EF4" s="64">
+      <c r="EF4" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="EG4" s="66">
+      <c r="EG4" s="31">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="EH4" s="64">
+      <c r="EH4" s="29">
         <v>0.31</v>
       </c>
-      <c r="EI4" s="64">
+      <c r="EI4" s="29">
         <v>4.37</v>
       </c>
-      <c r="EJ4" s="64">
+      <c r="EJ4" s="29">
         <v>0.75</v>
       </c>
-      <c r="EK4" s="64">
+      <c r="EK4" s="29">
         <v>10.72</v>
       </c>
-      <c r="EL4" s="64">
+      <c r="EL4" s="29">
         <v>7.44</v>
       </c>
-      <c r="EM4" s="66">
+      <c r="EM4" s="31">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="EN4" s="66">
+      <c r="EN4" s="31">
         <v>0.43</v>
       </c>
-      <c r="EO4" s="64">
+      <c r="EO4" s="29">
         <v>5.2</v>
       </c>
-      <c r="EP4" s="64">
+      <c r="EP4" s="29">
         <v>28.39</v>
       </c>
-      <c r="EQ4" s="64">
+      <c r="EQ4" s="29">
         <v>0.1</v>
       </c>
-      <c r="ER4" s="64">
+      <c r="ER4" s="29">
         <v>0.08</v>
       </c>
-      <c r="ES4" s="64">
+      <c r="ES4" s="29">
         <v>1.6E-2</v>
       </c>
-      <c r="ET4" s="64">
+      <c r="ET4" s="29">
         <v>3.2</v>
       </c>
-      <c r="EU4" s="64">
+      <c r="EU4" s="29">
         <v>0.52</v>
       </c>
-      <c r="EV4" s="64">
+      <c r="EV4" s="29">
         <v>0.02</v>
       </c>
-      <c r="EW4" s="64">
+      <c r="EW4" s="29">
         <v>0.24</v>
       </c>
-      <c r="EX4" s="64">
+      <c r="EX4" s="29">
         <v>0.89</v>
       </c>
-      <c r="EY4" s="64">
+      <c r="EY4" s="29">
         <v>1E-3</v>
       </c>
-      <c r="EZ4" s="64">
+      <c r="EZ4" s="29">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="FA4" s="64">
+      <c r="FA4" s="29">
         <v>1E-3</v>
       </c>
-      <c r="FB4" s="68">
+      <c r="FB4" s="33">
         <v>1.2E-2</v>
       </c>
-      <c r="FC4" s="64">
+      <c r="FC4" s="29">
         <v>0.79</v>
       </c>
-      <c r="FD4" s="64">
+      <c r="FD4" s="29">
         <v>0.18</v>
       </c>
-      <c r="FE4" s="64">
+      <c r="FE4" s="29">
         <v>0.61</v>
       </c>
-      <c r="FF4" s="64">
+      <c r="FF4" s="29">
         <v>1.87</v>
       </c>
-      <c r="FG4" s="67">
+      <c r="FG4" s="32">
         <v>0</v>
       </c>
-      <c r="FH4" s="67">
+      <c r="FH4" s="32">
         <v>163</v>
       </c>
-      <c r="FI4" s="67">
+      <c r="FI4" s="32">
         <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:165" ht="21" customHeight="1">
-      <c r="A5" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="61">
+      <c r="A5" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="26">
         <v>0.25</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="26">
         <v>1.01</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="26">
         <v>0.67</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="26">
         <v>164.7</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="26">
         <v>58.3</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="26">
         <v>0.09</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="26">
         <v>6.42</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="26">
         <v>2.38</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="26">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="26">
         <v>0.06</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="26">
         <v>2.04</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="26">
         <v>0.08</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="26">
         <v>2.41</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="26">
         <v>0.03</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R5" s="61">
+      <c r="R5" s="26">
         <v>115.8</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="26">
         <v>0.64</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="26">
         <v>216.9</v>
       </c>
-      <c r="U5" s="61">
+      <c r="U5" s="26">
         <v>1.45</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="26">
         <v>0.18</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="26">
         <v>72.900000000000006</v>
       </c>
-      <c r="X5" s="61">
+      <c r="X5" s="26">
         <v>0.04</v>
       </c>
-      <c r="Y5" s="61">
+      <c r="Y5" s="26">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="Z5" s="26">
         <v>0.39</v>
       </c>
-      <c r="AA5" s="61">
+      <c r="AA5" s="26">
         <v>5.07</v>
       </c>
-      <c r="AB5" s="61">
+      <c r="AB5" s="26">
         <v>486.5</v>
       </c>
-      <c r="AC5" s="61">
+      <c r="AC5" s="26">
         <v>33.700000000000003</v>
       </c>
-      <c r="AD5" s="61">
+      <c r="AD5" s="26">
         <v>101.3</v>
       </c>
-      <c r="AE5" s="62">
+      <c r="AE5" s="27">
         <v>250</v>
       </c>
-      <c r="AF5" s="61">
+      <c r="AF5" s="26">
         <v>405.7</v>
       </c>
-      <c r="AG5" s="61">
+      <c r="AG5" s="26">
         <v>350.8</v>
       </c>
-      <c r="AH5" s="61">
+      <c r="AH5" s="26">
         <v>148.4</v>
       </c>
-      <c r="AI5" s="61">
+      <c r="AI5" s="26">
         <v>14.09</v>
       </c>
-      <c r="AJ5" s="62">
+      <c r="AJ5" s="27">
         <v>298</v>
       </c>
-      <c r="AK5" s="61">
+      <c r="AK5" s="26">
         <v>45.57</v>
       </c>
-      <c r="AL5" s="61">
+      <c r="AL5" s="26">
         <v>91.7</v>
       </c>
-      <c r="AM5" s="62">
+      <c r="AM5" s="27">
         <v>358</v>
       </c>
-      <c r="AN5" s="62">
+      <c r="AN5" s="27">
         <v>290</v>
       </c>
-      <c r="AO5" s="61">
+      <c r="AO5" s="26">
         <v>145.80000000000001</v>
       </c>
-      <c r="AP5" s="61">
+      <c r="AP5" s="26">
         <v>136.5</v>
       </c>
-      <c r="AQ5" s="61">
+      <c r="AQ5" s="26">
         <v>98.3</v>
       </c>
-      <c r="AR5" s="61">
+      <c r="AR5" s="26">
         <v>285.5</v>
       </c>
-      <c r="AS5" s="61">
+      <c r="AS5" s="26">
         <v>82.7</v>
       </c>
-      <c r="AT5" s="61">
+      <c r="AT5" s="26">
         <v>19.88</v>
       </c>
-      <c r="AU5" s="61">
+      <c r="AU5" s="26">
         <v>0.68</v>
       </c>
-      <c r="AV5" s="61">
+      <c r="AV5" s="26">
         <v>47.4</v>
       </c>
-      <c r="AW5" s="61">
+      <c r="AW5" s="26">
         <v>0.97</v>
       </c>
-      <c r="AX5" s="61">
+      <c r="AX5" s="26">
         <v>7.17</v>
       </c>
-      <c r="AY5" s="61">
+      <c r="AY5" s="26">
         <v>0.46</v>
       </c>
-      <c r="AZ5" s="61">
+      <c r="AZ5" s="26">
         <v>0.8</v>
       </c>
-      <c r="BA5" s="61">
+      <c r="BA5" s="26">
         <v>61.8</v>
       </c>
-      <c r="BB5" s="61">
+      <c r="BB5" s="26">
         <v>0.03</v>
       </c>
-      <c r="BC5" s="61">
+      <c r="BC5" s="26">
         <v>0.25</v>
       </c>
-      <c r="BD5" s="61">
+      <c r="BD5" s="26">
         <v>0.16</v>
       </c>
-      <c r="BE5" s="61">
+      <c r="BE5" s="26">
         <v>1.04</v>
       </c>
-      <c r="BF5" s="61">
+      <c r="BF5" s="26">
         <v>49.9</v>
       </c>
-      <c r="BG5" s="61">
+      <c r="BG5" s="26">
         <v>0.22</v>
       </c>
-      <c r="BH5" s="61">
+      <c r="BH5" s="26">
         <v>0.16</v>
       </c>
-      <c r="BI5" s="61">
+      <c r="BI5" s="26">
         <v>0.01</v>
       </c>
-      <c r="BJ5" s="61">
+      <c r="BJ5" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BK5" s="61">
+      <c r="BK5" s="26">
         <v>0.03</v>
       </c>
-      <c r="BL5" s="61">
+      <c r="BL5" s="26">
         <v>0.03</v>
       </c>
-      <c r="BM5" s="61">
+      <c r="BM5" s="26">
         <v>0.12</v>
       </c>
-      <c r="BN5" s="61">
+      <c r="BN5" s="26">
         <v>0.06</v>
       </c>
-      <c r="BO5" s="61">
+      <c r="BO5" s="26">
         <v>0.02</v>
       </c>
-      <c r="BP5" s="61">
+      <c r="BP5" s="26">
         <v>0.08</v>
       </c>
-      <c r="BQ5" s="61">
+      <c r="BQ5" s="26">
         <v>0.02</v>
       </c>
-      <c r="BR5" s="61">
+      <c r="BR5" s="26">
         <v>2E-3</v>
       </c>
-      <c r="BS5" s="61">
+      <c r="BS5" s="26">
         <v>0.02</v>
       </c>
-      <c r="BT5" s="61">
+      <c r="BT5" s="26">
         <v>0.05</v>
       </c>
-      <c r="BU5" s="61">
+      <c r="BU5" s="26">
         <v>0.12</v>
       </c>
-      <c r="BV5" s="61">
+      <c r="BV5" s="26">
         <v>2E-3</v>
       </c>
-      <c r="BW5" s="61">
+      <c r="BW5" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BX5" s="61">
+      <c r="BX5" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BY5" s="61">
+      <c r="BY5" s="26">
         <v>12.3</v>
       </c>
-      <c r="BZ5" s="61">
+      <c r="BZ5" s="26">
         <v>0.54</v>
       </c>
-      <c r="CA5" s="61">
+      <c r="CA5" s="26">
         <v>0.31</v>
       </c>
-      <c r="CB5" s="61">
+      <c r="CB5" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="CC5" s="61">
+      <c r="CC5" s="26">
         <v>0.02</v>
       </c>
-      <c r="CD5" s="61">
+      <c r="CD5" s="26">
         <v>1E-3</v>
       </c>
-      <c r="CE5" s="61">
+      <c r="CE5" s="26">
         <v>0.01</v>
       </c>
-      <c r="CF5" s="61">
+      <c r="CF5" s="26">
         <v>0.06</v>
       </c>
-      <c r="CG5" s="61">
+      <c r="CG5" s="26">
         <v>0.06</v>
       </c>
-      <c r="CH5" s="61">
+      <c r="CH5" s="26">
         <v>0.22</v>
       </c>
-      <c r="CI5" s="61">
+      <c r="CI5" s="26">
         <v>0.06</v>
       </c>
-      <c r="CJ5" s="67">
+      <c r="CJ5" s="32">
         <v>290</v>
       </c>
-      <c r="CK5" s="64">
+      <c r="CK5" s="29">
         <v>298.39999999999998</v>
       </c>
-      <c r="CL5" s="64">
+      <c r="CL5" s="29">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="CM5" s="66">
+      <c r="CM5" s="31">
         <v>0.6</v>
       </c>
-      <c r="CN5" s="64">
+      <c r="CN5" s="29">
         <v>3.66</v>
       </c>
-      <c r="CO5" s="64">
+      <c r="CO5" s="29">
         <v>9.09</v>
       </c>
-      <c r="CP5" s="61">
+      <c r="CP5" s="26">
         <v>0.02</v>
       </c>
-      <c r="CQ5" s="64">
+      <c r="CQ5" s="29">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="CR5" s="64">
+      <c r="CR5" s="29">
         <v>7.57</v>
       </c>
-      <c r="CS5" s="64">
+      <c r="CS5" s="29">
         <v>603.79999999999995</v>
       </c>
-      <c r="CT5" s="64">
+      <c r="CT5" s="29">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="CU5" s="64">
+      <c r="CU5" s="29">
         <v>0.45</v>
       </c>
-      <c r="CV5" s="66">
+      <c r="CV5" s="31">
         <v>0.4</v>
       </c>
-      <c r="CW5" s="64">
+      <c r="CW5" s="29">
         <v>42.65</v>
       </c>
-      <c r="CX5" s="66">
+      <c r="CX5" s="31">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="CY5" s="66">
+      <c r="CY5" s="31">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="CZ5" s="67">
+      <c r="CZ5" s="32">
         <v>531</v>
       </c>
-      <c r="DA5" s="64">
+      <c r="DA5" s="29">
         <v>4.3099999999999996</v>
       </c>
-      <c r="DB5" s="64">
+      <c r="DB5" s="29">
         <v>0.03</v>
       </c>
-      <c r="DC5" s="64">
+      <c r="DC5" s="29">
         <v>1.58</v>
       </c>
-      <c r="DD5" s="64">
+      <c r="DD5" s="29">
         <v>0.66</v>
       </c>
-      <c r="DE5" s="64">
+      <c r="DE5" s="29">
         <v>2.72</v>
       </c>
-      <c r="DF5" s="64">
+      <c r="DF5" s="29">
         <v>0.13</v>
       </c>
-      <c r="DG5" s="64">
+      <c r="DG5" s="29">
         <v>0.39</v>
       </c>
-      <c r="DH5" s="64">
+      <c r="DH5" s="29">
         <v>38.799999999999997</v>
       </c>
-      <c r="DI5" s="64">
+      <c r="DI5" s="29">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="DJ5" s="64">
+      <c r="DJ5" s="29">
         <v>0.64</v>
       </c>
-      <c r="DK5" s="68">
+      <c r="DK5" s="33">
         <v>0.69</v>
       </c>
-      <c r="DL5" s="64">
+      <c r="DL5" s="29">
         <v>19.899999999999999</v>
       </c>
-      <c r="DM5" s="64">
+      <c r="DM5" s="29">
         <v>0.06</v>
       </c>
-      <c r="DN5" s="64">
+      <c r="DN5" s="29">
         <v>1.69</v>
       </c>
-      <c r="DO5" s="64">
+      <c r="DO5" s="29">
         <v>48.8</v>
       </c>
-      <c r="DP5" s="64">
+      <c r="DP5" s="29">
         <v>7.9</v>
       </c>
-      <c r="DQ5" s="64">
+      <c r="DQ5" s="29">
         <v>1.53</v>
       </c>
-      <c r="DR5" s="67">
+      <c r="DR5" s="32">
         <v>180</v>
       </c>
-      <c r="DS5" s="64">
+      <c r="DS5" s="29">
         <v>603.84</v>
       </c>
-      <c r="DT5" s="66">
+      <c r="DT5" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="DU5" s="68">
+      <c r="DU5" s="33">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="DV5" s="68">
+      <c r="DV5" s="33">
         <v>1.9</v>
       </c>
-      <c r="DW5" s="64">
+      <c r="DW5" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="DX5" s="64">
+      <c r="DX5" s="29">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="DY5" s="68">
+      <c r="DY5" s="33">
         <v>0.31</v>
       </c>
-      <c r="DZ5" s="64">
+      <c r="DZ5" s="29">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="EA5" s="68">
+      <c r="EA5" s="33">
         <v>0.21</v>
       </c>
-      <c r="EB5" s="64">
+      <c r="EB5" s="29">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="EC5" s="67">
+      <c r="EC5" s="32">
         <v>1</v>
       </c>
-      <c r="ED5" s="64">
+      <c r="ED5" s="29">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="EE5" s="64">
+      <c r="EE5" s="29">
         <v>6.48</v>
       </c>
-      <c r="EF5" s="64">
+      <c r="EF5" s="29">
         <v>0.39</v>
       </c>
-      <c r="EG5" s="66">
+      <c r="EG5" s="31">
         <v>1E-3</v>
       </c>
-      <c r="EH5" s="64">
+      <c r="EH5" s="29">
         <v>0.62</v>
       </c>
-      <c r="EI5" s="64">
+      <c r="EI5" s="29">
         <v>12.93</v>
       </c>
-      <c r="EJ5" s="64">
+      <c r="EJ5" s="29">
         <v>1.79</v>
       </c>
-      <c r="EK5" s="64">
+      <c r="EK5" s="29">
         <v>36.56</v>
       </c>
-      <c r="EL5" s="64">
+      <c r="EL5" s="29">
         <v>29.81</v>
       </c>
-      <c r="EM5" s="66">
+      <c r="EM5" s="31">
         <v>2.8E-3</v>
       </c>
-      <c r="EN5" s="66">
+      <c r="EN5" s="31">
         <v>0.56999999999999995</v>
       </c>
-      <c r="EO5" s="64">
+      <c r="EO5" s="29">
         <v>13.77</v>
       </c>
-      <c r="EP5" s="64">
+      <c r="EP5" s="29">
         <v>59.97</v>
       </c>
-      <c r="EQ5" s="64">
+      <c r="EQ5" s="29">
         <v>0.45</v>
       </c>
-      <c r="ER5" s="64">
+      <c r="ER5" s="29">
         <v>0.53</v>
       </c>
-      <c r="ES5" s="64">
+      <c r="ES5" s="29">
         <v>0.13200000000000001</v>
       </c>
-      <c r="ET5" s="64">
+      <c r="ET5" s="29">
         <v>3.8</v>
       </c>
-      <c r="EU5" s="64">
+      <c r="EU5" s="29">
         <v>1.42</v>
       </c>
-      <c r="EV5" s="64">
+      <c r="EV5" s="29">
         <v>0.04</v>
       </c>
-      <c r="EW5" s="64">
+      <c r="EW5" s="29">
         <v>0.26</v>
       </c>
-      <c r="EX5" s="64">
+      <c r="EX5" s="29">
         <v>1.08</v>
       </c>
-      <c r="EY5" s="64">
+      <c r="EY5" s="29">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="EZ5" s="64">
+      <c r="EZ5" s="29">
         <v>1.11E-2</v>
       </c>
-      <c r="FA5" s="64">
+      <c r="FA5" s="29">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="FB5" s="68">
+      <c r="FB5" s="33">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="FC5" s="64">
+      <c r="FC5" s="29">
         <v>1.8</v>
       </c>
-      <c r="FD5" s="64">
+      <c r="FD5" s="29">
         <v>0.97</v>
       </c>
-      <c r="FE5" s="64">
+      <c r="FE5" s="29">
         <v>0.64</v>
       </c>
-      <c r="FF5" s="64">
+      <c r="FF5" s="29">
         <v>9.09</v>
       </c>
-      <c r="FG5" s="64">
+      <c r="FG5" s="29">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="FH5" s="67">
+      <c r="FH5" s="32">
         <v>765</v>
       </c>
-      <c r="FI5" s="67">
+      <c r="FI5" s="32">
         <v>2048</v>
       </c>
     </row>
     <row r="6" spans="1:165" ht="19.5" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO6" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="AR6" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="AS6" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="AT6" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="AU6" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="AV6" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="AW6" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="AX6" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="AY6" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="AZ6" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="BA6" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="BB6" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="BC6" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="BD6" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="BE6" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="BF6" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="BG6" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="BH6" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="BI6" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="BJ6" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="BK6" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="BL6" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="W6" s="47" t="s">
+      <c r="BM6" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="X6" s="47" t="s">
+      <c r="BN6" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="Y6" s="56" t="s">
+      <c r="BO6" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="Z6" s="56" t="s">
+      <c r="BP6" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="AA6" s="56" t="s">
+      <c r="BQ6" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="AB6" s="47" t="s">
+      <c r="BR6" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="AC6" s="47" t="s">
+      <c r="BS6" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="AD6" s="47" t="s">
+      <c r="BT6" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="AE6" s="48" t="s">
+      <c r="BU6" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="AF6" s="47" t="s">
+      <c r="BV6" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="AG6" s="47" t="s">
+      <c r="BW6" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="AH6" s="47" t="s">
+      <c r="BX6" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="AI6" s="47" t="s">
+      <c r="BY6" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="AJ6" s="48" t="s">
+      <c r="BZ6" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="AK6" s="47" t="s">
+      <c r="CA6" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="AL6" s="47" t="s">
+      <c r="CB6" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="AM6" s="48" t="s">
+      <c r="CC6" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="AN6" s="48" t="s">
+      <c r="CD6" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="AO6" s="47" t="s">
+      <c r="CE6" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="AP6" s="47" t="s">
+      <c r="CF6" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="AQ6" s="47" t="s">
+      <c r="CG6" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="AR6" s="47" t="s">
+      <c r="CH6" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="AS6" s="47" t="s">
+      <c r="CI6" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="AT6" s="47" t="s">
+      <c r="CJ6" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="AU6" s="47" t="s">
+      <c r="CK6" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="AV6" s="47" t="s">
+      <c r="CL6" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="AW6" s="47" t="s">
+      <c r="CM6" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="AX6" s="47" t="s">
+      <c r="CN6" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="AY6" s="47" t="s">
+      <c r="CO6" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="AZ6" s="56" t="s">
+      <c r="CP6" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="BA6" s="47" t="s">
+      <c r="CQ6" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="BB6" s="56" t="s">
+      <c r="CR6" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="BC6" s="56" t="s">
+      <c r="CS6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="CV6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="CX6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB6" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="BD6" s="56" t="s">
+      <c r="DC6" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="BE6" s="47" t="s">
+      <c r="DD6" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="BF6" s="47" t="s">
+      <c r="DE6" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="BG6" s="47" t="s">
+      <c r="DF6" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="BH6" s="47" t="s">
+      <c r="DG6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="DH6" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="BI6" s="47" t="s">
+      <c r="DI6" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="BJ6" s="47" t="s">
+      <c r="DJ6" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="BK6" s="47" t="s">
+      <c r="DK6" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="BL6" s="47" t="s">
+      <c r="DL6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM6" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="BM6" s="47" t="s">
+      <c r="DN6" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="BN6" s="47" t="s">
+      <c r="DO6" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="BO6" s="47" t="s">
+      <c r="DP6" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="BP6" s="47" t="s">
+      <c r="DQ6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DR6" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="BQ6" s="47" t="s">
+      <c r="DS6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="DT6" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="DU6" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="BR6" s="47" t="s">
+      <c r="DV6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="DW6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="DX6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="DY6" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="DZ6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="EA6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="EB6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="EC6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="ED6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="EE6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="EF6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="EG6" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="BS6" s="47" t="s">
+      <c r="EH6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="EI6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ6" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="BT6" s="47" t="s">
+      <c r="EK6" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="BU6" s="47" t="s">
+      <c r="EL6" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="BV6" s="47" t="s">
+      <c r="EM6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="EN6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EO6" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="BW6" s="47" t="s">
+      <c r="EP6" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="BX6" s="47" t="s">
+      <c r="EQ6" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="BY6" s="47" t="s">
+      <c r="ER6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="ES6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="ET6" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="EU6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="EV6" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="EW6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="EX6" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="EY6" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="EZ6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="FA6" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="BZ6" s="47" t="s">
+      <c r="FB6" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="FC6" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="CA6" s="47" t="s">
+      <c r="FD6" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="CB6" s="47" t="s">
+      <c r="FE6" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="FF6" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="FG6" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="CC6" s="47" t="s">
+      <c r="FH6" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="CD6" s="47" t="s">
+      <c r="FI6" s="22" t="s">
         <v>382</v>
-      </c>
-      <c r="CE6" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="CF6" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="CG6" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="CH6" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="CI6" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="CJ6" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK6" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL6" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM6" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="CN6" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="CO6" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="CP6" s="56" t="s">
-        <v>394</v>
-      </c>
-      <c r="CQ6" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="CR6" s="56" t="s">
-        <v>396</v>
-      </c>
-      <c r="CS6" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="CT6" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="CU6" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="CV6" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="CW6" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="CX6" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="CY6" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="CZ6" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA6" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="DB6" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="DC6" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="DD6" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="DE6" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="DF6" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="DG6" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="DH6" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="DI6" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="DJ6" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="DK6" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="DL6" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="DM6" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="DN6" s="56" t="s">
-        <v>407</v>
-      </c>
-      <c r="DO6" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="DP6" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="DQ6" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="DR6" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="DS6" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT6" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="DU6" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="DV6" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="DW6" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="DX6" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="DY6" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="DZ6" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="EA6" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="EB6" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="EC6" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED6" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="EE6" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="EF6" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="EG6" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="EH6" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="EI6" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="EJ6" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="EK6" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="EL6" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="EM6" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN6" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="EO6" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="EP6" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="EQ6" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="ER6" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="ES6" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="ET6" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="EU6" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="EV6" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="EW6" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="EX6" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="EY6" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="EZ6" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="FA6" s="56" t="s">
-        <v>420</v>
-      </c>
-      <c r="FB6" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="FC6" s="56" t="s">
-        <v>421</v>
-      </c>
-      <c r="FD6" s="56" t="s">
-        <v>422</v>
-      </c>
-      <c r="FE6" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="FF6" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="FG6" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="FH6" s="57" t="s">
-        <v>424</v>
-      </c>
-      <c r="FI6" s="57" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:165" ht="18.75" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE7" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ7" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK7" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL7" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM7" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN7" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO7" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="AP7" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ7" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="AS7" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="AT7" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="AW7" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY7" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="AZ7" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA7" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="BB7" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC7" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD7" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE7" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="56" t="s">
+      <c r="BF7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM7" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="BN7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT7" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="BU7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ7" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="CA7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB7" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="CC7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ7" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="CK7" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="CL7" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="CM7" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="CN7" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="CO7" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="CP7" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="CQ7" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="CR7" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="CS7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="CV7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="CX7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB7" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="DC7" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="DD7" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="DE7" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF7" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="DG7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="DH7" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="DI7" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="DJ7" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="DK7" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="DL7" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM7" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="DN7" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="DO7" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="DP7" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="DQ7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DR7" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="DS7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="DT7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="DU7" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="DV7" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="DW7" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="DX7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="DY7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="DZ7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="EA7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="EB7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="EC7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="ED7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="EE7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="EF7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="EG7" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="EH7" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="EI7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ7" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="EK7" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="EL7" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="EM7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="EN7" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EO7" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="EP7" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="EQ7" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="ER7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="ES7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="ET7" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="EU7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="EV7" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="EW7" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="EX7" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="EY7" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="J7" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="M7" s="56" t="s">
-        <v>437</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>438</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q7" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>441</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="T7" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="U7" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="V7" s="56" t="s">
-        <v>444</v>
-      </c>
-      <c r="W7" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="X7" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y7" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z7" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA7" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB7" s="56" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC7" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="AD7" s="56" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE7" s="57" t="s">
-        <v>450</v>
-      </c>
-      <c r="AF7" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG7" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="AH7" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="AI7" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="AJ7" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="AK7" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="AL7" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM7" s="57" t="s">
-        <v>458</v>
-      </c>
-      <c r="AN7" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="AO7" s="56" t="s">
-        <v>460</v>
-      </c>
-      <c r="AP7" s="56" t="s">
-        <v>461</v>
-      </c>
-      <c r="AQ7" s="56" t="s">
-        <v>462</v>
-      </c>
-      <c r="AR7" s="56" t="s">
-        <v>463</v>
-      </c>
-      <c r="AS7" s="56" t="s">
-        <v>464</v>
-      </c>
-      <c r="AT7" s="56" t="s">
-        <v>465</v>
-      </c>
-      <c r="AU7" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV7" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="AW7" s="56" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX7" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY7" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="AZ7" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="BA7" s="56" t="s">
-        <v>469</v>
-      </c>
-      <c r="BB7" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="BC7" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="BD7" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="BE7" s="56" t="s">
-        <v>470</v>
-      </c>
-      <c r="BF7" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG7" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH7" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI7" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ7" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK7" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL7" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM7" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="BN7" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO7" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP7" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ7" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR7" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS7" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT7" s="56" t="s">
-        <v>472</v>
-      </c>
-      <c r="BU7" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV7" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW7" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="BY7" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ7" s="56" t="s">
-        <v>473</v>
-      </c>
-      <c r="CA7" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB7" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="CC7" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD7" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="CE7" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF7" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG7" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH7" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI7" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ7" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK7" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL7" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM7" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="CN7" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="CO7" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="CP7" s="56" t="s">
-        <v>394</v>
-      </c>
-      <c r="CQ7" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="CR7" s="56" t="s">
-        <v>396</v>
-      </c>
-      <c r="CS7" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="CT7" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="CU7" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="CV7" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="CW7" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="CX7" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="CY7" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="CZ7" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA7" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="DB7" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="DC7" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="DD7" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="DE7" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="DF7" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="DG7" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="DH7" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="DI7" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="DJ7" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="DK7" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="DL7" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="DM7" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="DN7" s="56" t="s">
-        <v>407</v>
-      </c>
-      <c r="DO7" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="DP7" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="DQ7" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="DR7" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="DS7" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT7" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="DU7" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="DV7" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="DW7" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="DX7" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="DY7" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="DZ7" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="EA7" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="EB7" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="EC7" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED7" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="EE7" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="EF7" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="EG7" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="EH7" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="EI7" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="EJ7" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="EK7" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="EL7" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="EM7" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN7" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="EO7" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="EP7" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="EQ7" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="ER7" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="ES7" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="ET7" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="EU7" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="EV7" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="EW7" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="EX7" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="EY7" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="EZ7" s="56" t="s">
+      <c r="EZ7" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="FA7" s="56" t="s">
-        <v>420</v>
-      </c>
-      <c r="FB7" s="56" t="s">
+      <c r="FA7" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="FB7" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="FC7" s="56" t="s">
-        <v>421</v>
-      </c>
-      <c r="FD7" s="56" t="s">
-        <v>422</v>
-      </c>
-      <c r="FE7" s="56" t="s">
+      <c r="FC7" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="FD7" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="FE7" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="FF7" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="FG7" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="FH7" s="57" t="s">
-        <v>424</v>
-      </c>
-      <c r="FI7" s="57" t="s">
-        <v>425</v>
+      <c r="FF7" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="FG7" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="FH7" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI7" s="22" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5714,13 +5556,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="52.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6">
+      <c r="A14" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6">
+      <c r="A17" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32.4" customHeight="1">
+      <c r="A18" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6">
+      <c r="A22" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6">
+      <c r="A23" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6">
+      <c r="A24" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A25" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A26" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A27" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A28" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6">
+      <c r="A29" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A30" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A31" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6">
+      <c r="A32" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6">
+      <c r="A33" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6">
+      <c r="A34" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6">
+      <c r="A35" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6">
+      <c r="A36" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6">
+      <c r="A37" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6">
+      <c r="A38" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6">
+      <c r="A39" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A40" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A41" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A42" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A43" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A44" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A45" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A46" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6">
+      <c r="A47" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6">
+      <c r="A48" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6">
+      <c r="A49" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A50" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A51" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A52" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A53" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A54" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6">
+      <c r="A55" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6">
+      <c r="A56" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6">
+      <c r="A57" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6">
+      <c r="A58" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.6">
+      <c r="A59" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.6">
+      <c r="A60" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.6">
+      <c r="A61" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.6">
+      <c r="A62" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6">
+      <c r="A63" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.6">
+      <c r="A64" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A65" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A66" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A67" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A68" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A69" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A70" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A71" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A72" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A73" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A74" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A75" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6">
+      <c r="A76" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.6">
+      <c r="A77" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.6">
+      <c r="A78" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.6">
+      <c r="A79" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.6">
+      <c r="A80" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.6">
+      <c r="A81" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.6">
+      <c r="A82" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.6">
+      <c r="A83" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.6">
+      <c r="A84" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.6">
+      <c r="A85" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.6">
+      <c r="A86" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.6">
+      <c r="A87" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.6">
+      <c r="A88" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.6">
+      <c r="A89" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.6">
+      <c r="A90" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A91" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A92" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A93" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A94" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.6">
+      <c r="A95" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.6">
+      <c r="A96" t="s">
+        <v>453</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.6">
+      <c r="A97" t="s">
+        <v>453</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.6">
+      <c r="A98" t="s">
+        <v>453</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.6">
+      <c r="A99" t="s">
+        <v>453</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.6">
+      <c r="A100" t="s">
+        <v>453</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.6">
+      <c r="A101" t="s">
+        <v>453</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.6">
+      <c r="A102" t="s">
+        <v>453</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A103" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A104" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A105" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B105" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A106" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A107" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+    <sortCondition ref="B2:B48"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -5729,3083 +7099,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>290</v>
+      <c r="A1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="55">
+      <c r="A2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="20">
         <v>93.7</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="20">
         <v>94.4</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="20">
         <v>89.7</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="20">
         <v>98.2</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="20">
         <v>73.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="55">
+      <c r="A3" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="20">
         <v>92.1</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="20">
         <v>90.5</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="20">
         <v>89.2</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="20">
         <v>91.8</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="20">
         <v>86.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="55">
+      <c r="A4" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="20">
         <v>91.8</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="20">
         <v>90.7</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="20">
         <v>87.9</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="20">
         <v>92.1</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="20">
         <v>85.4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="55">
+      <c r="A5" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="20">
         <v>90.4</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="20">
         <v>88.9</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="20">
         <v>86.2</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="20">
         <v>89.7</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="20">
         <v>84.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="55">
+      <c r="A6" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="20">
         <v>93.7</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="20">
         <v>94.4</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="20">
         <v>89.7</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="20">
         <v>98.2</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="20">
         <v>73.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:I113"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="51" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="39">
-        <v>2</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F2" s="24">
-        <f>Ref_stats!CK4 + ((Ref_stats!CK5-Ref_stats!CK4)*20/100)</f>
-        <v>89.68</v>
-      </c>
-      <c r="G2" s="24">
-        <f>Ref_stats!CK4 + ((Ref_stats!CK5-Ref_stats!CK4)*80/100)</f>
-        <v>246.22</v>
-      </c>
-      <c r="H2" s="25">
-        <f>MAX(0, Ref_stats!CK4 + ((Ref_stats!CK5-Ref_stats!CK4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="25">
-        <f>Ref_stats!CK4 + ((Ref_stats!CK5-Ref_stats!CK4)*120/100)</f>
-        <v>350.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="F3" s="24">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*20/100)</f>
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="G3" s="24">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*80/100)</f>
-        <v>1.5199999999999998E-2</v>
-      </c>
-      <c r="H3" s="25">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*-20/100)</f>
-        <v>1.2000000000000005E-3</v>
-      </c>
-      <c r="I3" s="25">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*120/100)</f>
-        <v>2.0799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="24">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*20/100)</f>
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="G4" s="24">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*80/100)</f>
-        <v>1.5199999999999998E-2</v>
-      </c>
-      <c r="H4" s="25">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*-20/100)</f>
-        <v>1.2000000000000005E-3</v>
-      </c>
-      <c r="I4" s="25">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*120/100)</f>
-        <v>2.0799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="24">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*20/100)</f>
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="G5" s="24">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*80/100)</f>
-        <v>1.5199999999999998E-2</v>
-      </c>
-      <c r="H5" s="25">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*-20/100)</f>
-        <v>1.2000000000000005E-3</v>
-      </c>
-      <c r="I5" s="25">
-        <f>Ref_stats!CT4 + ((Ref_stats!CT5-Ref_stats!CT4)*120/100)</f>
-        <v>2.0799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="24">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*20/100)</f>
-        <v>0.1424</v>
-      </c>
-      <c r="G6" s="24">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*80/100)</f>
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="H6" s="25">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*-20/100)</f>
-        <v>1.3600000000000001E-2</v>
-      </c>
-      <c r="I6" s="25">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*120/100)</f>
-        <v>0.46440000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F7" s="24">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*20/100)</f>
-        <v>0.1424</v>
-      </c>
-      <c r="G7" s="24">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*80/100)</f>
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="H7" s="25">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*-20/100)</f>
-        <v>1.3600000000000001E-2</v>
-      </c>
-      <c r="I7" s="25">
-        <f>Ref_stats!CV4 + ((Ref_stats!CV5-Ref_stats!CV4)*120/100)</f>
-        <v>0.46440000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F8" s="24">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*20/100)</f>
-        <v>0.43399999999999994</v>
-      </c>
-      <c r="G8" s="24">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*80/100)</f>
-        <v>0.86599999999999988</v>
-      </c>
-      <c r="H8" s="25">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*-20/100)</f>
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I8" s="25">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*120/100)</f>
-        <v>1.1539999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0.65</v>
-      </c>
-      <c r="F9" s="24">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*20/100)</f>
-        <v>0.43399999999999994</v>
-      </c>
-      <c r="G9" s="24">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*80/100)</f>
-        <v>0.86599999999999988</v>
-      </c>
-      <c r="H9" s="25">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*-20/100)</f>
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I9" s="25">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*120/100)</f>
-        <v>1.1539999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="F10" s="24">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*20/100)</f>
-        <v>0.43399999999999994</v>
-      </c>
-      <c r="G10" s="24">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*80/100)</f>
-        <v>0.86599999999999988</v>
-      </c>
-      <c r="H10" s="32">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*-20/100)</f>
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I10" s="25">
-        <f>Ref_stats!C4 + ((Ref_stats!C5-Ref_stats!C4)*120/100)</f>
-        <v>1.1539999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F11" s="24">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*20/100)</f>
-        <v>69.66</v>
-      </c>
-      <c r="G11" s="24">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*80/100)</f>
-        <v>140.93999999999997</v>
-      </c>
-      <c r="H11" s="25">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*-20/100)</f>
-        <v>22.140000000000004</v>
-      </c>
-      <c r="I11" s="25">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*120/100)</f>
-        <v>188.45999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="24">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*20/100)</f>
-        <v>69.66</v>
-      </c>
-      <c r="G12" s="24">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*80/100)</f>
-        <v>140.93999999999997</v>
-      </c>
-      <c r="H12" s="25">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*-20/100)</f>
-        <v>22.140000000000004</v>
-      </c>
-      <c r="I12" s="25">
-        <f>Ref_stats!E4 + ((Ref_stats!E5-Ref_stats!E4)*120/100)</f>
-        <v>188.45999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1.1764705882352944</v>
-      </c>
-      <c r="F13" s="24">
-        <f>Ref_stats!CR4 + ((Ref_stats!CR5-Ref_stats!CR4)*20/100)</f>
-        <v>2.4260000000000002</v>
-      </c>
-      <c r="G13" s="24">
-        <f>Ref_stats!CR4 + ((Ref_stats!CR5-Ref_stats!CR4)*80/100)</f>
-        <v>6.2840000000000007</v>
-      </c>
-      <c r="H13" s="25">
-        <f>MAX(0, (Ref_stats!CR4+((Ref_stats!CR5-Ref_stats!CR4)*-20/100)))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
-        <f>Ref_stats!CR4 + ((Ref_stats!CR5-Ref_stats!CR4)*120/100)</f>
-        <v>8.8559999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="F14" s="24">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*20/100)</f>
-        <v>25.58</v>
-      </c>
-      <c r="G14" s="24">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*80/100)</f>
-        <v>43.82</v>
-      </c>
-      <c r="H14" s="25">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*-20/100)</f>
-        <v>13.42</v>
-      </c>
-      <c r="I14" s="25">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*120/100)</f>
-        <v>55.98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="40">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*20/100)</f>
-        <v>25.58</v>
-      </c>
-      <c r="G15" s="24">
-        <v>43.82</v>
-      </c>
-      <c r="H15" s="25">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*-20/100)</f>
-        <v>13.42</v>
-      </c>
-      <c r="I15" s="25">
-        <f>Ref_stats!BF4 + ((Ref_stats!BF5-Ref_stats!BF4)*120/100)</f>
-        <v>55.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="31">
-        <v>2</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="F16" s="24">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*20/100)</f>
-        <v>258.024</v>
-      </c>
-      <c r="G16" s="24">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*80/100)</f>
-        <v>517.35599999999988</v>
-      </c>
-      <c r="H16" s="25">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*-20/100)</f>
-        <v>85.136000000000038</v>
-      </c>
-      <c r="I16" s="25">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*120/100)</f>
-        <v>690.24399999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="31">
-        <v>2</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0.625</v>
-      </c>
-      <c r="F17" s="24">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*20/100)</f>
-        <v>258.024</v>
-      </c>
-      <c r="G17" s="24">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*80/100)</f>
-        <v>517.35599999999988</v>
-      </c>
-      <c r="H17" s="25">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*-20/100)</f>
-        <v>85.136000000000038</v>
-      </c>
-      <c r="I17" s="25">
-        <f>Ref_stats!CS4 + ((Ref_stats!CS5-Ref_stats!CS4)*120/100)</f>
-        <v>690.24399999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0.58823529411764719</v>
-      </c>
-      <c r="F18" s="24">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*20/100)</f>
-        <v>5.46</v>
-      </c>
-      <c r="G18" s="24">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*80/100)</f>
-        <v>10.59</v>
-      </c>
-      <c r="H18" s="32">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*-20/100)</f>
-        <v>2.04</v>
-      </c>
-      <c r="I18" s="25">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*120/100)</f>
-        <v>14.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="27">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="24">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*20/100)</f>
-        <v>5.46</v>
-      </c>
-      <c r="G19" s="24">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*80/100)</f>
-        <v>10.59</v>
-      </c>
-      <c r="H19" s="25">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*-20/100)</f>
-        <v>2.04</v>
-      </c>
-      <c r="I19" s="25">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*120/100)</f>
-        <v>14.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*20/100)</f>
-        <v>5.46</v>
-      </c>
-      <c r="G20" s="24">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*80/100)</f>
-        <v>10.59</v>
-      </c>
-      <c r="H20" s="25">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*-20/100)</f>
-        <v>2.04</v>
-      </c>
-      <c r="I20" s="25">
-        <f>Ref_stats!BY4 + ((Ref_stats!BY5-Ref_stats!BY4)*120/100)</f>
-        <v>14.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F21" s="24">
-        <f>Ref_stats!F4 + ((Ref_stats!F5-Ref_stats!F4)*20/100)</f>
-        <v>32.86</v>
-      </c>
-      <c r="G21" s="24">
-        <f>Ref_stats!F4 + ((Ref_stats!F5-Ref_stats!F4)*80/100)</f>
-        <v>51.94</v>
-      </c>
-      <c r="H21" s="25">
-        <f>Ref_stats!F4 + ((Ref_stats!F5-Ref_stats!F4)*-20/100)</f>
-        <v>20.14</v>
-      </c>
-      <c r="I21" s="25">
-        <f>Ref_stats!F4 + ((Ref_stats!F5-Ref_stats!F4)*120/100)</f>
-        <v>64.66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="F22" s="24">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*20/100)</f>
-        <v>32.86</v>
-      </c>
-      <c r="G22" s="24">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*80/100)</f>
-        <v>51.94</v>
-      </c>
-      <c r="H22" s="25">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*-20/100)</f>
-        <v>20.14</v>
-      </c>
-      <c r="I22" s="25">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*120/100)</f>
-        <v>64.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F23" s="24">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*20/100)</f>
-        <v>32.86</v>
-      </c>
-      <c r="G23" s="24">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*80/100)</f>
-        <v>51.94</v>
-      </c>
-      <c r="H23" s="25">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*-20/100)</f>
-        <v>20.14</v>
-      </c>
-      <c r="I23" s="25">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*120/100)</f>
-        <v>64.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A24" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0.62500000000000011</v>
-      </c>
-      <c r="F24" s="24">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*20/100)</f>
-        <v>32.86</v>
-      </c>
-      <c r="G24" s="24">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*80/100)</f>
-        <v>51.94</v>
-      </c>
-      <c r="H24" s="25">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*-20/100)</f>
-        <v>20.14</v>
-      </c>
-      <c r="I24" s="25">
-        <f>Ref_stats!$F$4 + ((Ref_stats!$F$5-Ref_stats!$F$4)*120/100)</f>
-        <v>64.66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="24">
-        <f>Ref_stats!$BA$4 + ((Ref_stats!$BA$5-Ref_stats!$BA$4)*20/100)</f>
-        <v>25.8</v>
-      </c>
-      <c r="G25" s="24">
-        <f>Ref_stats!$BA$4 + ((Ref_stats!$BA$5-Ref_stats!$BA$4)*80/100)</f>
-        <v>52.8</v>
-      </c>
-      <c r="H25" s="25">
-        <f>Ref_stats!$BA$4 + ((Ref_stats!$BA$5-Ref_stats!$BA$4)*-20/100)</f>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="I25" s="25">
-        <f>Ref_stats!$BA$4 + ((Ref_stats!$BA$5-Ref_stats!$BA$4)*120/100)</f>
-        <v>70.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="31">
-        <v>2</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0.58823529411764719</v>
-      </c>
-      <c r="F26" s="24">
-        <f>Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*20/100)</f>
-        <v>1.052</v>
-      </c>
-      <c r="G26" s="24">
-        <f>Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*80/100)</f>
-        <v>3.008</v>
-      </c>
-      <c r="H26" s="25">
-        <f>MAX(0, Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
-        <f>Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*120/100)</f>
-        <v>4.3120000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="31">
-        <v>2</v>
-      </c>
-      <c r="E27" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F27" s="24">
-        <f>Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*20/100)</f>
-        <v>1.052</v>
-      </c>
-      <c r="G27" s="24">
-        <f>Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*80/100)</f>
-        <v>3.008</v>
-      </c>
-      <c r="H27" s="25">
-        <f>MAX(0, Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="25">
-        <f>Ref_stats!$CN$4 + ((Ref_stats!$CN$5-Ref_stats!$CN$4)*120/100)</f>
-        <v>4.3120000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D28" s="27">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F28" s="24">
-        <f>Ref_stats!DD4 + ((Ref_stats!DD5-Ref_stats!DD4)*20/100)</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G28" s="24">
-        <f>Ref_stats!DD4 + ((Ref_stats!DD5-Ref_stats!DD4)*80/100)</f>
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="H28" s="25">
-        <f>MAX(0, Ref_stats!$DD$4 + ((Ref_stats!$DD$5-Ref_stats!$DD$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="25">
-        <f>Ref_stats!DD4 + ((Ref_stats!DD5-Ref_stats!DD4)*120/100)</f>
-        <v>0.77600000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="27">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1.75</v>
-      </c>
-      <c r="F29" s="24">
-        <f>Ref_stats!DD4 + ((Ref_stats!DD5-Ref_stats!DD4)*20/100)</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G29" s="24">
-        <f>Ref_stats!DD4 + ((Ref_stats!DD5-Ref_stats!DD4)*80/100)</f>
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="H29" s="25">
-        <f>MAX(0, Ref_stats!$DD$4 + ((Ref_stats!$DD$5-Ref_stats!$DD$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
-        <f>Ref_stats!DD4 + ((Ref_stats!DD5-Ref_stats!DD4)*120/100)</f>
-        <v>0.77600000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="F30" s="24">
-        <f>Ref_stats!$G$4 + ((Ref_stats!$G$5-Ref_stats!$G$4)*20/100)</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G30" s="24">
-        <f>Ref_stats!$G$4 + ((Ref_stats!$G$5-Ref_stats!$G$4)*80/100)</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H30" s="25">
-        <f>MAX(0, Ref_stats!$G$4 + ((Ref_stats!$G$5-Ref_stats!$G$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="25">
-        <f>Ref_stats!$G$4 + ((Ref_stats!$G$5-Ref_stats!$G$4)*120/100)</f>
-        <v>0.10799999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="27">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="24">
-        <f>Ref_stats!$AH$4 + ((Ref_stats!$AH$5-Ref_stats!$AH$4)*20/100)</f>
-        <v>77.599999999999994</v>
-      </c>
-      <c r="G31" s="24">
-        <f>Ref_stats!$AH$4 + ((Ref_stats!$AH$5-Ref_stats!$AH$4)*80/100)</f>
-        <v>130.69999999999999</v>
-      </c>
-      <c r="H31" s="25">
-        <f>Ref_stats!$AH$4 + ((Ref_stats!$AH$5-Ref_stats!$AH$4)*-20/100)</f>
-        <v>42.2</v>
-      </c>
-      <c r="I31" s="25">
-        <f>Ref_stats!$AH$4 + ((Ref_stats!$AH$5-Ref_stats!$AH$4)*120/100)</f>
-        <v>166.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F32" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*20/100)</f>
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G32" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*80/100)</f>
-        <v>2.012</v>
-      </c>
-      <c r="H32" s="32">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*-20/100)</f>
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="I32" s="25">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*120/100)</f>
-        <v>2.7479999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="F33" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*20/100)</f>
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G33" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*80/100)</f>
-        <v>2.012</v>
-      </c>
-      <c r="H33" s="25">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*-20/100)</f>
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="I33" s="25">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*120/100)</f>
-        <v>2.7479999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A34" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="22">
-        <v>1</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F34" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*20/100)</f>
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G34" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*80/100)</f>
-        <v>2.012</v>
-      </c>
-      <c r="H34" s="32">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*-20/100)</f>
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="I34" s="25">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*120/100)</f>
-        <v>2.7479999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="22">
-        <v>1</v>
-      </c>
-      <c r="E35" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*20/100)</f>
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G35" s="24">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*80/100)</f>
-        <v>2.012</v>
-      </c>
-      <c r="H35" s="71">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*-20/100)</f>
-        <v>0.17200000000000004</v>
-      </c>
-      <c r="I35" s="25">
-        <f>Ref_stats!I4 + ((Ref_stats!I5-Ref_stats!I4)*120/100)</f>
-        <v>2.7479999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A36" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="31">
-        <v>2</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="24">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*20/100)</f>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="G36" s="24">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*80/100)</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H36" s="25">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*-20/100)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="25">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*120/100)</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A37" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="31">
-        <v>2</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F37" s="24">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*20/100)</f>
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="G37" s="24">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*80/100)</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H37" s="25">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*-20/100)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="25">
-        <f>Ref_stats!K4 + ((Ref_stats!K5-Ref_stats!K4)*120/100)</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A38" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0</v>
-      </c>
-      <c r="E38" s="40">
-        <v>1</v>
-      </c>
-      <c r="F38" s="24">
-        <f>Ref_stats!$L$4 + ((Ref_stats!$L$5-Ref_stats!$L$4)*20/100)</f>
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="G38" s="24">
-        <f>Ref_stats!$L$4 + ((Ref_stats!$L$5-Ref_stats!$L$4)*80/100)</f>
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="H38" s="25">
-        <f>Ref_stats!$L$4 + ((Ref_stats!$L$5-Ref_stats!$L$4)*-20/100)</f>
-        <v>0.16600000000000004</v>
-      </c>
-      <c r="I38" s="25">
-        <f>Ref_stats!$L$4 + ((Ref_stats!$L$5-Ref_stats!$L$4)*120/100)</f>
-        <v>1.3139999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A39" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="29">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F39" s="24">
-        <f>Ref_stats!M4 + ((Ref_stats!M5-Ref_stats!M4)*20/100)</f>
-        <v>0.52</v>
-      </c>
-      <c r="G39" s="24">
-        <f>Ref_stats!M4 + ((Ref_stats!M5-Ref_stats!M4)*80/100)</f>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="H39" s="25">
-        <f>MAX(0, Ref_stats!$M$4 + ((Ref_stats!$M$5-Ref_stats!$M$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="25">
-        <f>Ref_stats!M4 + ((Ref_stats!M5-Ref_stats!M4)*120/100)</f>
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A40" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="29">
-        <v>0</v>
-      </c>
-      <c r="E40" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F40" s="24">
-        <f>Ref_stats!M4 + ((Ref_stats!M5-Ref_stats!M4)*20/100)</f>
-        <v>0.52</v>
-      </c>
-      <c r="G40" s="24">
-        <f>Ref_stats!M4 + ((Ref_stats!M5-Ref_stats!M4)*80/100)</f>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="H40" s="25">
-        <f>MAX(0, Ref_stats!$M$4 + ((Ref_stats!$M$5-Ref_stats!$M$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="25">
-        <f>Ref_stats!M4 + ((Ref_stats!M5-Ref_stats!M4)*120/100)</f>
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A41" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="22">
-        <v>1</v>
-      </c>
-      <c r="E41" s="23">
-        <v>1.8750000000000002</v>
-      </c>
-      <c r="F41" s="24">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*20/100)</f>
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="G41" s="24">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*80/100)</f>
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="H41" s="32">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*-20/100)</f>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="I41" s="25">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*120/100)</f>
-        <v>5.4599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A42" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="22">
-        <v>1</v>
-      </c>
-      <c r="E42" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F42" s="24">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*20/100)</f>
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="G42" s="24">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*80/100)</f>
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="H42" s="32">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*-20/100)</f>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="I42" s="25">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*120/100)</f>
-        <v>5.4599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A43" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="22">
-        <v>1</v>
-      </c>
-      <c r="E43" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F43" s="24">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*20/100)</f>
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="G43" s="24">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*80/100)</f>
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="H43" s="32">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*-20/100)</f>
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="I43" s="25">
-        <f>Ref_stats!$CQ$4 + ((Ref_stats!$CQ$5-Ref_stats!$CQ$4)*120/100)</f>
-        <v>5.4599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A44" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="27">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0.58823529411764719</v>
-      </c>
-      <c r="F44" s="24">
-        <f>Ref_stats!$DI$4 + ((Ref_stats!$DI$5-Ref_stats!$DI$4)*20/100)</f>
-        <v>1.6599999999999997E-2</v>
-      </c>
-      <c r="G44" s="24">
-        <f>Ref_stats!$DI$4 + ((Ref_stats!$DI$5-Ref_stats!$DI$4)*80/100)</f>
-        <v>4.2399999999999993E-2</v>
-      </c>
-      <c r="H44" s="32">
-        <f>Ref_stats!$DI$4 + ((Ref_stats!$DI$5-Ref_stats!$DI$4)*-20/100)</f>
-        <v>-5.999999999999981E-4</v>
-      </c>
-      <c r="I44" s="25">
-        <f>Ref_stats!$DI$4 + ((Ref_stats!$DI$5-Ref_stats!$DI$4)*120/100)</f>
-        <v>5.9599999999999993E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A45" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="22">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0.58823529411764719</v>
-      </c>
-      <c r="F45" s="24">
-        <f>Ref_stats!$O$4 + ((Ref_stats!$O$5-Ref_stats!$O$4)*20/100)</f>
-        <v>0.48200000000000004</v>
-      </c>
-      <c r="G45" s="24">
-        <f>Ref_stats!$O$4 + ((Ref_stats!$O$5-Ref_stats!$O$4)*80/100)</f>
-        <v>1.9280000000000002</v>
-      </c>
-      <c r="H45" s="32">
-        <f>MAX(0, Ref_stats!$O$4 + ((Ref_stats!$O$5-Ref_stats!$O$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="25">
-        <f>Ref_stats!$O$4 + ((Ref_stats!$O$5-Ref_stats!$O$4)*120/100)</f>
-        <v>2.8920000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A46" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="31">
-        <v>2</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F46" s="24">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*20/100)</f>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="G46" s="24">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*80/100)</f>
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="H46" s="32">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*-20/100)</f>
-        <v>6.000000000000001E-3</v>
-      </c>
-      <c r="I46" s="25">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*120/100)</f>
-        <v>3.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A47" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="31">
-        <v>2</v>
-      </c>
-      <c r="E47" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F47" s="24">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*20/100)</f>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="G47" s="24">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*80/100)</f>
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="H47" s="32">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*-20/100)</f>
-        <v>6.000000000000001E-3</v>
-      </c>
-      <c r="I47" s="25">
-        <f>Ref_stats!$P$4 + ((Ref_stats!$P$5-Ref_stats!$P$4)*120/100)</f>
-        <v>3.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A48" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="27">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>0.58823529411764719</v>
-      </c>
-      <c r="F48" s="24">
-        <v>23.4</v>
-      </c>
-      <c r="G48" s="24">
-        <v>41.4</v>
-      </c>
-      <c r="H48" s="25">
-        <v>11.399999999999999</v>
-      </c>
-      <c r="I48" s="25">
-        <v>53.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A49" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="27">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <v>1.1764705882352944</v>
-      </c>
-      <c r="F49" s="24">
-        <v>51.1</v>
-      </c>
-      <c r="G49" s="24">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="H49" s="25">
-        <v>39.1</v>
-      </c>
-      <c r="I49" s="25">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A50" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="22">
-        <v>1</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="F50" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*20/100)</f>
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="G50" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*80/100)</f>
-        <v>0.77599999999999991</v>
-      </c>
-      <c r="H50" s="25">
-        <f>MAX(0, Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="25">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*120/100)</f>
-        <v>1.1639999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A51" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="22">
-        <v>1</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0.58823529411764719</v>
-      </c>
-      <c r="F51" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*20/100)</f>
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="G51" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*80/100)</f>
-        <v>0.77599999999999991</v>
-      </c>
-      <c r="H51" s="25">
-        <f>MAX(0, Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="25">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*120/100)</f>
-        <v>1.1639999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A52" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="22">
-        <v>1</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="F52" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*20/100)</f>
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="G52" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*80/100)</f>
-        <v>0.77599999999999991</v>
-      </c>
-      <c r="H52" s="25">
-        <f>MAX(0, Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="25">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*120/100)</f>
-        <v>1.1639999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A53" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="22">
-        <v>1</v>
-      </c>
-      <c r="E53" s="23">
-        <v>1.75</v>
-      </c>
-      <c r="F53" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*20/100)</f>
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="G53" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*80/100)</f>
-        <v>0.77599999999999991</v>
-      </c>
-      <c r="H53" s="25">
-        <f>MAX(0, Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="25">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*120/100)</f>
-        <v>1.1639999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A54" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="22">
-        <v>1</v>
-      </c>
-      <c r="E54" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F54" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*20/100)</f>
-        <v>0.19399999999999998</v>
-      </c>
-      <c r="G54" s="24">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*80/100)</f>
-        <v>0.77599999999999991</v>
-      </c>
-      <c r="H54" s="25">
-        <f>MAX(0, Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*-20/100))</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="25">
-        <f>Ref_stats!$AW$4 + ((Ref_stats!$AW$5-Ref_stats!$AW$4)*120/100)</f>
-        <v>1.1639999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A55" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="27">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F55" s="24">
-        <v>48.04</v>
-      </c>
-      <c r="G55" s="24">
-        <v>98.859999999999985</v>
-      </c>
-      <c r="H55" s="25">
-        <v>14.160000000000004</v>
-      </c>
-      <c r="I55" s="25">
-        <v>132.73999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A56" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="22">
-        <v>1</v>
-      </c>
-      <c r="E56" s="23">
-        <v>1.1764705882352944</v>
-      </c>
-      <c r="F56" s="24">
-        <v>0.122</v>
-      </c>
-      <c r="G56" s="24">
-        <v>0.218</v>
-      </c>
-      <c r="H56" s="25">
-        <v>5.7999999999999996E-2</v>
-      </c>
-      <c r="I56" s="25">
-        <v>0.28200000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A57" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="22">
-        <v>1</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0.35294117647058831</v>
-      </c>
-      <c r="F57" s="24">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G57" s="24">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="H57" s="69">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I57" s="25">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A58" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="22">
-        <v>1</v>
-      </c>
-      <c r="E58" s="23">
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="F58" s="24">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G58" s="24">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="H58" s="25">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I58" s="25">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A59" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="22">
-        <v>1</v>
-      </c>
-      <c r="E59" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="F59" s="24">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G59" s="24">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="H59" s="69">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I59" s="25">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A60" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="31">
-        <v>2</v>
-      </c>
-      <c r="E60" s="23">
-        <v>1.7647058823529416</v>
-      </c>
-      <c r="F60" s="24">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G60" s="24">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H60" s="25">
-        <v>0</v>
-      </c>
-      <c r="I60" s="25">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A61" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="27">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F61" s="24">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G61" s="24">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="H61" s="25">
-        <v>0</v>
-      </c>
-      <c r="I61" s="25">
-        <v>1.736</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A62" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="27">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
-        <v>0.87500000000000011</v>
-      </c>
-      <c r="F62" s="24">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G62" s="24">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="H62" s="25">
-        <v>0</v>
-      </c>
-      <c r="I62" s="25">
-        <v>1.736</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A63" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="27">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="F63" s="24">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G63" s="24">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="H63" s="25">
-        <v>0</v>
-      </c>
-      <c r="I63" s="25">
-        <v>1.736</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="27">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F64" s="24">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*20/100)</f>
-        <v>51.32</v>
-      </c>
-      <c r="G64" s="24">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*80/100)</f>
-        <v>122.18</v>
-      </c>
-      <c r="H64" s="32">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*-20/100)</f>
-        <v>4.0799999999999983</v>
-      </c>
-      <c r="I64" s="25">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*120/100)</f>
-        <v>169.42000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A65" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="27">
-        <v>0</v>
-      </c>
-      <c r="E65" s="23">
-        <v>1.25</v>
-      </c>
-      <c r="F65" s="24">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*20/100)</f>
-        <v>51.32</v>
-      </c>
-      <c r="G65" s="24">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*80/100)</f>
-        <v>122.18</v>
-      </c>
-      <c r="H65" s="25">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*-20/100)</f>
-        <v>4.0799999999999983</v>
-      </c>
-      <c r="I65" s="25">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*120/100)</f>
-        <v>169.42000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="27">
-        <v>0</v>
-      </c>
-      <c r="E66" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="F66" s="24">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*20/100)</f>
-        <v>51.32</v>
-      </c>
-      <c r="G66" s="24">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*80/100)</f>
-        <v>122.18</v>
-      </c>
-      <c r="H66" s="25">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*-20/100)</f>
-        <v>4.0799999999999983</v>
-      </c>
-      <c r="I66" s="25">
-        <f>Ref_stats!AO4 + ((Ref_stats!AO5-Ref_stats!AO4)*120/100)</f>
-        <v>169.42000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A67" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="22">
-        <v>1</v>
-      </c>
-      <c r="E67" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="F67" s="24">
-        <v>1.6420000000000001</v>
-      </c>
-      <c r="G67" s="24">
-        <v>5.7880000000000003</v>
-      </c>
-      <c r="H67" s="32">
-        <v>0</v>
-      </c>
-      <c r="I67" s="25">
-        <v>8.5519999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A68" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="22">
-        <v>1</v>
-      </c>
-      <c r="E68" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F68" s="24">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*20/100)</f>
-        <v>0.43200000000000005</v>
-      </c>
-      <c r="G68" s="24">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*80/100)</f>
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="H68" s="25">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*-20/100)</f>
-        <v>0.12800000000000003</v>
-      </c>
-      <c r="I68" s="25">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*120/100)</f>
-        <v>1.1920000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A69" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="22">
-        <v>1</v>
-      </c>
-      <c r="E69" s="23">
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="F69" s="24">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*20/100)</f>
-        <v>0.43200000000000005</v>
-      </c>
-      <c r="G69" s="24">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*80/100)</f>
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="H69" s="25">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*-20/100)</f>
-        <v>0.12800000000000003</v>
-      </c>
-      <c r="I69" s="25">
-        <f>Ref_stats!BE4 + ((Ref_stats!BE5-Ref_stats!BE4)*120/100)</f>
-        <v>1.1920000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A70" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="31">
-        <v>2</v>
-      </c>
-      <c r="E70" s="23">
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="F70" s="24">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G70" s="24">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H70" s="70">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I70" s="25">
-        <v>43.899999999999991</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A71" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="31">
-        <v>2</v>
-      </c>
-      <c r="E71" s="23">
-        <v>0.35294117647058831</v>
-      </c>
-      <c r="F71" s="24">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G71" s="24">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H71" s="70">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I71" s="25">
-        <v>43.899999999999991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A72" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="31">
-        <v>2</v>
-      </c>
-      <c r="E72" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F72" s="24">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G72" s="24">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H72" s="70">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I72" s="25">
-        <v>43.899999999999991</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A73" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="42">
-        <v>0</v>
-      </c>
-      <c r="E73" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F73" s="24">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G73" s="24">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H73" s="25">
-        <v>0</v>
-      </c>
-      <c r="I73" s="25">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A74" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="27">
-        <v>0</v>
-      </c>
-      <c r="E74" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F74" s="24">
-        <v>43.540000000000006</v>
-      </c>
-      <c r="G74" s="24">
-        <v>65.56</v>
-      </c>
-      <c r="H74" s="25">
-        <v>28.860000000000003</v>
-      </c>
-      <c r="I74" s="25">
-        <v>80.240000000000009</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A75" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="27">
-        <v>0</v>
-      </c>
-      <c r="E75" s="23">
-        <v>0.23529411764705888</v>
-      </c>
-      <c r="F75" s="24">
-        <v>43.540000000000006</v>
-      </c>
-      <c r="G75" s="24">
-        <v>65.56</v>
-      </c>
-      <c r="H75" s="25">
-        <v>28.860000000000003</v>
-      </c>
-      <c r="I75" s="25">
-        <v>80.240000000000009</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A76" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="27">
-        <v>0</v>
-      </c>
-      <c r="E76" s="23">
-        <v>0.23529411764705888</v>
-      </c>
-      <c r="F76" s="24">
-        <v>49.099999999999994</v>
-      </c>
-      <c r="G76" s="37">
-        <v>86</v>
-      </c>
-      <c r="H76" s="32">
-        <v>24.499999999999996</v>
-      </c>
-      <c r="I76" s="25">
-        <v>110.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A77" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="27">
-        <v>0</v>
-      </c>
-      <c r="E77" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F77" s="24">
-        <v>49.099999999999994</v>
-      </c>
-      <c r="G77" s="37">
-        <v>86</v>
-      </c>
-      <c r="H77" s="71">
-        <v>24.499999999999996</v>
-      </c>
-      <c r="I77" s="25">
-        <v>110.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A78" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="29">
-        <v>0</v>
-      </c>
-      <c r="E78" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F78" s="24">
-        <v>7.8000000000000014E-2</v>
-      </c>
-      <c r="G78" s="24">
-        <v>0.31200000000000006</v>
-      </c>
-      <c r="H78" s="25">
-        <v>0</v>
-      </c>
-      <c r="I78" s="25">
-        <v>0.46799999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A79" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="27">
-        <v>0</v>
-      </c>
-      <c r="E79" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="F79" s="24">
-        <v>7.8000000000000014E-2</v>
-      </c>
-      <c r="G79" s="24">
-        <v>0.31200000000000006</v>
-      </c>
-      <c r="H79" s="25">
-        <v>0</v>
-      </c>
-      <c r="I79" s="25">
-        <v>0.46799999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A80" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="22">
-        <v>1</v>
-      </c>
-      <c r="E80" s="23">
-        <v>0.875</v>
-      </c>
-      <c r="F80" s="24">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="G80" s="24">
-        <v>0.378</v>
-      </c>
-      <c r="H80" s="25">
-        <v>0.218</v>
-      </c>
-      <c r="I80" s="25">
-        <v>0.44199999999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A81" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="34">
-        <v>1</v>
-      </c>
-      <c r="E81" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F81" s="24">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="G81" s="24">
-        <v>0.378</v>
-      </c>
-      <c r="H81" s="25">
-        <v>0.218</v>
-      </c>
-      <c r="I81" s="25">
-        <v>0.44199999999999995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-    </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A85" s="43"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A86" s="43"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-    </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A87" s="43"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A88" s="43"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A89" s="43"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-    </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A90" s="43"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A91" s="43"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-    </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A92" s="43"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A93" s="43"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A94" s="43"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A95" s="43"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-    </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A96" s="43"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A97" s="43"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-    </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A98" s="43"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A99" s="43"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A100" s="43"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A101" s="43"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A102" s="43"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-    </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A103" s="43"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-    </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A104" s="43"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-    </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A105" s="43"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-    </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A106" s="43"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
-    </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A107" s="43"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-    </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A108" s="43"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-    </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A109" s="43"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-    </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A110" s="43"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-    </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-    </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A112" s="43"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
-    <sortCondition ref="C1:C81"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
